--- a/tests/regression_data_windows/performance_analysis_ainley_mathieson_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_ainley_mathieson_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014631288676926</v>
+        <v>2.014631286862666</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999940965</v>
+        <v>2.300000000091734</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755593461730291</v>
+        <v>2.755593453714108</v>
       </c>
       <c r="E2" t="n">
-        <v>92.53908666998338</v>
+        <v>92.53908672546774</v>
       </c>
       <c r="F2" t="n">
-        <v>79.02962757491188</v>
+        <v>79.02962752741047</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1459865185751127</v>
+        <v>0.145986519600472</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.175614093487</v>
+        <v>-78.17561404701094</v>
       </c>
       <c r="I2" t="n">
-        <v>136846.6799160138</v>
+        <v>136846.679435666</v>
       </c>
       <c r="J2" t="n">
-        <v>84.10982170621625</v>
+        <v>84.10982141098096</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.83042576203789</v>
+        <v>-23.83042660541742</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4521696606938</v>
+        <v>135.4521701363786</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372123.0126621993</v>
+        <v>372123.0126920487</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.717995537697816</v>
+        <v>0.7179955366534704</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.068915664101385</v>
+        <v>2.068915663090217</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999987679</v>
+        <v>2.39999999989262</v>
       </c>
       <c r="D3" t="n">
-        <v>2.758758066679155</v>
+        <v>2.758758066307437</v>
       </c>
       <c r="E3" t="n">
-        <v>92.50770110040769</v>
+        <v>92.50770111584031</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15611124899317</v>
+        <v>78.15611121774714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1551394065650525</v>
+        <v>0.1551394070437636</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.31125065555823</v>
+        <v>-77.3112506247909</v>
       </c>
       <c r="I3" t="n">
-        <v>141581.7573736168</v>
+        <v>141581.7572979369</v>
       </c>
       <c r="J3" t="n">
-        <v>87.02013360394393</v>
+        <v>87.02013355742896</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.28469378370598</v>
+        <v>-26.28469398811057</v>
       </c>
       <c r="M3" t="n">
-        <v>142.7385993578204</v>
+        <v>142.7385995780434</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370463.5997755181</v>
+        <v>370463.5997960356</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7057278918761365</v>
+        <v>0.7057278918285912</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.10933468506668</v>
+        <v>81.1093344424776</v>
       </c>
       <c r="D2" t="n">
-        <v>81.10933468506668</v>
+        <v>81.1093344424776</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.10933468506668</v>
+        <v>81.1093344424776</v>
       </c>
       <c r="H2" t="n">
-        <v>81.10933468506668</v>
+        <v>81.1093344424776</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3202568572699</v>
+        <v>292.3202568769903</v>
       </c>
       <c r="L2" t="n">
-        <v>132721.3593049497</v>
+        <v>132721.359336246</v>
       </c>
       <c r="M2" t="n">
-        <v>1.582500525682364</v>
+        <v>1.582500525948549</v>
       </c>
       <c r="N2" t="n">
-        <v>334626.9393230029</v>
+        <v>334626.9393371103</v>
       </c>
       <c r="O2" t="n">
-        <v>418495.0690019623</v>
+        <v>418495.069021739</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718241</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687328.3017528557</v>
+        <v>-687328.3018076798</v>
       </c>
       <c r="R2" t="n">
-        <v>717.711451908685</v>
+        <v>717.7114519095771</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.645971640953</v>
+        <v>1006.645971641988</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402577552530163</v>
+        <v>1.402577552529862</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994977397642909</v>
+        <v>0.9994977397644286</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8893146388406</v>
+        <v>342.8893146504173</v>
       </c>
       <c r="W2" t="n">
-        <v>186059.4642190496</v>
+        <v>186059.4642629094</v>
       </c>
       <c r="X2" t="n">
-        <v>5.374625817597164e-06</v>
+        <v>5.374625816330205e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132655.3842840347</v>
+        <v>132655.384315334</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.538329525010858e-06</v>
+        <v>7.538329523232231e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00343383758790464</v>
+        <v>0.003433837587673361</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816983436462855e-05</v>
+        <v>1.816983436559351e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582187936381182</v>
+        <v>0.02582187936529814</v>
       </c>
       <c r="AD2" t="n">
-        <v>132721.3593049497</v>
+        <v>132721.359336246</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.582500525682364</v>
+        <v>1.582500525948549</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582500525682364</v>
+        <v>1.582500525948549</v>
       </c>
       <c r="AG2" t="n">
-        <v>334626.9393230029</v>
+        <v>334626.9393371103</v>
       </c>
       <c r="AH2" t="n">
-        <v>418495.0690019623</v>
+        <v>418495.069021739</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718241</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.711451908685</v>
+        <v>717.7114519095771</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.645971640953</v>
+        <v>1006.645971641988</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8893146388406</v>
+        <v>342.8893146504173</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994977397642909</v>
+        <v>0.9994977397644286</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816983436462855e-05</v>
+        <v>1.816983436559351e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582187936381182</v>
+        <v>0.02582187936529814</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2365466966227797</v>
+        <v>0.2365466959073083</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2365466966227797</v>
+        <v>0.2365466959073083</v>
       </c>
       <c r="DH2" t="n">
-        <v>184799.7899804425</v>
+        <v>184799.7894489967</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.755593461655061</v>
+        <v>2.755593453876889</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>269.8464648134547</v>
+        <v>269.8464623690566</v>
       </c>
       <c r="DU2" t="n">
-        <v>111.5748423263993</v>
+        <v>111.5748412530468</v>
       </c>
       <c r="DV2" t="n">
-        <v>245.6993470324213</v>
+        <v>245.6993448352113</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.57666582033958</v>
+        <v>65.57666583495023</v>
       </c>
       <c r="DX2" t="n">
-        <v>269.8464648134547</v>
+        <v>269.8464623690566</v>
       </c>
       <c r="DY2" t="n">
-        <v>111.5748423263993</v>
+        <v>111.5748412530468</v>
       </c>
       <c r="DZ2" t="n">
-        <v>245.6993470324213</v>
+        <v>245.6993448352113</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.5766658203396</v>
+        <v>65.57666583495023</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.2686899904547</v>
+        <v>259.2686906490488</v>
       </c>
       <c r="EC2" t="n">
-        <v>85557.9872632388</v>
+        <v>85557.98805560225</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.15039880050978</v>
+        <v>1.150398808238525</v>
       </c>
       <c r="EE2" t="n">
-        <v>311003.4151165162</v>
+        <v>311003.4155870127</v>
       </c>
       <c r="EF2" t="n">
-        <v>385375.8738024302</v>
+        <v>385375.8744620419</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.643751867352</v>
+        <v>3788.643751754878</v>
       </c>
       <c r="EH2" t="n">
-        <v>-596900.8285847396</v>
+        <v>-596900.8303911451</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5291678409282</v>
+        <v>716.529167858635</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.194266567254</v>
+        <v>1005.194266590156</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402865803210973</v>
+        <v>1.402865803208268</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993228910411339</v>
+        <v>0.9993228910437439</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.8996794019165</v>
+        <v>322.8996798125697</v>
       </c>
       <c r="EN2" t="n">
-        <v>119945.414018831</v>
+        <v>119945.4151297476</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.337125751577328e-06</v>
+        <v>8.337125674360109e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85500.27646571175</v>
+        <v>85500.27725776746</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.169586861395742e-05</v>
+        <v>1.169586850560947e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003870459728974238</v>
+        <v>0.003870459719167141</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.651329325281139e-05</v>
+        <v>1.651329328662933e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0232836419048848</v>
+        <v>0.02328364195642573</v>
       </c>
       <c r="EU2" t="n">
-        <v>85557.9872632388</v>
+        <v>85557.98805560225</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.15039880050978</v>
+        <v>1.150398808238525</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.15039880050978</v>
+        <v>1.150398808238525</v>
       </c>
       <c r="EX2" t="n">
-        <v>311003.4151165162</v>
+        <v>311003.4155870127</v>
       </c>
       <c r="EY2" t="n">
-        <v>385375.8738024302</v>
+        <v>385375.8744620419</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.643751867352</v>
+        <v>3788.643751754878</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5291678409282</v>
+        <v>716.529167858635</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.194266567254</v>
+        <v>1005.194266590156</v>
       </c>
       <c r="FC2" t="n">
-        <v>322.8996794019165</v>
+        <v>322.8996798125697</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993228910411339</v>
+        <v>0.9993228910437439</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.651329325281139e-05</v>
+        <v>1.651329328662933e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0232836419048848</v>
+        <v>0.02328364195642573</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5936773104133</v>
+        <v>295.5936773105363</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135273.0064223216</v>
+        <v>135273.0064753505</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595011389316142</v>
+        <v>1.595011389941033</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3743524809</v>
+        <v>336974.374352461</v>
       </c>
       <c r="FM2" t="n">
         <v>421784.4310883891</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.643751872554</v>
+        <v>3788.643751760079</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698114.7075467404</v>
+        <v>-698114.7075139594</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561334258123</v>
+        <v>717.8561334259506</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.776809795493</v>
+        <v>1006.776809796364</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477130049541</v>
+        <v>1.402477130050484</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995303445648968</v>
+        <v>0.9995303445647162</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.802736804443</v>
+        <v>344.8027368045691</v>
       </c>
       <c r="FU2" t="n">
-        <v>189629.1931195741</v>
+        <v>189629.1931940054</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.273449638998526e-06</v>
+        <v>5.273449636928646e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135210.1856469315</v>
+        <v>135210.185699912</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395892515163441e-06</v>
+        <v>7.395892512265451e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00339561881231329</v>
+        <v>0.003395618812316788</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925162828918e-05</v>
+        <v>1.83292516283028e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606728822301219</v>
+        <v>0.02606728822303836</v>
       </c>
       <c r="GB2" t="n">
-        <v>135273.0064223216</v>
+        <v>135273.0064753505</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595011389316142</v>
+        <v>1.595011389941033</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595011389316142</v>
+        <v>1.595011389941033</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3743524809</v>
+        <v>336974.374352461</v>
       </c>
       <c r="GF2" t="n">
         <v>421784.4310883891</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.643751872554</v>
+        <v>3788.643751760079</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561334258123</v>
+        <v>717.8561334259506</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.776809795493</v>
+        <v>1006.776809796364</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.802736804443</v>
+        <v>344.8027368045691</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995303445648968</v>
+        <v>0.9995303445647162</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925162828918e-05</v>
+        <v>1.83292516283028e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606728822301219</v>
+        <v>0.02606728822303836</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5936773104133</v>
+        <v>295.5936773105363</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135273.0064223216</v>
+        <v>135273.0064753505</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595011389316142</v>
+        <v>1.595011389941033</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3743524809</v>
+        <v>336974.374352461</v>
       </c>
       <c r="GT2" t="n">
         <v>421784.4310883891</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.643751872554</v>
+        <v>3788.643751760079</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698114.7075467404</v>
+        <v>-698114.7075139594</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561334258123</v>
+        <v>717.8561334259506</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.776809795493</v>
+        <v>1006.776809796364</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477130049541</v>
+        <v>1.402477130050484</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995303445648968</v>
+        <v>0.9995303445647162</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.802736804443</v>
+        <v>344.8027368045691</v>
       </c>
       <c r="HB2" t="n">
-        <v>189629.1931195741</v>
+        <v>189629.1931940054</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.273449638998526e-06</v>
+        <v>5.273449636928646e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135210.1856469315</v>
+        <v>135210.185699912</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395892515163441e-06</v>
+        <v>7.395892512265451e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.00339561881231329</v>
+        <v>0.003395618812316788</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925162828918e-05</v>
+        <v>1.83292516283028e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606728822301219</v>
+        <v>0.02606728822303836</v>
       </c>
       <c r="HI2" t="n">
-        <v>135273.0064223216</v>
+        <v>135273.0064753505</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595011389316142</v>
+        <v>1.595011389941033</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595011389316142</v>
+        <v>1.595011389941033</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3743524809</v>
+        <v>336974.374352461</v>
       </c>
       <c r="HM2" t="n">
         <v>421784.4310883891</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.643751872554</v>
+        <v>3788.643751760079</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561334258123</v>
+        <v>717.8561334259506</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.776809795493</v>
+        <v>1006.776809796364</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.802736804443</v>
+        <v>344.8027368045691</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995303445648968</v>
+        <v>0.9995303445647162</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925162828918e-05</v>
+        <v>1.83292516283028e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606728822301219</v>
+        <v>0.02606728822303836</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8356975309274745</v>
+        <v>0.8356975222945148</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8356975309274745</v>
+        <v>0.8356975222945148</v>
       </c>
       <c r="HY2" t="n">
-        <v>491778.1165214643</v>
+        <v>491778.1143635014</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.755593461708577</v>
+        <v>2.755593453712658</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.0158268540194509</v>
+        <v>0.01582685403082377</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.792061504432141e-07</v>
+        <v>-1.792061493690655e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01378707801977476</v>
+        <v>0.01378707802019051</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02523875693789754</v>
+        <v>0.02523875693289257</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05485250977097275</v>
+        <v>0.05485250977775748</v>
       </c>
       <c r="IH2" t="n">
-        <v>2.399247467366195e-11</v>
+        <v>-2.842688931470327e-10</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>269.8464648134547</v>
+        <v>269.8464623690566</v>
       </c>
       <c r="IL2" t="n">
-        <v>111.5748423263993</v>
+        <v>111.5748412530468</v>
       </c>
       <c r="IM2" t="n">
-        <v>245.6993470324213</v>
+        <v>245.6993448352113</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.57666582033958</v>
+        <v>65.57666583495023</v>
       </c>
       <c r="IO2" t="n">
-        <v>137.522674122559</v>
+        <v>137.5226719672319</v>
       </c>
       <c r="IP2" t="n">
-        <v>111.5748423263993</v>
+        <v>111.5748412530468</v>
       </c>
       <c r="IQ2" t="n">
-        <v>80.39614703242128</v>
+        <v>80.39614483521132</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.77493803676876</v>
+        <v>35.77493755549914</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.268689990355</v>
+        <v>259.2686906487426</v>
       </c>
       <c r="IT2" t="n">
-        <v>85557.98726328752</v>
+        <v>85557.98805541308</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.15039880051088</v>
+        <v>1.150398808237343</v>
       </c>
       <c r="IV2" t="n">
-        <v>311003.4151164444</v>
+        <v>311003.4155867939</v>
       </c>
       <c r="IW2" t="n">
-        <v>385375.8738023298</v>
+        <v>385375.8744617351</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.643751866801</v>
+        <v>3788.643751754328</v>
       </c>
       <c r="IY2" t="n">
-        <v>-596900.8285843193</v>
+        <v>-596900.8303901495</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5291678409257</v>
+        <v>716.5291678586271</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.194266567254</v>
+        <v>1005.194266590149</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402865803210978</v>
+        <v>1.402865803208273</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993228910411321</v>
+        <v>0.9993228910437413</v>
       </c>
       <c r="JD2" t="n">
-        <v>322.8996794018544</v>
+        <v>322.8996798123788</v>
       </c>
       <c r="JE2" t="n">
-        <v>119945.4140188995</v>
+        <v>119945.4151294825</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.337125751572566e-06</v>
+        <v>8.337125674378532e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85500.27646576028</v>
+        <v>85500.27725757823</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.169586861395078e-05</v>
+        <v>1.169586850563535e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003870459728975751</v>
+        <v>0.003870459719171726</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.651329325280629e-05</v>
+        <v>1.651329328661364e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02328364190487705</v>
+        <v>0.02328364195640184</v>
       </c>
       <c r="JL2" t="n">
-        <v>85557.98726328752</v>
+        <v>85557.98805541308</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.15039880051088</v>
+        <v>1.150398808237343</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.15039880051088</v>
+        <v>1.150398808237343</v>
       </c>
       <c r="JO2" t="n">
-        <v>311003.4151164444</v>
+        <v>311003.4155867939</v>
       </c>
       <c r="JP2" t="n">
-        <v>385375.8738023298</v>
+        <v>385375.8744617351</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.643751866801</v>
+        <v>3788.643751754328</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5291678409257</v>
+        <v>716.5291678586271</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.194266567254</v>
+        <v>1005.194266590149</v>
       </c>
       <c r="JT2" t="n">
-        <v>322.8996794018544</v>
+        <v>322.8996798123788</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993228910411321</v>
+        <v>0.9993228910437413</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.651329325280629e-05</v>
+        <v>1.651329328661364e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02328364190487705</v>
+        <v>0.02328364195640184</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.593677310414</v>
+        <v>295.5936773104369</v>
       </c>
       <c r="KA2" t="n">
-        <v>135273.0064225816</v>
+        <v>135273.0064754501</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595011389319205</v>
+        <v>1.595011389942745</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3743524808</v>
+        <v>336974.3743523892</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.643751872003</v>
+        <v>3788.643751759529</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698114.70754658</v>
+        <v>-698114.7075135205</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.856133425813</v>
+        <v>717.8561334259465</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.776809795498</v>
+        <v>1006.776809796363</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477130049545</v>
+        <v>1.40247713005049</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995303445648959</v>
+        <v>0.9995303445647147</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027368044437</v>
+        <v>344.8027368045113</v>
       </c>
       <c r="KL2" t="n">
-        <v>189629.1931199391</v>
+        <v>189629.1931941454</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.273449638988377e-06</v>
+        <v>5.273449636924753e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135210.1856471913</v>
+        <v>135210.1857000112</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395892515149229e-06</v>
+        <v>7.395892512260024e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395618812313306</v>
+        <v>0.003395618812317953</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925162828925e-05</v>
+        <v>1.832925162829799e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606728822301232</v>
+        <v>0.02606728822303097</v>
       </c>
       <c r="KS2" t="n">
-        <v>135273.0064225816</v>
+        <v>135273.0064754501</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595011389319205</v>
+        <v>1.595011389942745</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595011389319205</v>
+        <v>1.595011389942745</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3743524808</v>
+        <v>336974.3743523892</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.643751872003</v>
+        <v>3788.643751759529</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.856133425813</v>
+        <v>717.8561334259465</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.776809795498</v>
+        <v>1006.776809796363</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027368044437</v>
+        <v>344.8027368045113</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995303445648959</v>
+        <v>0.9995303445647147</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925162828925e-05</v>
+        <v>1.832925162829799e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606728822301232</v>
+        <v>0.02606728822303097</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.7076604652386</v>
+        <v>268.7076608278376</v>
       </c>
       <c r="LH2" t="n">
-        <v>96938.70690255334</v>
+        <v>96938.70739732082</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.257580533169887</v>
+        <v>1.257580537889482</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317748.6184418253</v>
+        <v>317748.6187008909</v>
       </c>
       <c r="LK2" t="n">
-        <v>394832.1167512396</v>
+        <v>394832.1171144453</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.643751866801</v>
+        <v>3788.643751754328</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623205.4821491326</v>
+        <v>-623205.4831294629</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8035512944065</v>
+        <v>716.8035513059507</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.534329692645</v>
+        <v>1005.534329707381</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402803219762021</v>
+        <v>1.402803219759987</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993673080057901</v>
+        <v>0.9993673080073757</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.7322732945888</v>
+        <v>328.732273516675</v>
       </c>
       <c r="LS2" t="n">
-        <v>135900.323997631</v>
+        <v>135900.3246912776</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.358334186292537e-06</v>
+        <v>7.358334148734982e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>96877.68183244247</v>
+        <v>96877.68232705475</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.032229488861612e-05</v>
+        <v>1.03222948359153e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003734758728736307</v>
+        <v>0.003734758723711226</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.699447253004303e-05</v>
+        <v>1.699447254840339e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02401806441825321</v>
+        <v>0.02401806444632479</v>
       </c>
       <c r="LZ2" t="n">
-        <v>96938.70690255334</v>
+        <v>96938.70739732082</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.257580533169887</v>
+        <v>1.257580537889482</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.257580533169887</v>
+        <v>1.257580537889482</v>
       </c>
       <c r="MC2" t="n">
-        <v>317748.6184418253</v>
+        <v>317748.6187008909</v>
       </c>
       <c r="MD2" t="n">
-        <v>394832.1167512396</v>
+        <v>394832.1171144453</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.643751866801</v>
+        <v>3788.643751754328</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8035512944065</v>
+        <v>716.8035513059507</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.534329692645</v>
+        <v>1005.534329707381</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.7322732945888</v>
+        <v>328.732273516675</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993673080057901</v>
+        <v>0.9993673080073757</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.699447253004303e-05</v>
+        <v>1.699447254840339e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02401806441825321</v>
+        <v>0.02401806444632479</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8356975309276352</v>
+        <v>0.8356975222950087</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4258990729792879</v>
+        <v>0.4258990657629008</v>
       </c>
       <c r="MP2" t="n">
-        <v>249668.3244970068</v>
+        <v>249668.3217497892</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.755593461711212</v>
+        <v>2.755593453709827</v>
       </c>
       <c r="MR2" t="n">
-        <v>381169.5427860193</v>
+        <v>381169.5431492251</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.4521696606938</v>
+        <v>135.4521701363786</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.904228028082</v>
+        <v>123.9042276576463</v>
       </c>
       <c r="MV2" t="n">
-        <v>-54.72689048862932</v>
+        <v>-54.72689250466001</v>
       </c>
       <c r="MW2" t="n">
-        <v>-23.83042576203789</v>
+        <v>-23.83042660541742</v>
       </c>
       <c r="MX2" t="n">
-        <v>252.5183130857431</v>
+        <v>252.5183146606342</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.904228028082</v>
+        <v>123.9042276576463</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-220.0300904886293</v>
+        <v>-220.03009250466</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.61509381665542</v>
+        <v>-60.61509411434291</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8660758383679</v>
+        <v>236.8660758038395</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000054095</v>
+        <v>59999.99999660785</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.883097053158439</v>
+        <v>0.883097053229648</v>
       </c>
       <c r="NE2" t="n">
-        <v>295006.6654379932</v>
+        <v>295006.6654132565</v>
       </c>
       <c r="NF2" t="n">
-        <v>362949.3675293977</v>
+        <v>362949.3674947285</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.964942653979</v>
+        <v>3799.964942526415</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537133.416760419</v>
+        <v>-537133.416633666</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0326650662954</v>
+        <v>716.0326650658308</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487919714821</v>
+        <v>1004.487919714757</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852088628971</v>
+        <v>1.402852088629792</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992720026205356</v>
+        <v>0.9992720026201206</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6167575074421</v>
+        <v>308.6167574849103</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96332215251</v>
+        <v>84109.96331665321</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919790833656e-05</v>
+        <v>1.18891979091139e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.40167906401</v>
+        <v>59956.40167510887</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878611783313e-05</v>
+        <v>1.667878611893338e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.00423520300691647</v>
+        <v>0.004235203007538542</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534260009180298e-05</v>
+        <v>1.534260008997171e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150588320749918</v>
+        <v>0.02150588320473375</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000054095</v>
+        <v>59999.99999660785</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.883097053158439</v>
+        <v>0.883097053229648</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.883097053158439</v>
+        <v>0.883097053229648</v>
       </c>
       <c r="NX2" t="n">
-        <v>295006.6654379932</v>
+        <v>295006.6654132565</v>
       </c>
       <c r="NY2" t="n">
-        <v>362949.3675293977</v>
+        <v>362949.3674947285</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.964942653979</v>
+        <v>3799.964942526415</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0326650662954</v>
+        <v>716.0326650658308</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487919714821</v>
+        <v>1004.487919714757</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6167575074421</v>
+        <v>308.6167574849103</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992720026205356</v>
+        <v>0.9992720026201206</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534260009180298e-05</v>
+        <v>1.534260008997171e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150588320749918</v>
+        <v>0.02150588320473375</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>246.0270583443645</v>
+        <v>246.0270583742794</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68498.88650758086</v>
+        <v>68498.88656926696</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9706189933531291</v>
+        <v>0.9706189941094198</v>
       </c>
       <c r="OL2" t="n">
-        <v>301550.6387681519</v>
+        <v>301550.6387894369</v>
       </c>
       <c r="OM2" t="n">
-        <v>372123.0126621993</v>
+        <v>372123.0126920487</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.964942662548</v>
+        <v>3799.964942525555</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562771.1839927789</v>
+        <v>-562771.1840429014</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.204946764769</v>
+        <v>716.2049467655221</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.720021908954</v>
+        <v>1004.720021910603</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402838707617787</v>
+        <v>1.402838707618614</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992993900863754</v>
+        <v>0.9992993900861412</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5353217414893</v>
+        <v>314.5353217606313</v>
       </c>
       <c r="OU2" t="n">
-        <v>96025.73310481785</v>
+        <v>96025.7331913274</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041387519435483e-05</v>
+        <v>1.041387518497297e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68451.01477694664</v>
+        <v>68451.01483857378</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.460898721894166e-05</v>
+        <v>1.460898720578904e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004077812618985394</v>
+        <v>0.004077812618496843</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.58260728362132e-05</v>
+        <v>1.582607283778575e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223825931421823</v>
+        <v>0.02223825931660892</v>
       </c>
       <c r="PB2" t="n">
-        <v>68498.88650758086</v>
+        <v>68498.88656926696</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9706189933531291</v>
+        <v>0.9706189941094198</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9706189933531291</v>
+        <v>0.9706189941094198</v>
       </c>
       <c r="PE2" t="n">
-        <v>301550.6387681519</v>
+        <v>301550.6387894369</v>
       </c>
       <c r="PF2" t="n">
-        <v>372123.0126621993</v>
+        <v>372123.0126920487</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.964942662548</v>
+        <v>3799.964942525555</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.204946764769</v>
+        <v>716.2049467655221</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.720021908954</v>
+        <v>1004.720021910603</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5353217414893</v>
+        <v>314.5353217606313</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992993900863754</v>
+        <v>0.9992993900861412</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.58260728362132e-05</v>
+        <v>1.582607283778575e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223825931421823</v>
+        <v>0.02223825931660892</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.6971041430851</v>
+        <v>268.6971045058747</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93187.58427009603</v>
+        <v>93187.58475392361</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.208935608287318</v>
+        <v>1.208935612930018</v>
       </c>
       <c r="PS2" t="n">
-        <v>317749.7778478831</v>
+        <v>317749.7781070948</v>
       </c>
       <c r="PT2" t="n">
-        <v>394832.1167510391</v>
+        <v>394832.1171144394</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.964942653978</v>
+        <v>3799.964942516986</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626207.4591853293</v>
+        <v>-626207.4601637075</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7911972307619</v>
+        <v>716.7911972423185</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.456956010041</v>
+        <v>1005.456956024806</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402719452881823</v>
+        <v>1.402719452879806</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993915382318356</v>
+        <v>0.999391538233308</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.723931586987</v>
+        <v>328.7239318091574</v>
       </c>
       <c r="QB2" t="n">
-        <v>130636.8845150582</v>
+        <v>130636.8851933295</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.654805943299514e-06</v>
+        <v>7.654805903555493e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93131.15623132673</v>
+        <v>93131.15671500089</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.073754520470162e-05</v>
+        <v>1.073754514893647e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003734394804477397</v>
+        <v>0.003734394799450495</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.699336983768301e-05</v>
+        <v>1.699336985605201e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02401592208740152</v>
+        <v>0.02401592211548615</v>
       </c>
       <c r="QI2" t="n">
-        <v>93187.58427009603</v>
+        <v>93187.58475392361</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.208935608287318</v>
+        <v>1.208935612930018</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.208935608287318</v>
+        <v>1.208935612930018</v>
       </c>
       <c r="QL2" t="n">
-        <v>317749.7778478831</v>
+        <v>317749.7781070948</v>
       </c>
       <c r="QM2" t="n">
-        <v>394832.1167510391</v>
+        <v>394832.1171144394</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.964942653978</v>
+        <v>3799.964942516986</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7911972307619</v>
+        <v>716.7911972423185</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.456956010041</v>
+        <v>1005.456956024806</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.723931586987</v>
+        <v>328.7239318091574</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993915382318356</v>
+        <v>0.999391538233308</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.699336983768301e-05</v>
+        <v>1.699336985605201e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02401592208740152</v>
+        <v>0.02401592211548615</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4389008903945453</v>
+        <v>0.4389008919679336</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.818226188121537</v>
+        <v>0.8182261932843391</v>
       </c>
       <c r="QY2" t="n">
-        <v>378771.035413523</v>
+        <v>378771.0378515716</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.755593461730291</v>
+        <v>2.755593453714108</v>
       </c>
       <c r="RA2" t="n">
-        <v>381169.5427860193</v>
+        <v>381169.5431492251</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02482484681506889</v>
+        <v>0.02482484621055762</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001940659308283945</v>
+        <v>0.001940659038811307</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01186833995835109</v>
+        <v>0.01186834000336211</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03210800781720667</v>
+        <v>0.03210800749600074</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04228603638056232</v>
+        <v>0.04228603619870601</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1130278902794729</v>
+        <v>0.1130278889474378</v>
       </c>
       <c r="RH2" t="n">
-        <v>-3.021390082569297e-11</v>
+        <v>-2.972079526930571e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81.20801458693568</v>
+        <v>81.20801456654448</v>
       </c>
       <c r="D3" t="n">
-        <v>81.20801458693568</v>
+        <v>81.20801456654448</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81.20801458693568</v>
+        <v>81.20801456654448</v>
       </c>
       <c r="H3" t="n">
-        <v>81.20801458693568</v>
+        <v>81.20801456654448</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.312270924618</v>
+        <v>292.3122709262693</v>
       </c>
       <c r="L3" t="n">
-        <v>132708.6859169236</v>
+        <v>132708.6859195441</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582392732630795</v>
+        <v>1.582392732653084</v>
       </c>
       <c r="N3" t="n">
-        <v>334621.2264744789</v>
+        <v>334621.2264756602</v>
       </c>
       <c r="O3" t="n">
-        <v>418487.060271813</v>
+        <v>418487.0602734691</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687306.1003598385</v>
+        <v>-687306.1003644296</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7110906404018</v>
+        <v>717.7110906404763</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.645552417971</v>
+        <v>1006.645552418057</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577674422946</v>
+        <v>1.402577674422921</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994976840128654</v>
+        <v>0.999497684012877</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8846265389649</v>
+        <v>342.8846265399343</v>
       </c>
       <c r="W3" t="n">
-        <v>186041.703301938</v>
+        <v>186041.7033056104</v>
       </c>
       <c r="X3" t="n">
-        <v>5.375138919132778e-06</v>
+        <v>5.375138919026675e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132642.7097012505</v>
+        <v>132642.7097038713</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.539049844897522e-06</v>
+        <v>7.539049844748566e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433931248287944</v>
+        <v>0.003433931248268576</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816944359655276e-05</v>
+        <v>1.816944359663356e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582127746689065</v>
+        <v>0.0258212774670151</v>
       </c>
       <c r="AD3" t="n">
-        <v>132708.6859169236</v>
+        <v>132708.6859195441</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582392732630795</v>
+        <v>1.582392732653084</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582392732630795</v>
+        <v>1.582392732653084</v>
       </c>
       <c r="AG3" t="n">
-        <v>334621.2264744789</v>
+        <v>334621.2264756602</v>
       </c>
       <c r="AH3" t="n">
-        <v>418487.060271813</v>
+        <v>418487.0602734691</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718242</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7110906404018</v>
+        <v>717.7110906404763</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.645552417971</v>
+        <v>1006.645552418057</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8846265389649</v>
+        <v>342.8846265399343</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994976840128654</v>
+        <v>0.999497684012877</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816944359655276e-05</v>
+        <v>1.816944359663356e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582127746689065</v>
+        <v>0.0258212774670151</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2368377241249902</v>
+        <v>0.2368377240648511</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2368377241249902</v>
+        <v>0.2368377240648511</v>
       </c>
       <c r="DH3" t="n">
-        <v>185015.998570991</v>
+        <v>185015.9985263171</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.758758066901484</v>
+        <v>2.758758066247623</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>271.5285906125618</v>
+        <v>271.5285898929607</v>
       </c>
       <c r="DU3" t="n">
-        <v>112.2159168761339</v>
+        <v>112.2159166319641</v>
       </c>
       <c r="DV3" t="n">
-        <v>247.255664282323</v>
+        <v>247.2556636028945</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.58928232968992</v>
+        <v>65.58928231735669</v>
       </c>
       <c r="DX3" t="n">
-        <v>271.5285906125618</v>
+        <v>271.5285898929607</v>
       </c>
       <c r="DY3" t="n">
-        <v>112.2159168761339</v>
+        <v>112.2159166319641</v>
       </c>
       <c r="DZ3" t="n">
-        <v>247.255664282323</v>
+        <v>247.2556636028945</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.58928232968992</v>
+        <v>65.58928231735669</v>
       </c>
       <c r="EB3" t="n">
-        <v>258.8140750735773</v>
+        <v>258.8140752686596</v>
       </c>
       <c r="EC3" t="n">
-        <v>85017.40988025248</v>
+        <v>85017.41011246321</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.145140330236641</v>
+        <v>1.145140332500353</v>
       </c>
       <c r="EE3" t="n">
-        <v>310678.6293592321</v>
+        <v>310678.6294985999</v>
       </c>
       <c r="EF3" t="n">
-        <v>384920.543328574</v>
+        <v>384920.5435239597</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.704170007785</v>
+        <v>3788.704169979219</v>
       </c>
       <c r="EH3" t="n">
-        <v>-595649.4221593963</v>
+        <v>-595649.422695726</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5170134515979</v>
+        <v>716.5170134567949</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.178624619973</v>
+        <v>1005.178624626681</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402867769709804</v>
+        <v>1.402867769708991</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993210569059556</v>
+        <v>0.9993210569067331</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.6160904028388</v>
+        <v>322.6160905245849</v>
       </c>
       <c r="EN3" t="n">
-        <v>119187.5130771573</v>
+        <v>119187.513402723</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.390140663079692e-06</v>
+        <v>8.390140640161673e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>84959.90545268021</v>
+        <v>84959.90568480098</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.177025791956614e-05</v>
+        <v>1.177025788740837e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003877242058399307</v>
+        <v>0.003877242055483927</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.648994213041653e-05</v>
+        <v>1.648994214044043e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02324805649450147</v>
+        <v>0.02324805650977612</v>
       </c>
       <c r="EU3" t="n">
-        <v>85017.40988025248</v>
+        <v>85017.41011246321</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.145140330236641</v>
+        <v>1.145140332500353</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.145140330236641</v>
+        <v>1.145140332500353</v>
       </c>
       <c r="EX3" t="n">
-        <v>310678.6293592321</v>
+        <v>310678.6294985999</v>
       </c>
       <c r="EY3" t="n">
-        <v>384920.543328574</v>
+        <v>384920.5435239597</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.704170007785</v>
+        <v>3788.704169979219</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5170134515979</v>
+        <v>716.5170134567949</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.178624619973</v>
+        <v>1005.178624626681</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.6160904028388</v>
+        <v>322.6160905245849</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993210569059556</v>
+        <v>0.9993210569067331</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.648994213041653e-05</v>
+        <v>1.648994214044043e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02324805649450147</v>
+        <v>0.02324805650977612</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936112671998</v>
+        <v>295.593611267223</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135244.5237666899</v>
+        <v>135244.523776726</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594675750385212</v>
+        <v>1.594675750503478</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.385075148</v>
+        <v>336974.385075144</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.704170005712</v>
+        <v>3788.70416998442</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698132.3165464974</v>
+        <v>-698132.3165402914</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.856059236886</v>
+        <v>717.856059236912</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776342140568</v>
+        <v>1006.776342140733</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476623532045</v>
+        <v>1.402476623532224</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.999530441515844</v>
+        <v>0.9995304415158098</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8026690860331</v>
+        <v>344.8026690860569</v>
       </c>
       <c r="FU3" t="n">
-        <v>189589.2148973797</v>
+        <v>189589.2149114664</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.274561638652689e-06</v>
+        <v>5.274561638260784e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135181.7290329672</v>
+        <v>135181.7290429941</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.397449397589278e-06</v>
+        <v>7.397449397040581e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395616933200082</v>
+        <v>0.003395616933200745</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.83292443162203e-05</v>
+        <v>1.832924431622288e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606727416594982</v>
+        <v>0.02606727416595477</v>
       </c>
       <c r="GB3" t="n">
-        <v>135244.5237666899</v>
+        <v>135244.523776726</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594675750385212</v>
+        <v>1.594675750503478</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594675750385212</v>
+        <v>1.594675750503478</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.385075148</v>
+        <v>336974.385075144</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.704170005712</v>
+        <v>3788.70416998442</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.856059236886</v>
+        <v>717.856059236912</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776342140568</v>
+        <v>1006.776342140733</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8026690860331</v>
+        <v>344.8026690860569</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.999530441515844</v>
+        <v>0.9995304415158098</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.83292443162203e-05</v>
+        <v>1.832924431622288e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606727416594982</v>
+        <v>0.02606727416595477</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936112671998</v>
+        <v>295.593611267223</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135244.5237666899</v>
+        <v>135244.523776726</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594675750385212</v>
+        <v>1.594675750503478</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.385075148</v>
+        <v>336974.385075144</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.704170005712</v>
+        <v>3788.70416998442</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698132.3165464974</v>
+        <v>-698132.3165402914</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.856059236886</v>
+        <v>717.856059236912</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776342140568</v>
+        <v>1006.776342140733</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476623532045</v>
+        <v>1.402476623532224</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.999530441515844</v>
+        <v>0.9995304415158098</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8026690860331</v>
+        <v>344.8026690860569</v>
       </c>
       <c r="HB3" t="n">
-        <v>189589.2148973797</v>
+        <v>189589.2149114664</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.274561638652689e-06</v>
+        <v>5.274561638260784e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135181.7290329672</v>
+        <v>135181.7290429941</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.397449397589278e-06</v>
+        <v>7.397449397040581e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395616933200082</v>
+        <v>0.003395616933200745</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.83292443162203e-05</v>
+        <v>1.832924431622288e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606727416594982</v>
+        <v>0.02606727416595477</v>
       </c>
       <c r="HI3" t="n">
-        <v>135244.5237666899</v>
+        <v>135244.523776726</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594675750385212</v>
+        <v>1.594675750503478</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594675750385212</v>
+        <v>1.594675750503478</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.385075148</v>
+        <v>336974.385075144</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.704170005712</v>
+        <v>3788.70416998442</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.856059236886</v>
+        <v>717.856059236912</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776342140568</v>
+        <v>1006.776342140733</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8026690860331</v>
+        <v>344.8026690860569</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.999530441515844</v>
+        <v>0.9995304415158098</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.83292443162203e-05</v>
+        <v>1.832924431622288e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606727416594982</v>
+        <v>0.02606727416595477</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8416461506105106</v>
+        <v>0.8416461480623791</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8416461506105106</v>
+        <v>0.8416461480623793</v>
       </c>
       <c r="HY3" t="n">
-        <v>493279.2915855976</v>
+        <v>493279.2909535758</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.758758066807039</v>
+        <v>2.758758066257788</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01584031320653238</v>
+        <v>0.01584031319423537</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.798815517603347e-07</v>
+        <v>-1.798815509384698e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01378750972752283</v>
+        <v>0.01378750972711846</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0252326906985068</v>
+        <v>0.02523269070400747</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05486033375101025</v>
+        <v>0.05486033374381036</v>
       </c>
       <c r="IH3" t="n">
-        <v>-2.941154264579637e-12</v>
+        <v>-2.94018281943309e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>271.5285906125618</v>
+        <v>271.5285898929607</v>
       </c>
       <c r="IL3" t="n">
-        <v>112.2159168761339</v>
+        <v>112.2159166319641</v>
       </c>
       <c r="IM3" t="n">
-        <v>247.255664282323</v>
+        <v>247.2556636028945</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.58928232968992</v>
+        <v>65.58928231735669</v>
       </c>
       <c r="IO3" t="n">
-        <v>138.9554547410673</v>
+        <v>138.9554541431737</v>
       </c>
       <c r="IP3" t="n">
-        <v>112.2159168761339</v>
+        <v>112.2159166319641</v>
       </c>
       <c r="IQ3" t="n">
-        <v>81.95246428232295</v>
+        <v>81.95246360289451</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.14104874197601</v>
+        <v>36.14104857511387</v>
       </c>
       <c r="IS3" t="n">
-        <v>258.814075073471</v>
+        <v>258.8140752687595</v>
       </c>
       <c r="IT3" t="n">
-        <v>85017.40988013557</v>
+        <v>85017.41011257734</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.145140330235537</v>
+        <v>1.145140332501448</v>
       </c>
       <c r="IV3" t="n">
-        <v>310678.6293591561</v>
+        <v>310678.6294986712</v>
       </c>
       <c r="IW3" t="n">
-        <v>384920.5433284675</v>
+        <v>384920.5435240598</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.704170007769</v>
+        <v>3788.70416997922</v>
       </c>
       <c r="IY3" t="n">
-        <v>-595649.422159096</v>
+        <v>-595649.422696005</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5170134515949</v>
+        <v>716.5170134567971</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.178624619969</v>
+        <v>1005.178624626684</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402867769709805</v>
+        <v>1.402867769708991</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993210569059552</v>
+        <v>0.9993210569067336</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.6160904027726</v>
+        <v>322.6160905246472</v>
       </c>
       <c r="JE3" t="n">
-        <v>119187.5130769934</v>
+        <v>119187.513402883</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.390140663091227e-06</v>
+        <v>8.390140640150409e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>84959.90545256333</v>
+        <v>84959.90568491505</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.177025791958234e-05</v>
+        <v>1.177025788739257e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003877242058400897</v>
+        <v>0.003877242055482432</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.648994213041107e-05</v>
+        <v>1.648994214044556e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02324805649449314</v>
+        <v>0.02324805650978394</v>
       </c>
       <c r="JL3" t="n">
-        <v>85017.40988013557</v>
+        <v>85017.41011257734</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.145140330235537</v>
+        <v>1.145140332501448</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.145140330235537</v>
+        <v>1.145140332501448</v>
       </c>
       <c r="JO3" t="n">
-        <v>310678.6293591561</v>
+        <v>310678.6294986712</v>
       </c>
       <c r="JP3" t="n">
-        <v>384920.5433284675</v>
+        <v>384920.5435240598</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.704170007769</v>
+        <v>3788.70416997922</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5170134515949</v>
+        <v>716.5170134567971</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.178624619969</v>
+        <v>1005.178624626684</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.6160904027726</v>
+        <v>322.6160905246472</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993210569059552</v>
+        <v>0.9993210569067336</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.648994213041107e-05</v>
+        <v>1.648994214044556e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02324805649449314</v>
+        <v>0.02324805650978394</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936112672917</v>
+        <v>295.5936112673228</v>
       </c>
       <c r="KA3" t="n">
-        <v>135244.5237634277</v>
+        <v>135244.5237768847</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594675750346232</v>
+        <v>1.594675750504809</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3850752207</v>
+        <v>336974.3850752154</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.704170012971</v>
+        <v>3788.704169984422</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698132.3165488912</v>
+        <v>-698132.3165405703</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8560592368817</v>
+        <v>717.8560592369167</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776342140517</v>
+        <v>1006.776342140738</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476623531983</v>
+        <v>1.402476623532222</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995304415158563</v>
+        <v>0.9995304415158106</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8026690860833</v>
+        <v>344.8026690861152</v>
       </c>
       <c r="KL3" t="n">
-        <v>189589.2148928005</v>
+        <v>189589.2149116887</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.274561638780088e-06</v>
+        <v>5.2745616382546e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135181.7290297081</v>
+        <v>135181.7290431528</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.39744939776762e-06</v>
+        <v>7.397449397031898e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395616933198711</v>
+        <v>0.0033956169331996</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924431622429e-05</v>
+        <v>1.832924431622775e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606727416595563</v>
+        <v>0.02606727416596227</v>
       </c>
       <c r="KS3" t="n">
-        <v>135244.5237634277</v>
+        <v>135244.5237768847</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594675750346232</v>
+        <v>1.594675750504809</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594675750346232</v>
+        <v>1.594675750504809</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3850752207</v>
+        <v>336974.3850752154</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.704170012971</v>
+        <v>3788.704169984422</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8560592368817</v>
+        <v>717.8560592369167</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776342140517</v>
+        <v>1006.776342140738</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8026690860833</v>
+        <v>344.8026690861152</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995304415158563</v>
+        <v>0.9995304415158106</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924431622429e-05</v>
+        <v>1.832924431622775e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606727416595563</v>
+        <v>0.02606727416596227</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.4508434232141</v>
+        <v>268.4508435353328</v>
       </c>
       <c r="LH3" t="n">
-        <v>96595.21493272384</v>
+        <v>96595.21508321166</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.254324707610231</v>
+        <v>1.254324709039872</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317565.1162576518</v>
+        <v>317565.1163377613</v>
       </c>
       <c r="LK3" t="n">
-        <v>394574.8525298164</v>
+        <v>394574.8526421278</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.70417001441</v>
+        <v>3788.704169985862</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622505.9773916003</v>
+        <v>-622505.9776964097</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.795413218007</v>
+        <v>716.7954132215546</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.524044012194</v>
+        <v>1005.524044016692</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402804796835904</v>
+        <v>1.402804796835236</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993661456293045</v>
+        <v>0.999366145629806</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.5749425360441</v>
+        <v>328.5749426047467</v>
       </c>
       <c r="LS3" t="n">
-        <v>135418.7679680004</v>
+        <v>135418.7681789768</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.384500797085237e-06</v>
+        <v>7.384500785580516e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96534.292065043</v>
+        <v>96534.29221548508</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.035901314038973e-05</v>
+        <v>1.035901312424591e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003738322113952787</v>
+        <v>0.003738322112395735</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698146700666486e-05</v>
+        <v>1.698146701234387e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02399818158902909</v>
+        <v>0.02399818159771088</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96595.21493272384</v>
+        <v>96595.21508321166</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.254324707610231</v>
+        <v>1.254324709039872</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.254324707610231</v>
+        <v>1.254324709039872</v>
       </c>
       <c r="MC3" t="n">
-        <v>317565.1162576518</v>
+        <v>317565.1163377613</v>
       </c>
       <c r="MD3" t="n">
-        <v>394574.8525298164</v>
+        <v>394574.8526421278</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.70417001441</v>
+        <v>3788.704169985862</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.795413218007</v>
+        <v>716.7954132215546</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.524044012194</v>
+        <v>1005.524044016692</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.5749425360441</v>
+        <v>328.5749426047467</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993661456293045</v>
+        <v>0.999366145629806</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698146700666486e-05</v>
+        <v>1.698146701234387e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02399818158902909</v>
+        <v>0.02399818159771088</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8416461506106835</v>
+        <v>0.8416461480622166</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4307145826718912</v>
+        <v>0.4307145806559137</v>
       </c>
       <c r="MP3" t="n">
-        <v>251471.9733708386</v>
+        <v>251471.9726333784</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.75875806680438</v>
+        <v>2.758758066260424</v>
       </c>
       <c r="MR3" t="n">
-        <v>380912.2785645961</v>
+        <v>380912.2786769076</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.7385993578204</v>
+        <v>142.7385995780434</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.9801079262053</v>
+        <v>127.9801078981575</v>
       </c>
       <c r="MV3" t="n">
-        <v>-63.20917434858012</v>
+        <v>-63.20917490267516</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.28469378370598</v>
+        <v>-26.28469398811057</v>
       </c>
       <c r="MX3" t="n">
-        <v>261.909933479486</v>
+        <v>261.90993394922</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.9801079262053</v>
+        <v>127.9801078981575</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-228.5123743485801</v>
+        <v>-228.5123749026752</v>
       </c>
       <c r="NA3" t="n">
-        <v>-60.74865831483183</v>
+        <v>-60.74865837941569</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1959631826583</v>
+        <v>234.195963172204</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999933774</v>
+        <v>57500.0000016152</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559542647664977</v>
+        <v>0.8559542648387541</v>
       </c>
       <c r="NE3" t="n">
-        <v>293099.9595332774</v>
+        <v>293099.9595257786</v>
       </c>
       <c r="NF3" t="n">
-        <v>360276.4459020013</v>
+        <v>360276.4458914925</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.824107321601</v>
+        <v>3800.824107265368</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529861.2168000485</v>
+        <v>-529861.2167576529</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9877378556153</v>
+        <v>715.9877378555015</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421540455874</v>
+        <v>1004.421540455964</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847405549317</v>
+        <v>1.402847405549666</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992672396748752</v>
+        <v>0.999267239674706</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8703687656662</v>
+        <v>306.8703687588033</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.7194212178</v>
+        <v>80604.71942441681</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622146172706e-05</v>
+        <v>1.240622146123468e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.93812097134</v>
+        <v>57457.93812323741</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403559025405e-05</v>
+        <v>1.740403558956765e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283350729444471</v>
+        <v>0.004283350729637913</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.520032149477996e-05</v>
+        <v>1.520032149422364e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.0212907611882406</v>
+        <v>0.02129076118740181</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999933774</v>
+        <v>57500.0000016152</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559542647664977</v>
+        <v>0.8559542648387541</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559542647664977</v>
+        <v>0.8559542648387541</v>
       </c>
       <c r="NX3" t="n">
-        <v>293099.9595332774</v>
+        <v>293099.9595257786</v>
       </c>
       <c r="NY3" t="n">
-        <v>360276.4459020013</v>
+        <v>360276.4458914925</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.824107321601</v>
+        <v>3800.824107265368</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9877378556153</v>
+        <v>715.9877378555015</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421540455874</v>
+        <v>1004.421540455964</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8703687656662</v>
+        <v>306.8703687588033</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992672396748752</v>
+        <v>0.999267239674706</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.520032149477996e-05</v>
+        <v>1.520032149422364e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.0212907611882406</v>
+        <v>0.02129076118740181</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.369368068116</v>
+        <v>244.3693680886483</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66701.60721976127</v>
+        <v>66701.60725236122</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9515664034907627</v>
+        <v>0.9515664038759507</v>
       </c>
       <c r="OL3" t="n">
-        <v>300366.9601977959</v>
+        <v>300366.960212429</v>
       </c>
       <c r="OM3" t="n">
-        <v>370463.5997755181</v>
+        <v>370463.5997960356</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.824107330277</v>
+        <v>3800.824107274043</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558341.3854708428</v>
+        <v>-558341.3855146231</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1704227803307</v>
+        <v>716.1704227807957</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.670277454229</v>
+        <v>1004.670277455112</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402836874432594</v>
+        <v>1.402836874432917</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992961233683603</v>
+        <v>0.9992961233682882</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4726442840272</v>
+        <v>313.47264429721</v>
       </c>
       <c r="OU3" t="n">
-        <v>93505.76657234563</v>
+        <v>93505.76661806076</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069452758537943e-05</v>
+        <v>1.069452758015086e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66654.76811775847</v>
+        <v>66654.76815033078</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500267765140684e-05</v>
+        <v>1.500267764407545e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105379937398556</v>
+        <v>0.004105379937056886</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.57390745643965e-05</v>
+        <v>1.573907456547715e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210627394240496</v>
+        <v>0.02210627394404555</v>
       </c>
       <c r="PB3" t="n">
-        <v>66701.60721976127</v>
+        <v>66701.60725236122</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9515664034907627</v>
+        <v>0.9515664038759507</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9515664034907627</v>
+        <v>0.9515664038759507</v>
       </c>
       <c r="PE3" t="n">
-        <v>300366.9601977959</v>
+        <v>300366.960212429</v>
       </c>
       <c r="PF3" t="n">
-        <v>370463.5997755181</v>
+        <v>370463.5997960356</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.824107330277</v>
+        <v>3800.824107274043</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1704227803307</v>
+        <v>716.1704227807957</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.670277454229</v>
+        <v>1004.670277455112</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4726442840272</v>
+        <v>313.47264429721</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992961233683603</v>
+        <v>0.9992961233682882</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.57390745643965e-05</v>
+        <v>1.573907456547715e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210627394240496</v>
+        <v>0.02210627394404555</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.4395766382316</v>
+        <v>268.4395767503673</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92599.19592257825</v>
+        <v>92599.19607577921</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.202454158023677</v>
+        <v>1.20245415951027</v>
       </c>
       <c r="PS3" t="n">
-        <v>317566.3484592638</v>
+        <v>317566.3485393738</v>
       </c>
       <c r="PT3" t="n">
-        <v>394574.8525296159</v>
+        <v>394574.8526419274</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.8241073216</v>
+        <v>3800.824107265368</v>
       </c>
       <c r="PV3" t="n">
-        <v>-625716.7617161791</v>
+        <v>-625716.7620149805</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7822198921037</v>
+        <v>716.7822198956743</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.441428098626</v>
+        <v>1005.441428103263</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402715357880912</v>
+        <v>1.402715357880393</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993920992992174</v>
+        <v>0.9993920992996396</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.5660637532026</v>
+        <v>328.5660638219081</v>
       </c>
       <c r="QB3" t="n">
-        <v>129811.7301452245</v>
+        <v>129811.7303599998</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.703464077408628e-06</v>
+        <v>7.703464064663146e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92543.17307919954</v>
+        <v>92543.17323234766</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.080576737026499e-05</v>
+        <v>1.080576735238271e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003737932946688939</v>
+        <v>0.003737932945132796</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698029074043334e-05</v>
+        <v>1.698029074611384e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.0239958960761787</v>
+        <v>0.0239958960848635</v>
       </c>
       <c r="QI3" t="n">
-        <v>92599.19592257825</v>
+        <v>92599.19607577921</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.202454158023677</v>
+        <v>1.20245415951027</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.202454158023677</v>
+        <v>1.20245415951027</v>
       </c>
       <c r="QL3" t="n">
-        <v>317566.3484592638</v>
+        <v>317566.3485393738</v>
       </c>
       <c r="QM3" t="n">
-        <v>394574.8525296159</v>
+        <v>394574.8526419274</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.8241073216</v>
+        <v>3800.824107265368</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7822198921037</v>
+        <v>716.7822198956743</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.441428098626</v>
+        <v>1005.441428103263</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.5660637532026</v>
+        <v>328.5660638219081</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993920992992174</v>
+        <v>0.9993920992996396</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698029074043334e-05</v>
+        <v>1.698029074611384e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.0239958960761787</v>
+        <v>0.0239958960848635</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4651429850720422</v>
+        <v>0.4651429858000867</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8534872054704208</v>
+        <v>0.8534872070202332</v>
       </c>
       <c r="QY3" t="n">
-        <v>384347.5952589205</v>
+        <v>384347.595994758</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.758758066679155</v>
+        <v>2.758758066307437</v>
       </c>
       <c r="RA3" t="n">
-        <v>380912.2785645961</v>
+        <v>380912.2786769076</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02499269656272422</v>
+        <v>0.02499269639712902</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002208533062239477</v>
+        <v>0.002208532958907476</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01186225828073722</v>
+        <v>0.01186225829345986</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03219276690494956</v>
+        <v>0.03219276680904117</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04259304858987095</v>
+        <v>0.0425930485078088</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1138493034005214</v>
+        <v>0.1138493029663463</v>
       </c>
       <c r="RH3" t="n">
-        <v>1.243971869957505e-10</v>
+        <v>-8.26923252095213e-12</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,34 +8689,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0158268540194509</v>
+        <v>0.01582685403082377</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.792061504432141e-07</v>
+        <v>-1.792061493690655e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378707801977476</v>
+        <v>0.01378707802019051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02523875693789754</v>
+        <v>0.02523875693289257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05485250977097275</v>
+        <v>0.05485250977775748</v>
       </c>
       <c r="H2" t="n">
-        <v>2.399247467366195e-11</v>
+        <v>-2.842688931470327e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172692383</v>
+        <v>81.7575817419113</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172692383</v>
+        <v>81.7575817419113</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172692383</v>
+        <v>81.7575817419113</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172692383</v>
+        <v>81.7575817419113</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180723461</v>
+        <v>292.2676180712243</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394372625</v>
+        <v>132637.8394354822</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096098469</v>
+        <v>1.581790096083322</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834749816</v>
+        <v>334589.283474179</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800036725</v>
+        <v>418442.2800025474</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625800217</v>
+        <v>-687181.9625769033</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713703947</v>
+        <v>717.7090713703438</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103385</v>
+        <v>1006.643209103326</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574215</v>
+        <v>1.402578355574232</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756383</v>
+        <v>0.9994973723756304</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121221004</v>
+        <v>342.8584121214419</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165863854</v>
+        <v>185942.4165838905</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054407542e-06</v>
+        <v>5.378009054479702e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.856572149</v>
+        <v>132571.8565703686</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095794169e-06</v>
+        <v>7.543079095895472e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038601764</v>
+        <v>0.003434455038614926</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856045933e-05</v>
+        <v>1.816725856040443e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190126216</v>
+        <v>0.02581791190117762</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394372625</v>
+        <v>132637.8394354822</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096098469</v>
+        <v>1.581790096083322</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096098469</v>
+        <v>1.581790096083322</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834749816</v>
+        <v>334589.283474179</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800036725</v>
+        <v>418442.2800025474</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713703947</v>
+        <v>717.7090713703438</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103385</v>
+        <v>1006.643209103326</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121221004</v>
+        <v>342.8584121214419</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756383</v>
+        <v>0.9994973723756304</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856045933e-05</v>
+        <v>1.816725856040443e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190126216</v>
+        <v>0.02581791190117762</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8838,22 +8838,22 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.6000000001887</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="BE2" t="n">
         <v>-696445.9368990486</v>
@@ -8874,43 +8874,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974372401</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087296903e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.661746189</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.24980934697967e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695744088</v>
       </c>
       <c r="BP2" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362602</v>
@@ -8928,7 +8928,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8939,22 +8939,22 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.6000000001887</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="CL2" t="n">
         <v>-696445.9368990486</v>
@@ -8975,43 +8975,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974372401</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087296903e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.661746189</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.24980934697967e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695744088</v>
       </c>
       <c r="CW2" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362602</v>
@@ -9029,7 +9029,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305905387</v>
+        <v>0.23845873063471</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305905387</v>
+        <v>0.23845873063471</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323252648</v>
+        <v>186219.5323581812</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934795878</v>
+        <v>2.776369935278244</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780782556236</v>
+        <v>309.3780719477136</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136419043447</v>
+        <v>126.4136393268969</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727792221177</v>
+        <v>282.3727734648189</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780782556236</v>
+        <v>309.3780719477136</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136419043447</v>
+        <v>126.4136393268969</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727792221177</v>
+        <v>282.3727734648189</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365044982591</v>
+        <v>247.8365064471829</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.2373942233</v>
+        <v>72726.23945518229</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014665996351</v>
+        <v>1.023014686936011</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9114547317</v>
+        <v>302836.9128467812</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.033435918</v>
+        <v>373927.0353874473</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061382377</v>
+        <v>3790.093061127917</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3826201959</v>
+        <v>-565396.3879922046</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430464175</v>
+        <v>716.2529430885028</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581190382</v>
+        <v>1004.831581247092</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457087913</v>
+        <v>1.402900457084659</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812858990072</v>
+        <v>0.9992812859052621</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911152687628</v>
+        <v>315.691116511646</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5421317132</v>
+        <v>101954.5450213729</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292785113179e-06</v>
+        <v>9.808292507120388e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.10999590559</v>
+        <v>72674.11205584946</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005843148735e-05</v>
+        <v>1.376005804145922e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0040485594522579</v>
+        <v>0.004048559420498099</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113114393367e-05</v>
+        <v>1.592113124577681e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288370041126</v>
+        <v>0.02238288385503327</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.2373942233</v>
+        <v>72726.23945518229</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014665996351</v>
+        <v>1.023014686936011</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014665996351</v>
+        <v>1.023014686936011</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9114547317</v>
+        <v>302836.9128467812</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.033435918</v>
+        <v>373927.0353874473</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061382377</v>
+        <v>3790.093061127917</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430464175</v>
+        <v>716.2529430885028</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581190382</v>
+        <v>1004.831581247092</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911152687628</v>
+        <v>315.691116511646</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812858990072</v>
+        <v>0.9992812859052621</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113114393367e-05</v>
+        <v>1.592113124577681e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288370041126</v>
+        <v>0.02238288385503327</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968649787</v>
+        <v>295.5920968652553</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4165299442</v>
+        <v>134591.4166493107</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979526919183</v>
+        <v>1.586979528325804</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309325232</v>
+        <v>336974.6309324783</v>
       </c>
       <c r="FL2" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061392025</v>
+        <v>3790.093061137566</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.124241585</v>
+        <v>-698537.1241674173</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580607501</v>
+        <v>717.8543580610608</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.76561872026</v>
+        <v>1006.765618722221</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008974788</v>
+        <v>1.402465008976911</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648235032</v>
+        <v>0.9995326648230969</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.801116363549</v>
+        <v>344.8011163638327</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5202251482</v>
+        <v>188672.5203926888</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188913608999e-06</v>
+        <v>5.300188908902448e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2174976038</v>
+        <v>134529.2176168617</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329492292717e-06</v>
+        <v>7.433329485703198e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843597834</v>
+        <v>0.003395573843605712</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.83290766524686e-05</v>
+        <v>1.832907665249923e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.026066951844185</v>
+        <v>0.02606695184424389</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4165299442</v>
+        <v>134591.4166493107</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979526919183</v>
+        <v>1.586979528325804</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979526919183</v>
+        <v>1.586979528325804</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309325232</v>
+        <v>336974.6309324783</v>
       </c>
       <c r="GE2" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061392025</v>
+        <v>3790.093061137566</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580607501</v>
+        <v>717.8543580610608</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.76561872026</v>
+        <v>1006.765618722221</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.801116363549</v>
+        <v>344.8011163638327</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648235032</v>
+        <v>0.9995326648230969</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.83290766524686e-05</v>
+        <v>1.832907665249923e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.026066951844185</v>
+        <v>0.02606695184424389</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968649787</v>
+        <v>295.5920968652553</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4165299442</v>
+        <v>134591.4166493107</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979526919183</v>
+        <v>1.586979528325804</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309325232</v>
+        <v>336974.6309324783</v>
       </c>
       <c r="GS2" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061392025</v>
+        <v>3790.093061137566</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.124241585</v>
+        <v>-698537.1241674173</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580607501</v>
+        <v>717.8543580610608</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.76561872026</v>
+        <v>1006.765618722221</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008974788</v>
+        <v>1.402465008976911</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648235032</v>
+        <v>0.9995326648230969</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.801116363549</v>
+        <v>344.8011163638327</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5202251482</v>
+        <v>188672.5203926888</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188913608999e-06</v>
+        <v>5.300188908902448e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2174976038</v>
+        <v>134529.2176168617</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329492292717e-06</v>
+        <v>7.433329485703198e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843597834</v>
+        <v>0.003395573843605712</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.83290766524686e-05</v>
+        <v>1.832907665249923e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.026066951844185</v>
+        <v>0.02606695184424389</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4165299442</v>
+        <v>134591.4166493107</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979526919183</v>
+        <v>1.586979528325804</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979526919183</v>
+        <v>1.586979528325804</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309325232</v>
+        <v>336974.6309324783</v>
       </c>
       <c r="HL2" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061392025</v>
+        <v>3790.093061137566</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580607501</v>
+        <v>717.8543580610608</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.76561872026</v>
+        <v>1006.765618722221</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.801116363549</v>
+        <v>344.8011163638327</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648235032</v>
+        <v>0.9995326648230969</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.83290766524686e-05</v>
+        <v>1.832907665249923e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.026066951844185</v>
+        <v>0.02606695184424389</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,37 +9385,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337326877468</v>
+        <v>0.01619337325046625</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005773623502e-07</v>
+        <v>-1.972005745679777e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827868075</v>
+        <v>0.01379727827868425</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.0251009300731719</v>
+        <v>0.02510093007308807</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138442004997</v>
+        <v>0.055091384401664</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578249863594231e-06</v>
+        <v>5.578027334723901e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024875335352</v>
+        <v>0.9800024636939714</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024875335352</v>
+        <v>0.9800024636939714</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1650774017</v>
+        <v>520038.1617922445</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991764536</v>
+        <v>2.776362991985482</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>1480.456341070356</v>
+        <v>1480.456315835647</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006563199634085404</v>
+        <v>0.00656319951543465</v>
       </c>
       <c r="IL2" t="n">
-        <v>-7.431456305651593e-08</v>
+        <v>-7.431456121420629e-08</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01046619878442062</v>
+        <v>0.01046619858561441</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.00571732988143351</v>
+        <v>0.005717329774138591</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02482484681506889</v>
+        <v>0.02482484621055762</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.001940659308283945</v>
+        <v>0.001940659038811307</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01186833995835109</v>
+        <v>0.01186834000336211</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03210800781720667</v>
+        <v>0.03210800749600074</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04228603638056232</v>
+        <v>0.04228603619870601</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1130278902794729</v>
+        <v>0.1130278889474378</v>
       </c>
       <c r="IV2" t="n">
-        <v>-3.021390082569297e-11</v>
+        <v>-2.972079526930571e-11</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>270.7204514768887</v>
+        <v>270.7204517812301</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9362142059065</v>
+        <v>111.936214268887</v>
       </c>
       <c r="IZ2" t="n">
-        <v>246.4951253008867</v>
+        <v>246.4951256065384</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.57666582033958</v>
+        <v>65.57666583495023</v>
       </c>
       <c r="JB2" t="n">
-        <v>138.2817586842725</v>
+        <v>138.2817589147168</v>
       </c>
       <c r="JC2" t="n">
-        <v>111.9362142059065</v>
+        <v>111.936214268887</v>
       </c>
       <c r="JD2" t="n">
-        <v>81.19192530088674</v>
+        <v>81.19192560653843</v>
       </c>
       <c r="JE2" t="n">
-        <v>35.95491617670647</v>
+        <v>35.95491626390028</v>
       </c>
       <c r="JF2" t="n">
-        <v>259.0328658726468</v>
+        <v>259.0328657903954</v>
       </c>
       <c r="JG2" t="n">
-        <v>85286.54300404787</v>
+        <v>85286.54294280392</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.147794187532725</v>
+        <v>1.147794187073675</v>
       </c>
       <c r="JI2" t="n">
-        <v>310834.9146078306</v>
+        <v>310834.914548979</v>
       </c>
       <c r="JJ2" t="n">
-        <v>385139.6496643638</v>
+        <v>385139.6495818718</v>
       </c>
       <c r="JK2" t="n">
-        <v>3788.643751866801</v>
+        <v>3788.643751754327</v>
       </c>
       <c r="JL2" t="n">
-        <v>-596243.5991521907</v>
+        <v>-596243.5988939269</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5228834699752</v>
+        <v>716.5228834679067</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.186348791941</v>
+        <v>1005.186348789935</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402867056979432</v>
+        <v>1.402867056980682</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993218641063507</v>
+        <v>0.9993218641057293</v>
       </c>
       <c r="JQ2" t="n">
-        <v>322.7526057282749</v>
+        <v>322.7526056769753</v>
       </c>
       <c r="JR2" t="n">
-        <v>119564.8533618156</v>
+        <v>119564.8532759884</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.363661827727055e-06</v>
+        <v>8.36366183373074e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>85228.92655221035</v>
+        <v>85228.92649095457</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.173310565383468e-05</v>
+        <v>1.17331056622675e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003873976451500736</v>
+        <v>0.003873976452733682</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.650118368195906e-05</v>
+        <v>1.650118367773985e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02326518836663965</v>
+        <v>0.02326518836021475</v>
       </c>
       <c r="JY2" t="n">
-        <v>85286.54300404787</v>
+        <v>85286.54294280392</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.147794187532725</v>
+        <v>1.147794187073675</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.147794187532725</v>
+        <v>1.147794187073675</v>
       </c>
       <c r="KB2" t="n">
-        <v>310834.9146078306</v>
+        <v>310834.914548979</v>
       </c>
       <c r="KC2" t="n">
-        <v>385139.6496643638</v>
+        <v>385139.6495818718</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.643751866801</v>
+        <v>3788.643751754327</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5228834699752</v>
+        <v>716.5228834679067</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.186348791941</v>
+        <v>1005.186348789935</v>
       </c>
       <c r="KG2" t="n">
-        <v>322.7526057282749</v>
+        <v>322.7526056769753</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993218641063507</v>
+        <v>0.9993218641057293</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.650118368195906e-05</v>
+        <v>1.650118367773985e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02326518836663965</v>
+        <v>0.02326518836021475</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.593677310414</v>
+        <v>295.5936773104368</v>
       </c>
       <c r="KN2" t="n">
-        <v>135273.0064225819</v>
+        <v>135273.0064754498</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.595011389319208</v>
+        <v>1.595011389942742</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.3743524808</v>
+        <v>336974.3743523892</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="KR2" t="n">
-        <v>3788.643751872002</v>
+        <v>3788.643751759529</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698114.7075465799</v>
+        <v>-698114.7075135204</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.856133425813</v>
+        <v>717.8561334259465</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.776809795498</v>
+        <v>1006.776809796363</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402477130049545</v>
+        <v>1.40247713005049</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995303445648959</v>
+        <v>0.9995303445647147</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8027368044437</v>
+        <v>344.8027368045113</v>
       </c>
       <c r="KY2" t="n">
-        <v>189629.1931199394</v>
+        <v>189629.1931941451</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.273449638988369e-06</v>
+        <v>5.273449636924762e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>135210.1856471915</v>
+        <v>135210.1857000109</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.395892515149217e-06</v>
+        <v>7.395892512260038e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395618812313306</v>
+        <v>0.003395618812317954</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832925162828925e-05</v>
+        <v>1.832925162829798e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606728822301232</v>
+        <v>0.02606728822303097</v>
       </c>
       <c r="LF2" t="n">
-        <v>135273.0064225819</v>
+        <v>135273.0064754498</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.595011389319208</v>
+        <v>1.595011389942742</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.595011389319208</v>
+        <v>1.595011389942742</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.3743524808</v>
+        <v>336974.3743523892</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="LK2" t="n">
-        <v>3788.643751872002</v>
+        <v>3788.643751759529</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.856133425813</v>
+        <v>717.8561334259465</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.776809795498</v>
+        <v>1006.776809796363</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8027368044437</v>
+        <v>344.8027368045113</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995303445648959</v>
+        <v>0.9995303445647147</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832925162828925e-05</v>
+        <v>1.832925162829798e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606728822301232</v>
+        <v>0.02606728822303097</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>268.5763740097906</v>
+        <v>268.5763739594711</v>
       </c>
       <c r="LU2" t="n">
-        <v>96773.37951470278</v>
+        <v>96773.37948918225</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.256050269232778</v>
+        <v>1.256050269137497</v>
       </c>
       <c r="LW2" t="n">
-        <v>317654.7866411222</v>
+        <v>317654.7866050703</v>
       </c>
       <c r="LX2" t="n">
-        <v>394700.5720568715</v>
+        <v>394700.5720063461</v>
       </c>
       <c r="LY2" t="n">
-        <v>3788.643751873433</v>
+        <v>3788.64375176096</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-622839.629236144</v>
+        <v>-622839.6290658191</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.7994201154885</v>
+        <v>716.7994201140286</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.529281082942</v>
+        <v>1005.529281081789</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402804261366359</v>
+        <v>1.402804261367607</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993666455122118</v>
+        <v>0.9993666455117118</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.6518594324246</v>
+        <v>328.6518594016186</v>
       </c>
       <c r="MF2" t="n">
-        <v>135668.5578363563</v>
+        <v>135668.5578006312</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.370904621881527e-06</v>
+        <v>7.370904623822481e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>96712.39357671498</v>
+        <v>96712.39355116207</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.03399364137004e-05</v>
+        <v>1.033993641643237e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003736580923434094</v>
+        <v>0.003736580924138016</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.698782622167827e-05</v>
+        <v>1.698782621913638e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02400790461079746</v>
+        <v>0.02400790460691653</v>
       </c>
       <c r="MM2" t="n">
-        <v>96773.37951470278</v>
+        <v>96773.37948918225</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.256050269232778</v>
+        <v>1.256050269137497</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.256050269232778</v>
+        <v>1.256050269137497</v>
       </c>
       <c r="MP2" t="n">
-        <v>317654.7866411222</v>
+        <v>317654.7866050703</v>
       </c>
       <c r="MQ2" t="n">
-        <v>394700.5720568715</v>
+        <v>394700.5720063461</v>
       </c>
       <c r="MR2" t="n">
-        <v>3788.643751873433</v>
+        <v>3788.64375176096</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.7994201154885</v>
+        <v>716.7994201140286</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.529281082942</v>
+        <v>1005.529281081789</v>
       </c>
       <c r="MU2" t="n">
-        <v>328.6518594324246</v>
+        <v>328.6518594016186</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993666455122118</v>
+        <v>0.9993666455117118</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.698782622167827e-05</v>
+        <v>1.698782621913638e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02400790461079746</v>
+        <v>0.02400790460691653</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8387862612790428</v>
+        <v>0.8387862623553186</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4284450573907736</v>
+        <v>0.4284450581728691</v>
       </c>
       <c r="NC2" t="n">
-        <v>250661.8428109272</v>
+        <v>250661.8431924931</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.758259224696177</v>
+        <v>2.758259225144959</v>
       </c>
       <c r="NE2" t="n">
-        <v>381037.9980917515</v>
+        <v>381037.9980411258</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>165.7214615494788</v>
+        <v>165.7214376422505</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.9369730085789</v>
+        <v>139.9369598514804</v>
       </c>
       <c r="NI2" t="n">
-        <v>-88.77638426570229</v>
+        <v>-88.7763603767325</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-32.39114938556408</v>
+        <v>-32.39114484816923</v>
       </c>
       <c r="NK2" t="n">
-        <v>290.0668742814937</v>
+        <v>290.0668470089412</v>
       </c>
       <c r="NL2" t="n">
-        <v>139.9369730085789</v>
+        <v>139.9369598514804</v>
       </c>
       <c r="NM2" t="n">
-        <v>-254.0795842657023</v>
+        <v>-254.0795603767325</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO2" t="n">
-        <v>226.5586706169973</v>
+        <v>226.5586784695566</v>
       </c>
       <c r="NP2" t="n">
-        <v>50861.86784365233</v>
+        <v>50861.8743747167</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7826705757331315</v>
+        <v>0.7826706490986688</v>
       </c>
       <c r="NR2" t="n">
-        <v>287646.1501127</v>
+        <v>287646.1557200794</v>
       </c>
       <c r="NS2" t="n">
-        <v>352631.1762790532</v>
+        <v>352631.1841394915</v>
       </c>
       <c r="NT2" t="n">
-        <v>3802.821920974314</v>
+        <v>3802.821918837336</v>
       </c>
       <c r="NU2" t="n">
-        <v>-508931.1027300631</v>
+        <v>-508931.1242473592</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8736748226868</v>
+        <v>715.8736749298902</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.249226761993</v>
+        <v>1004.24922692881</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402830222819317</v>
+        <v>1.402830222842266</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992551158430597</v>
+        <v>0.9992551158533244</v>
       </c>
       <c r="NZ2" t="n">
-        <v>301.8197164360093</v>
+        <v>301.8197216721786</v>
       </c>
       <c r="OA2" t="n">
-        <v>71297.48663259391</v>
+        <v>71297.49578967065</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.40257398574671e-05</v>
+        <v>1.402573805607457e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>50824.03092892087</v>
+        <v>50824.03745566244</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.967573176945634e-05</v>
+        <v>1.967572924273035e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004427349690268989</v>
+        <v>0.004427349537227898</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.478997199237723e-05</v>
+        <v>1.478997241692819e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02067144457715515</v>
+        <v>0.02067144521705834</v>
       </c>
       <c r="OH2" t="n">
-        <v>50861.86784365233</v>
+        <v>50861.8743747167</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7826705757331315</v>
+        <v>0.7826706490986688</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7826705757331315</v>
+        <v>0.7826706490986688</v>
       </c>
       <c r="OK2" t="n">
-        <v>287646.1501127</v>
+        <v>287646.1557200794</v>
       </c>
       <c r="OL2" t="n">
-        <v>352631.1762790532</v>
+        <v>352631.1841394915</v>
       </c>
       <c r="OM2" t="n">
-        <v>3802.821920974314</v>
+        <v>3802.821918837336</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8736748226868</v>
+        <v>715.8736749298902</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.249226761993</v>
+        <v>1004.24922692881</v>
       </c>
       <c r="OP2" t="n">
-        <v>301.8197164360093</v>
+        <v>301.8197216721786</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992551158430597</v>
+        <v>0.9992551158533244</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.478997199237723e-05</v>
+        <v>1.478997241692819e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02067144457715515</v>
+        <v>0.02067144521705834</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>240.2729589625165</v>
+        <v>240.2729628570797</v>
       </c>
       <c r="OW2" t="n">
-        <v>62443.90551487132</v>
+        <v>62443.90951201208</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.9060204213347183</v>
+        <v>0.9060204646396246</v>
       </c>
       <c r="OY2" t="n">
-        <v>297441.8981579174</v>
+        <v>297441.9009386686</v>
       </c>
       <c r="OZ2" t="n">
-        <v>366362.9776882012</v>
+        <v>366362.9815864987</v>
       </c>
       <c r="PA2" t="n">
-        <v>3802.82192096997</v>
+        <v>3802.821918832992</v>
       </c>
       <c r="PB2" t="n">
-        <v>-547352.2976707745</v>
+        <v>-547352.3080693492</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.0900880207776</v>
+        <v>716.090088094172</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.553371854152</v>
+        <v>1004.553371963213</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402830996628743</v>
+        <v>1.402830996637263</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9992886265216736</v>
+        <v>0.9992886265276278</v>
       </c>
       <c r="PG2" t="n">
-        <v>310.8311269784953</v>
+        <v>310.8311295004361</v>
       </c>
       <c r="PH2" t="n">
-        <v>87536.05951330235</v>
+        <v>87536.06511770346</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.142386355474496e-05</v>
+        <v>1.142386282334455e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62399.57608840077</v>
+        <v>62399.58008308686</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.602574989585364e-05</v>
+        <v>1.602574886991981e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004175139558833886</v>
+        <v>0.004175139491392285</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.552312075536743e-05</v>
+        <v>1.5523120961352e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02177897594974593</v>
+        <v>0.02177897626172405</v>
       </c>
       <c r="PO2" t="n">
-        <v>62443.90551487132</v>
+        <v>62443.90951201208</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.9060204213347183</v>
+        <v>0.9060204646396246</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9060204213347183</v>
+        <v>0.9060204646396246</v>
       </c>
       <c r="PR2" t="n">
-        <v>297441.8981579174</v>
+        <v>297441.9009386686</v>
       </c>
       <c r="PS2" t="n">
-        <v>366362.9776882012</v>
+        <v>366362.9815864987</v>
       </c>
       <c r="PT2" t="n">
-        <v>3802.82192096997</v>
+        <v>3802.821918832992</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.0900880207776</v>
+        <v>716.090088094172</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.553371854152</v>
+        <v>1004.553371963213</v>
       </c>
       <c r="PW2" t="n">
-        <v>310.8311269784953</v>
+        <v>310.8311295004361</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9992886265216736</v>
+        <v>0.9992886265276278</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.552312075536743e-05</v>
+        <v>1.5523120961352e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02177897594974593</v>
+        <v>0.02177897626172405</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>268.5632284047595</v>
+        <v>268.5632283561698</v>
       </c>
       <c r="QD2" t="n">
-        <v>92106.78133837119</v>
+        <v>92106.78196396351</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.195503465924429</v>
+        <v>1.195503474266234</v>
       </c>
       <c r="QF2" t="n">
-        <v>317656.2271730453</v>
+        <v>317656.2271367205</v>
       </c>
       <c r="QG2" t="n">
-        <v>394700.5720567711</v>
+        <v>394700.5720061456</v>
       </c>
       <c r="QH2" t="n">
-        <v>3802.821920963688</v>
+        <v>3802.821918826711</v>
       </c>
       <c r="QI2" t="n">
-        <v>-626597.560085626</v>
+        <v>-626597.55937756</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.7840311669487</v>
+        <v>716.784031167626</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.432909360714</v>
+        <v>1005.432909372962</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402699928629597</v>
+        <v>1.402699928645359</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9993968762438261</v>
+        <v>0.9993968762391368</v>
       </c>
       <c r="QN2" t="n">
-        <v>328.6414870499088</v>
+        <v>328.6414870204902</v>
       </c>
       <c r="QO2" t="n">
-        <v>129120.6232288585</v>
+        <v>129120.6241067004</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.744696199518493e-06</v>
+        <v>7.744696146865258e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>92051.49340458459</v>
+        <v>92051.49402937315</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.08634848063225e-05</v>
+        <v>1.086348473258788e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003736127278829139</v>
+        <v>0.003736127279597437</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.698645349184448e-05</v>
+        <v>1.69864534894887e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02400523752401039</v>
+        <v>0.02400523752049307</v>
       </c>
       <c r="QV2" t="n">
-        <v>92106.78133837119</v>
+        <v>92106.78196396351</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.195503465924429</v>
+        <v>1.195503474266234</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.195503465924429</v>
+        <v>1.195503474266234</v>
       </c>
       <c r="QY2" t="n">
-        <v>317656.2271730453</v>
+        <v>317656.2271367205</v>
       </c>
       <c r="QZ2" t="n">
-        <v>394700.5720567711</v>
+        <v>394700.5720061456</v>
       </c>
       <c r="RA2" t="n">
-        <v>3802.821920963688</v>
+        <v>3802.821918826711</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.7840311669487</v>
+        <v>716.784031167626</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.432909360714</v>
+        <v>1005.432909372962</v>
       </c>
       <c r="RD2" t="n">
-        <v>328.6414870499088</v>
+        <v>328.6414870204902</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9993968762438261</v>
+        <v>0.9993968762391368</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.698645349184448e-05</v>
+        <v>1.69864534894887e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02400523752401039</v>
+        <v>0.02400523752049307</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02437829421313524</v>
+        <v>0.024378294582329</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.00224902844775769</v>
+        <v>0.002249028340873327</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.01190299100195674</v>
+        <v>0.01190299099801868</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.0319342476275812</v>
+        <v>0.0319342476619462</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.0426627991679798</v>
+        <v>0.04266279922514667</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1131273604584107</v>
+        <v>0.1131273608083139</v>
       </c>
       <c r="RP2" t="n">
-        <v>1.624395063046236e-05</v>
+        <v>1.624401420331767e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5490743398290032</v>
+        <v>0.5490742510930043</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9610600583245613</v>
+        <v>0.9610599512910465</v>
       </c>
       <c r="RS2" t="n">
-        <v>400022.2993234298</v>
+        <v>400022.2877269854</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.758240088254315</v>
+        <v>2.758240087470506</v>
       </c>
       <c r="RU2" t="n">
-        <v>381037.9980917515</v>
+        <v>381037.9980411258</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>2666.551005188725</v>
+        <v>2666.551001266052</v>
       </c>
       <c r="RX2" t="n">
-        <v>6.174938036768758</v>
+        <v>6.174937555499135</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.008998554844868667</v>
+        <v>0.008998554703906619</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0007034536547551906</v>
+        <v>0.0007034535631865302</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.01163856806267283</v>
+        <v>0.01163856804733521</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01532791804828488</v>
+        <v>0.01532791811550499</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004302057081292498</v>
+        <v>0.004302057134976238</v>
       </c>
     </row>
     <row r="3">
@@ -10206,34 +10206,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01584031320653238</v>
+        <v>0.01584031319423537</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.798815517603347e-07</v>
+        <v>-1.798815509384698e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01378750972752283</v>
+        <v>0.01378750972711846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0252326906985068</v>
+        <v>0.02523269070400747</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05486033375101025</v>
+        <v>0.05486033374381036</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.941154264579637e-12</v>
+        <v>-2.94018281943309e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.7575817253086</v>
+        <v>81.7575817237783</v>
       </c>
       <c r="K3" t="n">
-        <v>81.7575817253086</v>
+        <v>81.7575817237783</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.7575817253086</v>
+        <v>81.7575817237783</v>
       </c>
       <c r="O3" t="n">
-        <v>81.7575817253086</v>
+        <v>81.7575817237783</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180725778</v>
+        <v>292.2676180725025</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394376295</v>
+        <v>132637.8394375097</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096101588</v>
+        <v>1.581790096100569</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834751474</v>
+        <v>334589.2834750935</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800039048</v>
+        <v>418442.2800038293</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723466</v>
+        <v>3782.917347723467</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625806663</v>
+        <v>-687181.962580457</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704052</v>
+        <v>717.7090713704017</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103397</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574211</v>
+        <v>1.402578355574212</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756398</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222365</v>
+        <v>342.8584121221922</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165868997</v>
+        <v>185942.4165867319</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054392669e-06</v>
+        <v>5.378009054397522e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.856572516</v>
+        <v>132571.8565723963</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095773287e-06</v>
+        <v>7.5430790957801e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038599044</v>
+        <v>0.003434455038599929</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047067e-05</v>
+        <v>1.816725856046698e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190127964</v>
+        <v>0.02581791190127395</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394376295</v>
+        <v>132637.8394375097</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096101588</v>
+        <v>1.581790096100569</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096101588</v>
+        <v>1.581790096100569</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834751474</v>
+        <v>334589.2834750935</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800039048</v>
+        <v>418442.2800038293</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723466</v>
+        <v>3782.917347723467</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704052</v>
+        <v>717.7090713704017</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103397</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222365</v>
+        <v>342.8584121221922</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756398</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047067e-05</v>
+        <v>1.816725856046698e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190127964</v>
+        <v>0.02581791190127395</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10358,10 +10358,10 @@
         <v>295.6000000001887</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953514</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756423</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475829663</v>
@@ -10370,10 +10370,10 @@
         <v>421784.4310886901</v>
       </c>
       <c r="BD3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368990484</v>
+        <v>-696445.936899049</v>
       </c>
       <c r="BF3" t="n">
         <v>717.8632360362602</v>
@@ -10391,16 +10391,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974372406</v>
+        <v>193456.8974372394</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087296888e-06</v>
+        <v>5.16911008729692e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617461894</v>
+        <v>137934.6617461885</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346979649e-06</v>
+        <v>7.249809346979694e-06</v>
       </c>
       <c r="BO3" t="n">
         <v>0.003395798695744088</v>
@@ -10412,13 +10412,13 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953514</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756423</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756423</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475829663</v>
@@ -10427,7 +10427,7 @@
         <v>421784.4310886901</v>
       </c>
       <c r="BW3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="BX3" t="n">
         <v>717.8632360362602</v>
@@ -10459,10 +10459,10 @@
         <v>295.6000000001887</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953514</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756423</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475829663</v>
@@ -10471,10 +10471,10 @@
         <v>421784.4310886901</v>
       </c>
       <c r="CK3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368990484</v>
+        <v>-696445.936899049</v>
       </c>
       <c r="CM3" t="n">
         <v>717.8632360362602</v>
@@ -10492,16 +10492,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974372406</v>
+        <v>193456.8974372394</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087296888e-06</v>
+        <v>5.16911008729692e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617461894</v>
+        <v>137934.6617461885</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346979649e-06</v>
+        <v>7.249809346979694e-06</v>
       </c>
       <c r="CV3" t="n">
         <v>0.003395798695744088</v>
@@ -10513,13 +10513,13 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953514</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756423</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756423</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475829663</v>
@@ -10528,7 +10528,7 @@
         <v>421784.4310886901</v>
       </c>
       <c r="DD3" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.91734772336</v>
       </c>
       <c r="DE3" t="n">
         <v>717.8632360362602</v>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.238458730585733</v>
+        <v>0.2384587305813004</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.238458730585733</v>
+        <v>0.2384587305813004</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323218367</v>
+        <v>186219.532318269</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934746502</v>
+        <v>2.776369934692747</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780752297151</v>
+        <v>309.3780764471262</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136406679414</v>
+        <v>126.4136411653824</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727764603378</v>
+        <v>282.3727775714822</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780752297151</v>
+        <v>309.3780764471261</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136406679414</v>
+        <v>126.4136411653824</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727764603378</v>
+        <v>282.3727775714822</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365054333503</v>
+        <v>247.8365050572126</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.2383804252</v>
+        <v>72726.23798254973</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.02301467600596</v>
+        <v>1.023014671963033</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9121226422</v>
+        <v>302836.9118539803</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0343722682</v>
+        <v>373927.0339956281</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.09306127075</v>
+        <v>3790.093061320315</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3852002634</v>
+        <v>-565396.3841635904</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430665995</v>
+        <v>716.2529430584768</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581217525</v>
+        <v>1004.831581206578</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.40290045708628</v>
+        <v>1.402900457086904</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859020344</v>
+        <v>0.9992812859008283</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911158650968</v>
+        <v>315.6911156252232</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5435144596</v>
+        <v>101954.5429566004</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.80829265208937e-06</v>
+        <v>9.808292705756875e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11098162422</v>
+        <v>72674.11058394481</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005824485217e-05</v>
+        <v>1.376005832014847e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559437019091</v>
+        <v>0.004048559443148639</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113119279746e-05</v>
+        <v>1.592113117314195e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288377459768</v>
+        <v>0.02238288374475594</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.2383804252</v>
+        <v>72726.23798254973</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.02301467600596</v>
+        <v>1.023014671963033</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.02301467600596</v>
+        <v>1.023014671963033</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9121226422</v>
+        <v>302836.9118539803</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0343722682</v>
+        <v>373927.0339956281</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.09306127075</v>
+        <v>3790.093061320315</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430665995</v>
+        <v>716.2529430584768</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581217525</v>
+        <v>1004.831581206578</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911158650968</v>
+        <v>315.6911156252232</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859020344</v>
+        <v>0.9992812859008283</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113119279746e-05</v>
+        <v>1.592113117314195e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288377459768</v>
+        <v>0.02238288374475594</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968651</v>
+        <v>295.5920968650461</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.416582309</v>
+        <v>134591.4165590569</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527536253</v>
+        <v>1.586979527262249</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325034</v>
+        <v>336974.6309325122</v>
       </c>
       <c r="FL3" t="n">
         <v>421784.43108869</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061280396</v>
+        <v>3790.093061329964</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.124209048</v>
+        <v>-698537.1242234959</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580608863</v>
+        <v>717.8543580608258</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.76561872112</v>
+        <v>1006.765618720739</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008975719</v>
+        <v>1.402465008975306</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648233249</v>
+        <v>0.9995326648234041</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163636734</v>
+        <v>344.8011163636182</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202986465</v>
+        <v>188672.5202660102</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188911544284e-06</v>
+        <v>5.300188912461102e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.217549921</v>
+        <v>134529.21752669</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329489401964e-06</v>
+        <v>7.433329490685578e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843601291</v>
+        <v>0.003395573843599755</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665248203e-05</v>
+        <v>1.832907665247607e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184421082</v>
+        <v>0.02606695184419936</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.416582309</v>
+        <v>134591.4165590569</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527536253</v>
+        <v>1.586979527262249</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527536253</v>
+        <v>1.586979527262249</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325034</v>
+        <v>336974.6309325122</v>
       </c>
       <c r="GE3" t="n">
         <v>421784.43108869</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061280396</v>
+        <v>3790.093061329964</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580608863</v>
+        <v>717.8543580608258</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.76561872112</v>
+        <v>1006.765618720739</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163636734</v>
+        <v>344.8011163636182</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648233249</v>
+        <v>0.9995326648234041</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665248203e-05</v>
+        <v>1.832907665247607e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184421082</v>
+        <v>0.02606695184419936</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968651</v>
+        <v>295.5920968650461</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.416582309</v>
+        <v>134591.4165590569</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527536253</v>
+        <v>1.586979527262249</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325034</v>
+        <v>336974.6309325122</v>
       </c>
       <c r="GS3" t="n">
         <v>421784.43108869</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061280396</v>
+        <v>3790.093061329964</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.124209048</v>
+        <v>-698537.1242234959</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580608863</v>
+        <v>717.8543580608258</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.76561872112</v>
+        <v>1006.765618720739</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008975719</v>
+        <v>1.402465008975306</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648233249</v>
+        <v>0.9995326648234041</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163636734</v>
+        <v>344.8011163636182</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202986465</v>
+        <v>188672.5202660102</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188911544284e-06</v>
+        <v>5.300188912461102e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.217549921</v>
+        <v>134529.21752669</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329489401964e-06</v>
+        <v>7.433329490685578e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843601291</v>
+        <v>0.003395573843599755</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665248203e-05</v>
+        <v>1.832907665247607e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184421082</v>
+        <v>0.02606695184419936</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.416582309</v>
+        <v>134591.4165590569</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527536253</v>
+        <v>1.586979527262249</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527536253</v>
+        <v>1.586979527262249</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325034</v>
+        <v>336974.6309325122</v>
       </c>
       <c r="HL3" t="n">
         <v>421784.43108869</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061280396</v>
+        <v>3790.093061329964</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580608863</v>
+        <v>717.8543580608258</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.76561872112</v>
+        <v>1006.765618720739</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163636734</v>
+        <v>344.8011163636182</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648233249</v>
+        <v>0.9995326648234041</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665248203e-05</v>
+        <v>1.832907665247607e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184421082</v>
+        <v>0.02606695184419936</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,37 +10902,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337326020573</v>
+        <v>0.01619337326370551</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005758360902e-07</v>
+        <v>-1.972005761342981e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868039</v>
+        <v>0.01379727827868001</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318063</v>
+        <v>0.02510093007318972</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.0550913844114909</v>
+        <v>0.0550913844149991</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578243656996495e-06</v>
+        <v>5.578239089913672e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024760973021</v>
+        <v>0.9800024806982797</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024760973021</v>
+        <v>0.9800024806982794</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1634833238</v>
+        <v>520038.1641165267</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991775104</v>
+        <v>2.776362991728054</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>1493.408136433922</v>
+        <v>1493.408130207681</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006325925975266709</v>
+        <v>0.006325925947522309</v>
       </c>
       <c r="IL3" t="n">
-        <v>-7.183679804277604e-08</v>
+        <v>-7.183679745526336e-08</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.01007682938047773</v>
+        <v>0.01007682934630201</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005506126348790313</v>
+        <v>0.005506126328754389</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02499269656272422</v>
+        <v>0.02499269639712902</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002208533062239477</v>
+        <v>0.002208532958907476</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01186225828073722</v>
+        <v>0.01186225829345986</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03219276690494956</v>
+        <v>0.03219276680904117</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04259304858987095</v>
+        <v>0.0425930485078088</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1138493034005214</v>
+        <v>0.1138493029663463</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.243971869957505e-10</v>
+        <v>-8.26923252095213e-12</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>270.8635183920271</v>
+        <v>270.8635182511248</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.941059304606</v>
+        <v>111.9410592994675</v>
       </c>
       <c r="IZ3" t="n">
-        <v>246.6500452817122</v>
+        <v>246.6500451293097</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.58928232968992</v>
+        <v>65.58928231735669</v>
       </c>
       <c r="JB3" t="n">
-        <v>138.3766959987271</v>
+        <v>138.3766959049781</v>
       </c>
       <c r="JC3" t="n">
-        <v>111.941059304606</v>
+        <v>111.9410592994675</v>
       </c>
       <c r="JD3" t="n">
-        <v>81.34684528171215</v>
+        <v>81.34684512930971</v>
       </c>
       <c r="JE3" t="n">
-        <v>36.00566283901909</v>
+        <v>36.00566278922194</v>
       </c>
       <c r="JF3" t="n">
-        <v>258.9941356905291</v>
+        <v>258.9941357288554</v>
       </c>
       <c r="JG3" t="n">
-        <v>85224.13209649523</v>
+        <v>85224.13214898713</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.147125802557102</v>
+        <v>1.147125803093781</v>
       </c>
       <c r="JI3" t="n">
-        <v>310807.28512707</v>
+        <v>310807.2851544339</v>
       </c>
       <c r="JJ3" t="n">
-        <v>385100.908290736</v>
+        <v>385100.9083291014</v>
       </c>
       <c r="JK3" t="n">
-        <v>3788.704170007769</v>
+        <v>3788.70416997922</v>
       </c>
       <c r="JL3" t="n">
-        <v>-596151.2536075294</v>
+        <v>-596151.2537069771</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.521790240551</v>
+        <v>716.5217902415998</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.184648009329</v>
+        <v>1005.184648010804</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402866823731723</v>
+        <v>1.402866823731727</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993218376474443</v>
+        <v>0.9993218376475438</v>
       </c>
       <c r="JQ3" t="n">
-        <v>322.7284401884992</v>
+        <v>322.7284402124112</v>
       </c>
       <c r="JR3" t="n">
-        <v>119477.3348791691</v>
+        <v>119477.3349527712</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.369788303457964e-06</v>
+        <v>8.369788298301895e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>85166.55526955237</v>
+        <v>85166.55532201754</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.1741698332579e-05</v>
+        <v>1.174169832534576e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003874551800520532</v>
+        <v>0.003874551799949636</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.649919170050084e-05</v>
+        <v>1.649919170247067e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02326215058453258</v>
+        <v>0.02326215058753535</v>
       </c>
       <c r="JY3" t="n">
-        <v>85224.13209649523</v>
+        <v>85224.13214898713</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.147125802557102</v>
+        <v>1.147125803093781</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.147125802557102</v>
+        <v>1.147125803093781</v>
       </c>
       <c r="KB3" t="n">
-        <v>310807.28512707</v>
+        <v>310807.2851544339</v>
       </c>
       <c r="KC3" t="n">
-        <v>385100.908290736</v>
+        <v>385100.9083291014</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.704170007769</v>
+        <v>3788.70416997922</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.521790240551</v>
+        <v>716.5217902415998</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.184648009329</v>
+        <v>1005.184648010804</v>
       </c>
       <c r="KG3" t="n">
-        <v>322.7284401884992</v>
+        <v>322.7284402124112</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993218376474443</v>
+        <v>0.9993218376475438</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.649919170050084e-05</v>
+        <v>1.649919170247067e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02326215058453258</v>
+        <v>0.02326215058753535</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5936112672916</v>
+        <v>295.5936112674228</v>
       </c>
       <c r="KN3" t="n">
-        <v>135244.5237634278</v>
+        <v>135244.5237770448</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.594675750346234</v>
+        <v>1.594675750506157</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.3850752207</v>
+        <v>336974.385075287</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310887902</v>
       </c>
       <c r="KR3" t="n">
-        <v>3788.704170012971</v>
+        <v>3788.704169984422</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698132.3165488906</v>
+        <v>-698132.316540849</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8560592368818</v>
+        <v>717.8560592369214</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.776342140517</v>
+        <v>1006.776342140743</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402476623531983</v>
+        <v>1.402476623532221</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995304415158563</v>
+        <v>0.9995304415158113</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8026690860832</v>
+        <v>344.8026690861735</v>
       </c>
       <c r="KY3" t="n">
-        <v>189589.2148928007</v>
+        <v>189589.2149119131</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.274561638780082e-06</v>
+        <v>5.274561638248357e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>135181.7290297083</v>
+        <v>135181.729043313</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.397449397767613e-06</v>
+        <v>7.397449397023133e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395616933198712</v>
+        <v>0.003395616933198452</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832924431622429e-05</v>
+        <v>1.832924431623261e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606727416595562</v>
+        <v>0.02606727416596977</v>
       </c>
       <c r="LF3" t="n">
-        <v>135244.5237634278</v>
+        <v>135244.5237770448</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.594675750346234</v>
+        <v>1.594675750506157</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.594675750346234</v>
+        <v>1.594675750506157</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.3850752207</v>
+        <v>336974.385075287</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310887902</v>
       </c>
       <c r="LK3" t="n">
-        <v>3788.704170012971</v>
+        <v>3788.704169984422</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8560592368818</v>
+        <v>717.8560592369214</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.776342140517</v>
+        <v>1006.776342140743</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8026690860832</v>
+        <v>344.8026690861735</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995304415158563</v>
+        <v>0.9995304415158113</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832924431622429e-05</v>
+        <v>1.832924431623261e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606727416595562</v>
+        <v>0.02606727416596977</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>268.5507580592812</v>
+        <v>268.5507580844513</v>
       </c>
       <c r="LU3" t="n">
-        <v>96720.844561908</v>
+        <v>96720.84460316198</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.255488143022948</v>
+        <v>1.255488143440695</v>
       </c>
       <c r="LW3" t="n">
-        <v>317636.5260088173</v>
+        <v>317636.526026784</v>
       </c>
       <c r="LX3" t="n">
-        <v>394674.9632886985</v>
+        <v>394674.9633138907</v>
       </c>
       <c r="LY3" t="n">
-        <v>3788.704170014404</v>
+        <v>3788.704169985855</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-622784.4136310295</v>
+        <v>-622784.4136935325</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.7985497364928</v>
+        <v>716.7985497373145</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.527878502491</v>
+        <v>1005.527878503656</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402804008004955</v>
+        <v>1.402804008004972</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993666486681029</v>
+        <v>0.9993666486681672</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.6361570470187</v>
+        <v>328.636157062443</v>
       </c>
       <c r="MF3" t="n">
-        <v>135594.8835547837</v>
+        <v>135594.8836126292</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.374909537762721e-06</v>
+        <v>7.374909534616548e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>96659.89174612107</v>
+        <v>96659.89178735552</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.034555265824752e-05</v>
+        <v>1.034555265383417e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003736933890247234</v>
+        <v>0.003736933889898961</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.698652618832843e-05</v>
+        <v>1.698652618960428e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02400591489542944</v>
+        <v>0.02400591489738088</v>
       </c>
       <c r="MM3" t="n">
-        <v>96720.844561908</v>
+        <v>96720.84460316198</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.255488143022948</v>
+        <v>1.255488143440695</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.255488143022948</v>
+        <v>1.255488143440695</v>
       </c>
       <c r="MP3" t="n">
-        <v>317636.5260088173</v>
+        <v>317636.526026784</v>
       </c>
       <c r="MQ3" t="n">
-        <v>394674.9632886985</v>
+        <v>394674.9633138907</v>
       </c>
       <c r="MR3" t="n">
-        <v>3788.704170014404</v>
+        <v>3788.704169985855</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.7985497364928</v>
+        <v>716.7985497373145</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.527878502491</v>
+        <v>1005.527878503656</v>
       </c>
       <c r="MU3" t="n">
-        <v>328.6361570470187</v>
+        <v>328.636157062443</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993666486681029</v>
+        <v>0.9993666486681672</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.698652618832843e-05</v>
+        <v>1.698652618960428e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02400591489542944</v>
+        <v>0.02400591489738088</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8392923729740742</v>
+        <v>0.8392923724752914</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4287713097671345</v>
+        <v>0.4287713094448767</v>
       </c>
       <c r="NC3" t="n">
-        <v>250718.1347770409</v>
+        <v>250718.1346945461</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.756772351906175</v>
+        <v>2.756772353069375</v>
       </c>
       <c r="NE3" t="n">
-        <v>381012.3893234782</v>
+        <v>381012.3893486705</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>165.7024252043798</v>
+        <v>165.7024207527455</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.926496369679</v>
+        <v>139.9264939196829</v>
       </c>
       <c r="NI3" t="n">
-        <v>-88.75736213024408</v>
+        <v>-88.75735768185567</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-32.38753596718441</v>
+        <v>-32.38753512207764</v>
       </c>
       <c r="NK3" t="n">
-        <v>290.0451578913694</v>
+        <v>290.0451528129208</v>
       </c>
       <c r="NL3" t="n">
-        <v>139.926496369679</v>
+        <v>139.9264939196829</v>
       </c>
       <c r="NM3" t="n">
-        <v>-254.0605621302441</v>
+        <v>-254.0605576818557</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO3" t="n">
-        <v>226.5393339124935</v>
+        <v>226.5393354091703</v>
       </c>
       <c r="NP3" t="n">
-        <v>50833.92348419439</v>
+        <v>50833.9247302058</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7823072169956623</v>
+        <v>0.7823072310011429</v>
       </c>
       <c r="NR3" t="n">
-        <v>287632.3771190834</v>
+        <v>287632.3781878302</v>
       </c>
       <c r="NS3" t="n">
-        <v>352611.8664805835</v>
+        <v>352611.8679787554</v>
       </c>
       <c r="NT3" t="n">
-        <v>3802.894321868308</v>
+        <v>3802.894321450865</v>
       </c>
       <c r="NU3" t="n">
-        <v>-508893.2801350669</v>
+        <v>-508893.2842340313</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8733480573023</v>
+        <v>715.8733480777349</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.248443117047</v>
+        <v>1004.248443148885</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402829768481144</v>
+        <v>1.402829768485579</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992552641600856</v>
+        <v>0.9992552641620135</v>
       </c>
       <c r="NZ3" t="n">
-        <v>301.8068318117678</v>
+        <v>301.806832809808</v>
       </c>
       <c r="OA3" t="n">
-        <v>71258.30202172411</v>
+        <v>71258.30376873235</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.403345254697671e-05</v>
+        <v>1.403345220292478e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>50796.11484070236</v>
+        <v>50796.11608588762</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.968654498746647e-05</v>
+        <v>1.968654450488241e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004427723433088764</v>
+        <v>0.004427723403915043</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.47889245826043e-05</v>
+        <v>1.478892466352539e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02066986376094247</v>
+        <v>0.02066986388291003</v>
       </c>
       <c r="OH3" t="n">
-        <v>50833.92348419439</v>
+        <v>50833.9247302058</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7823072169956623</v>
+        <v>0.7823072310011429</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7823072169956623</v>
+        <v>0.7823072310011429</v>
       </c>
       <c r="OK3" t="n">
-        <v>287632.3771190834</v>
+        <v>287632.3781878302</v>
       </c>
       <c r="OL3" t="n">
-        <v>352611.8664805835</v>
+        <v>352611.8679787554</v>
       </c>
       <c r="OM3" t="n">
-        <v>3802.894321868308</v>
+        <v>3802.894321450865</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8733480573023</v>
+        <v>715.8733480777349</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.248443117047</v>
+        <v>1004.248443148885</v>
       </c>
       <c r="OP3" t="n">
-        <v>301.8068318117678</v>
+        <v>301.806832809808</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992552641600856</v>
+        <v>0.9992552641620135</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.47889245826043e-05</v>
+        <v>1.478892466352539e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02066986376094247</v>
+        <v>0.02066986388291003</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>240.2504705410943</v>
+        <v>240.2504713008913</v>
       </c>
       <c r="OW3" t="n">
-        <v>62407.80073729795</v>
+        <v>62407.80151683681</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.9055812195444389</v>
+        <v>0.9055812279911285</v>
       </c>
       <c r="OY3" t="n">
-        <v>297425.8766506771</v>
+        <v>297425.8771931784</v>
       </c>
       <c r="OZ3" t="n">
-        <v>366340.5133396896</v>
+        <v>366340.5141002149</v>
       </c>
       <c r="PA3" t="n">
-        <v>3802.894321863872</v>
+        <v>3802.89432144643</v>
       </c>
       <c r="PB3" t="n">
-        <v>-547306.6369061612</v>
+        <v>-547306.638934773</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.0896066483695</v>
+        <v>716.0896066626816</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.552388885218</v>
+        <v>1004.552388906489</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402830566955144</v>
+        <v>1.40283056695681</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9992887403256904</v>
+        <v>0.9992887403268491</v>
       </c>
       <c r="PG3" t="n">
-        <v>310.8165680130275</v>
+        <v>310.8165685050598</v>
       </c>
       <c r="PH3" t="n">
-        <v>87485.42959206121</v>
+        <v>87485.43068505437</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.1430474819212e-05</v>
+        <v>1.143047467640616e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62363.5039418546</v>
+        <v>62363.50472091462</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.603501947120166e-05</v>
+        <v>1.603501927088831e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004175526266449338</v>
+        <v>0.004175526253289602</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.552192922626003e-05</v>
+        <v>1.552192926644734e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02177716925750377</v>
+        <v>0.02177716931836982</v>
       </c>
       <c r="PO3" t="n">
-        <v>62407.80073729795</v>
+        <v>62407.80151683681</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.9055812195444389</v>
+        <v>0.9055812279911285</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9055812195444389</v>
+        <v>0.9055812279911285</v>
       </c>
       <c r="PR3" t="n">
-        <v>297425.8766506771</v>
+        <v>297425.8771931784</v>
       </c>
       <c r="PS3" t="n">
-        <v>366340.5133396896</v>
+        <v>366340.5141002149</v>
       </c>
       <c r="PT3" t="n">
-        <v>3802.894321863872</v>
+        <v>3802.89432144643</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.0896066483695</v>
+        <v>716.0896066626816</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.552388885218</v>
+        <v>1004.552388906489</v>
       </c>
       <c r="PW3" t="n">
-        <v>310.8165680130275</v>
+        <v>310.8165685050598</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9992887403256904</v>
+        <v>0.9992887403268491</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.552192922626003e-05</v>
+        <v>1.552192926644734e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02177716925750377</v>
+        <v>0.02177716931836982</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>268.5376062791636</v>
+        <v>268.5376063046825</v>
       </c>
       <c r="QD3" t="n">
-        <v>92052.9346234297</v>
+        <v>92052.9347874821</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.194918527311659</v>
+        <v>1.194918529328529</v>
       </c>
       <c r="QF3" t="n">
-        <v>317637.9666067811</v>
+        <v>317637.9666247108</v>
       </c>
       <c r="QG3" t="n">
-        <v>394674.9632884974</v>
+        <v>394674.9633136903</v>
       </c>
       <c r="QH3" t="n">
-        <v>3802.894321857677</v>
+        <v>3802.894321440235</v>
       </c>
       <c r="QI3" t="n">
-        <v>-626545.1748357866</v>
+        <v>-626545.1747955403</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.7831526515097</v>
+        <v>716.7831526527401</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.431457484136</v>
+        <v>1005.431457487859</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402699622284459</v>
+        <v>1.402699622287245</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9993969044069202</v>
+        <v>0.999396904406172</v>
       </c>
       <c r="QN3" t="n">
-        <v>328.625782635703</v>
+        <v>328.6257826513994</v>
       </c>
       <c r="QO3" t="n">
-        <v>129045.1128552109</v>
+        <v>129045.1130853499</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.7492279860455e-06</v>
+        <v>7.749227972225529e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>91997.68133183493</v>
+        <v>91997.68149572088</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.086983916902218e-05</v>
+        <v>1.08698391496585e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003736479945214797</v>
+        <v>0.003736479944878633</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.698515288891283e-05</v>
+        <v>1.698515289022501e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02400324667433062</v>
+        <v>0.02400324667635264</v>
       </c>
       <c r="QV3" t="n">
-        <v>92052.9346234297</v>
+        <v>92052.9347874821</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.194918527311659</v>
+        <v>1.194918529328529</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.194918527311659</v>
+        <v>1.194918529328529</v>
       </c>
       <c r="QY3" t="n">
-        <v>317637.9666067811</v>
+        <v>317637.9666247108</v>
       </c>
       <c r="QZ3" t="n">
-        <v>394674.9632884974</v>
+        <v>394674.9633136903</v>
       </c>
       <c r="RA3" t="n">
-        <v>3802.894321857677</v>
+        <v>3802.894321440235</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.7831526515097</v>
+        <v>716.7831526527401</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.431457484136</v>
+        <v>1005.431457487859</v>
       </c>
       <c r="RD3" t="n">
-        <v>328.625782635703</v>
+        <v>328.6257826513994</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9993969044069202</v>
+        <v>0.999396904406172</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.698515288891283e-05</v>
+        <v>1.698515289022501e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02400324667433062</v>
+        <v>0.02400324667635264</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.0243963252940198</v>
+        <v>0.02439632533730699</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.002282459031753487</v>
+        <v>0.002282458967599967</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.0119006855907964</v>
+        <v>0.01190068559305936</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.0319546582697598</v>
+        <v>0.03195465824976913</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04269609657838178</v>
+        <v>0.04269609654568149</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1132302247647113</v>
+        <v>0.1132302246934169</v>
       </c>
       <c r="RP3" t="n">
-        <v>1.630419034757968e-05</v>
+        <v>1.630425508600264e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5490347061054133</v>
+        <v>0.5490346895398736</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9610291329397939</v>
+        <v>0.9610291129349638</v>
       </c>
       <c r="RS3" t="n">
-        <v>399834.968343234</v>
+        <v>399834.9663128267</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.756753156620229</v>
+        <v>2.756753157705349</v>
       </c>
       <c r="RU3" t="n">
-        <v>381012.3893234781</v>
+        <v>381012.3893486705</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2821.383969639253</v>
+        <v>2821.383963108179</v>
       </c>
       <c r="RX3" t="n">
-        <v>6.541048741976006</v>
+        <v>6.541048575113869</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.009086260976462639</v>
+        <v>0.009086260933769914</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.000802926876189255</v>
+        <v>0.0008029268401695732</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01170389441246099</v>
+        <v>0.01170389440014793</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01548498595577463</v>
+        <v>0.01548498595578215</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004312602853336722</v>
+        <v>0.004312602866273122</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.403748727236968</v>
+        <v>0.4037487393404854</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4233608886174768</v>
+        <v>0.4233608920660626</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -12543,16 +12859,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>2.534645175870246e-08</v>
+        <v>1.75093694034422e-09</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12574,16 +12890,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>6.37412591466706e-08</v>
+        <v>3.920469213815994e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_ainley_mathieson_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_ainley_mathieson_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014631285269505</v>
+        <v>2.014631286351196</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999917576</v>
+        <v>2.299999999967055</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755593454851597</v>
+        <v>2.755593456463418</v>
       </c>
       <c r="E2" t="n">
-        <v>92.53908672791948</v>
+        <v>92.53908671220447</v>
       </c>
       <c r="F2" t="n">
-        <v>79.02962745209174</v>
+        <v>79.029627491593</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1459865204370109</v>
+        <v>0.1459865198651217</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.17561397252875</v>
+        <v>-78.17561401145812</v>
       </c>
       <c r="I2" t="n">
-        <v>136846.6793617344</v>
+        <v>136846.6795101796</v>
       </c>
       <c r="J2" t="n">
-        <v>84.10982136554051</v>
+        <v>84.10982145677909</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.83042693622777</v>
+        <v>-23.83042659739418</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4521705244658</v>
+        <v>135.4521702591549</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372123.0127393782</v>
+        <v>372123.012714556</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7179955368016623</v>
+        <v>0.7179955370116496</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.068915664328929</v>
+        <v>2.068915663203176</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999842084</v>
+        <v>2.400000000518907</v>
       </c>
       <c r="D3" t="n">
-        <v>2.758758069553745</v>
+        <v>2.75875806393126</v>
       </c>
       <c r="E3" t="n">
-        <v>92.50770108415144</v>
+        <v>92.50770108412367</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15611125424728</v>
+        <v>78.15611116985977</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15513940635979</v>
+        <v>0.1551394072717578</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.31125066060707</v>
+        <v>-77.31125057713153</v>
       </c>
       <c r="I3" t="n">
-        <v>141581.7575306611</v>
+        <v>141581.7570892404</v>
       </c>
       <c r="J3" t="n">
-        <v>87.02013370046777</v>
+        <v>87.02013342915818</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.28469358795772</v>
+        <v>-26.28469413495456</v>
       </c>
       <c r="M3" t="n">
-        <v>142.7385992633928</v>
+        <v>142.7385996829284</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370463.599772068</v>
+        <v>370463.5998274806</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.705727892243816</v>
+        <v>0.705727891524662</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.10933447006926</v>
+        <v>81.10933452348884</v>
       </c>
       <c r="D2" t="n">
-        <v>81.10933447006926</v>
+        <v>81.10933452348884</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.10933447006926</v>
+        <v>81.10933452348884</v>
       </c>
       <c r="H2" t="n">
-        <v>81.10933447006926</v>
+        <v>81.10933452348884</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3202568747587</v>
+        <v>292.3202568704382</v>
       </c>
       <c r="L2" t="n">
-        <v>132721.3593327048</v>
+        <v>132721.3593258474</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58250052591843</v>
+        <v>1.582500525860103</v>
       </c>
       <c r="N2" t="n">
-        <v>334626.9393355137</v>
+        <v>334626.939332423</v>
       </c>
       <c r="O2" t="n">
-        <v>418495.0690195009</v>
+        <v>418495.069015168</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718241</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687328.3018014757</v>
+        <v>-687328.301789465</v>
       </c>
       <c r="R2" t="n">
-        <v>717.711451909476</v>
+        <v>717.7114519092806</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.645971641871</v>
+        <v>1006.645971641645</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402577552529896</v>
+        <v>1.402577552529962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.999497739764413</v>
+        <v>0.9994977397643828</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8893146491073</v>
+        <v>342.8893146465709</v>
       </c>
       <c r="W2" t="n">
-        <v>186059.4642579466</v>
+        <v>186059.4642483364</v>
       </c>
       <c r="X2" t="n">
-        <v>5.374625816473563e-06</v>
+        <v>5.374625816751171e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132655.3843117924</v>
+        <v>132655.3843049343</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.538329523433488e-06</v>
+        <v>7.538329523823206e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433837587699533</v>
+        <v>0.003433837587750203</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816983436548431e-05</v>
+        <v>1.816983436527291e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582187936512994</v>
+        <v>0.02582187936480431</v>
       </c>
       <c r="AD2" t="n">
-        <v>132721.3593327048</v>
+        <v>132721.3593258474</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.58250052591843</v>
+        <v>1.582500525860103</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58250052591843</v>
+        <v>1.582500525860103</v>
       </c>
       <c r="AG2" t="n">
-        <v>334626.9393355137</v>
+        <v>334626.939332423</v>
       </c>
       <c r="AH2" t="n">
-        <v>418495.0690195009</v>
+        <v>418495.069015168</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718241</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.711451909476</v>
+        <v>717.7114519092806</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.645971641871</v>
+        <v>1006.645971641645</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8893146491073</v>
+        <v>342.8893146465709</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.999497739764413</v>
+        <v>0.9994977397643828</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816983436548431e-05</v>
+        <v>1.816983436527291e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582187936512994</v>
+        <v>0.02582187936480431</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2365466959886801</v>
+        <v>0.2365466961462223</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2365466959886801</v>
+        <v>0.2365466961462223</v>
       </c>
       <c r="DH2" t="n">
-        <v>184799.7895094551</v>
+        <v>184799.7896265053</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.755593454761838</v>
+        <v>2.755593456475141</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>269.8464611909957</v>
+        <v>269.846462253608</v>
       </c>
       <c r="DV2" t="n">
-        <v>111.5748409496892</v>
+        <v>111.5748413420205</v>
       </c>
       <c r="DW2" t="n">
-        <v>245.6993436791298</v>
+        <v>245.6993446680126</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.57666579210272</v>
+        <v>65.57666580307047</v>
       </c>
       <c r="DY2" t="n">
-        <v>269.8464611909957</v>
+        <v>269.846462253608</v>
       </c>
       <c r="DZ2" t="n">
-        <v>111.5748409496892</v>
+        <v>111.5748413420205</v>
       </c>
       <c r="EA2" t="n">
-        <v>245.6993436791298</v>
+        <v>245.6993446680126</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.57666579210272</v>
+        <v>65.57666580307048</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.2686909662178</v>
+        <v>259.2686906801297</v>
       </c>
       <c r="ED2" t="n">
-        <v>85557.98842525377</v>
+        <v>85557.98808491047</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.150398811799936</v>
+        <v>1.150398808494474</v>
       </c>
       <c r="EF2" t="n">
-        <v>311003.4158136263</v>
+        <v>311003.4156092366</v>
       </c>
       <c r="EG2" t="n">
-        <v>385375.8747797374</v>
+        <v>385375.8744931954</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.643751740881</v>
+        <v>3788.643751776774</v>
       </c>
       <c r="EI2" t="n">
-        <v>-596900.8312714611</v>
+        <v>-596900.8304834231</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5291678671199</v>
+        <v>716.5291678594418</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.194266600916</v>
+        <v>1005.194266591054</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402865803206673</v>
+        <v>1.402865803207942</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.999322891045095</v>
+        <v>0.9993228910439308</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.8996800103308</v>
+        <v>322.8996798319474</v>
       </c>
       <c r="EO2" t="n">
-        <v>119945.4156479973</v>
+        <v>119945.4151708301</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.33712563833778e-06</v>
+        <v>8.33712567150456e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>85500.27762728685</v>
+        <v>85500.27728707204</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.169586845506168e-05</v>
+        <v>1.16958685016008e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00387045971444231</v>
+        <v>0.003870459718703043</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.65132933029137e-05</v>
+        <v>1.651329328822405e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02328364198124267</v>
+        <v>0.02328364195885512</v>
       </c>
       <c r="EV2" t="n">
-        <v>85557.98842525377</v>
+        <v>85557.98808491047</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.150398811799936</v>
+        <v>1.150398808494474</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.150398811799936</v>
+        <v>1.150398808494474</v>
       </c>
       <c r="EY2" t="n">
-        <v>311003.4158136263</v>
+        <v>311003.4156092366</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385375.8747797374</v>
+        <v>385375.8744931954</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.643751740881</v>
+        <v>3788.643751776774</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5291678671199</v>
+        <v>716.5291678594418</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.194266600916</v>
+        <v>1005.194266591054</v>
       </c>
       <c r="FD2" t="n">
-        <v>322.8996800103308</v>
+        <v>322.8996798319474</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.999322891045095</v>
+        <v>0.9993228910439308</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.65132933029137e-05</v>
+        <v>1.651329328822405e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02328364198124267</v>
+        <v>0.02328364195885512</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5936773107518</v>
+        <v>295.5936773107124</v>
       </c>
       <c r="FK2" t="n">
-        <v>135273.0064822705</v>
+        <v>135273.0064653475</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595011390021498</v>
+        <v>1.595011389822078</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3743526017</v>
+        <v>336974.3743526078</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.643751746082</v>
+        <v>3788.643751781974</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698114.7075104376</v>
+        <v>-698114.7075208981</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561334259771</v>
+        <v>717.8561334259331</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.776809796483</v>
+        <v>1006.776809796205</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477130050598</v>
+        <v>1.402477130050297</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995303445646951</v>
+        <v>0.9995303445647528</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027368047017</v>
+        <v>344.8027368046613</v>
       </c>
       <c r="FV2" t="n">
-        <v>189629.1932037176</v>
+        <v>189629.1931799644</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.273449636658557e-06</v>
+        <v>5.273449637319118e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135210.185706826</v>
+        <v>135210.1856899183</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.39589251188726e-06</v>
+        <v>7.395892512812093e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395618812314927</v>
+        <v>0.003395618812313814</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925162831424e-05</v>
+        <v>1.832925162830988e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606728822305664</v>
+        <v>0.02606728822304828</v>
       </c>
       <c r="GC2" t="n">
-        <v>135273.0064822705</v>
+        <v>135273.0064653475</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595011390021498</v>
+        <v>1.595011389822078</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595011390021498</v>
+        <v>1.595011389822078</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3743526017</v>
+        <v>336974.3743526078</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.643751746082</v>
+        <v>3788.643751781974</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561334259771</v>
+        <v>717.8561334259331</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.776809796483</v>
+        <v>1006.776809796205</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027368047017</v>
+        <v>344.8027368046613</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995303445646951</v>
+        <v>0.9995303445647528</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925162831424e-05</v>
+        <v>1.832925162830988e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606728822305664</v>
+        <v>0.02606728822304828</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5936773107518</v>
+        <v>295.5936773107124</v>
       </c>
       <c r="GR2" t="n">
-        <v>135273.0064822705</v>
+        <v>135273.0064653475</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595011390021498</v>
+        <v>1.595011389822078</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3743526017</v>
+        <v>336974.3743526078</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.643751746082</v>
+        <v>3788.643751781974</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698114.7075104376</v>
+        <v>-698114.7075208981</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561334259771</v>
+        <v>717.8561334259331</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.776809796483</v>
+        <v>1006.776809796205</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477130050598</v>
+        <v>1.402477130050297</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995303445646951</v>
+        <v>0.9995303445647528</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027368047017</v>
+        <v>344.8027368046613</v>
       </c>
       <c r="HC2" t="n">
-        <v>189629.1932037176</v>
+        <v>189629.1931799644</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.273449636658557e-06</v>
+        <v>5.273449637319118e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135210.185706826</v>
+        <v>135210.1856899183</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.39589251188726e-06</v>
+        <v>7.395892512812093e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395618812314927</v>
+        <v>0.003395618812313814</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925162831424e-05</v>
+        <v>1.832925162830988e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606728822305664</v>
+        <v>0.02606728822304828</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135273.0064822705</v>
+        <v>135273.0064653475</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595011390021498</v>
+        <v>1.595011389822078</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595011390021498</v>
+        <v>1.595011389822078</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3743526017</v>
+        <v>336974.3743526078</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.643751746082</v>
+        <v>3788.643751781974</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561334259771</v>
+        <v>717.8561334259331</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.776809796483</v>
+        <v>1006.776809796205</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027368047017</v>
+        <v>344.8027368046613</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995303445646951</v>
+        <v>0.9995303445647528</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925162831424e-05</v>
+        <v>1.832925162830988e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606728822305664</v>
+        <v>0.02606728822304828</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8356975181343081</v>
+        <v>0.8356975218868262</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8356975181343081</v>
+        <v>0.8356975218868262</v>
       </c>
       <c r="HZ2" t="n">
-        <v>491778.1132540488</v>
+        <v>491778.1142150261</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.755593454751335</v>
+        <v>2.755593456523148</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01582685398962145</v>
+        <v>0.01582685400093349</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.792061487618677e-07</v>
+        <v>-1.792061494850729e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01378707801881046</v>
+        <v>0.01378707801917794</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02523875695143983</v>
+        <v>0.02523875694634993</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05485250975372298</v>
+        <v>0.05485250976031188</v>
       </c>
       <c r="II2" t="n">
-        <v>7.981601490847368e-13</v>
+        <v>-2.224256889782339e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>383895.4184656992</v>
+        <v>383895.4181715377</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>269.8464611909957</v>
+        <v>269.846462253608</v>
       </c>
       <c r="IN2" t="n">
-        <v>111.5748409496892</v>
+        <v>111.5748413420205</v>
       </c>
       <c r="IO2" t="n">
-        <v>245.6993436791298</v>
+        <v>245.6993446680126</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.57666579210272</v>
+        <v>65.57666580307047</v>
       </c>
       <c r="IQ2" t="n">
-        <v>137.5226710452634</v>
+        <v>137.5226719416732</v>
       </c>
       <c r="IR2" t="n">
-        <v>111.5748409496892</v>
+        <v>111.5748413420205</v>
       </c>
       <c r="IS2" t="n">
-        <v>80.39614367912978</v>
+        <v>80.39614466801262</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.77493723860869</v>
+        <v>35.77493747731233</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.2686909664175</v>
+        <v>259.2686906802298</v>
       </c>
       <c r="IV2" t="n">
-        <v>85557.9884253199</v>
+        <v>85557.98808287302</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.150398811799936</v>
+        <v>1.150398808466615</v>
       </c>
       <c r="IX2" t="n">
-        <v>311003.4158137694</v>
+        <v>311003.4156093136</v>
       </c>
       <c r="IY2" t="n">
-        <v>385375.8747799381</v>
+        <v>385375.8744933024</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.643751741432</v>
+        <v>3788.643751784018</v>
       </c>
       <c r="JA2" t="n">
-        <v>-596900.8312721602</v>
+        <v>-596900.8304855732</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5291678671247</v>
+        <v>716.5291678594369</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.194266600919</v>
+        <v>1005.19426659101</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402865803206668</v>
+        <v>1.40286580320789</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993228910450971</v>
+        <v>0.9993228910439482</v>
       </c>
       <c r="JF2" t="n">
-        <v>322.8996800104553</v>
+        <v>322.8996798320092</v>
       </c>
       <c r="JG2" t="n">
-        <v>119945.4156480898</v>
+        <v>119945.4151679714</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.337125638331353e-06</v>
+        <v>8.337125671703263e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>85500.27762735313</v>
+        <v>85500.27728503747</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.169586845505261e-05</v>
+        <v>1.169586850187911e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003870459714439309</v>
+        <v>0.003870459718701214</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.651329330292392e-05</v>
+        <v>1.651329328822885e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02328364198125824</v>
+        <v>0.02328364195886215</v>
       </c>
       <c r="JN2" t="n">
-        <v>85557.9884253199</v>
+        <v>85557.98808287302</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.150398811799936</v>
+        <v>1.150398808466615</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.150398811799936</v>
+        <v>1.150398808466615</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311003.4158137694</v>
+        <v>311003.4156093136</v>
       </c>
       <c r="JR2" t="n">
-        <v>385375.8747799381</v>
+        <v>385375.8744933024</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.643751741432</v>
+        <v>3788.643751784018</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5291678671247</v>
+        <v>716.5291678594369</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.194266600919</v>
+        <v>1005.19426659101</v>
       </c>
       <c r="JV2" t="n">
-        <v>322.8996800104553</v>
+        <v>322.8996798320092</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993228910450971</v>
+        <v>0.9993228910439482</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.651329330292392e-05</v>
+        <v>1.651329328822885e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02328364198125824</v>
+        <v>0.02328364195886215</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5936773106512</v>
+        <v>295.5936773108124</v>
       </c>
       <c r="KC2" t="n">
-        <v>135273.0064818506</v>
+        <v>135273.006465507</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595011390017089</v>
+        <v>1.595011389823418</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3743525302</v>
+        <v>336974.3743526795</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.643751746633</v>
+        <v>3788.643751781975</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698114.7075103199</v>
+        <v>-698114.7075211771</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561334259717</v>
+        <v>717.856133425938</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.776809796474</v>
+        <v>1006.776809796211</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477130050595</v>
+        <v>1.402477130050295</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995303445646954</v>
+        <v>0.9995303445647535</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027368046427</v>
+        <v>344.8027368047197</v>
       </c>
       <c r="KN2" t="n">
-        <v>189629.1932031286</v>
+        <v>189629.193180188</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.273449636674937e-06</v>
+        <v>5.273449637312899e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135210.1857064062</v>
+        <v>135210.1856900779</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.395892511910218e-06</v>
+        <v>7.395892512803365e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395618812316057</v>
+        <v>0.003395618812312666</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.83292516283093e-05</v>
+        <v>1.832925162831476e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606728822304901</v>
+        <v>0.02606728822305579</v>
       </c>
       <c r="KU2" t="n">
-        <v>135273.0064818506</v>
+        <v>135273.006465507</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595011390017089</v>
+        <v>1.595011389823418</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595011390017089</v>
+        <v>1.595011389823418</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3743525302</v>
+        <v>336974.3743526795</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.643751746633</v>
+        <v>3788.643751781975</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561334259717</v>
+        <v>717.856133425938</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.776809796474</v>
+        <v>1006.776809796211</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027368046427</v>
+        <v>344.8027368047197</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995303445646954</v>
+        <v>0.9995303445647535</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.83292516283093e-05</v>
+        <v>1.832925162831476e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606728822304901</v>
+        <v>0.02606728822305579</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.7076610187787</v>
+        <v>268.7076608554005</v>
       </c>
       <c r="LJ2" t="n">
-        <v>96938.70764225947</v>
+        <v>96938.70742449367</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.257580540172254</v>
+        <v>1.257580538112759</v>
       </c>
       <c r="LL2" t="n">
-        <v>317748.6188373487</v>
+        <v>317748.618720608</v>
       </c>
       <c r="LM2" t="n">
-        <v>394832.1173057501</v>
+        <v>394832.1171420839</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.643751741432</v>
+        <v>3788.643751776774</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623205.4836581007</v>
+        <v>-623205.4832122818</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8035513119794</v>
+        <v>716.8035513067945</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.53432971482</v>
+        <v>1005.534329708286</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402803219758567</v>
+        <v>1.402803219759599</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.999367308008312</v>
+        <v>0.999367308007564</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.7322736336155</v>
+        <v>328.7322735335516</v>
       </c>
       <c r="LU2" t="n">
-        <v>135900.3250346533</v>
+        <v>135900.3247293599</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.358334130142876e-06</v>
+        <v>7.358334146673014e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>96877.68257193113</v>
+        <v>96877.68235422885</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.032229480982378e-05</v>
+        <v>1.03222948330199e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003734758721062938</v>
+        <v>0.00373475872332782</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.69944725580694e-05</v>
+        <v>1.699447254979747e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02401806446110149</v>
+        <v>0.02401806444845496</v>
       </c>
       <c r="MB2" t="n">
-        <v>96938.70764225947</v>
+        <v>96938.70742449367</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.257580540172254</v>
+        <v>1.257580538112759</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.257580540172254</v>
+        <v>1.257580538112759</v>
       </c>
       <c r="ME2" t="n">
-        <v>317748.6188373487</v>
+        <v>317748.618720608</v>
       </c>
       <c r="MF2" t="n">
-        <v>394832.1173057501</v>
+        <v>394832.1171420839</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.643751741432</v>
+        <v>3788.643751776774</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8035513119794</v>
+        <v>716.8035513067945</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.53432971482</v>
+        <v>1005.534329708286</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.7322736336155</v>
+        <v>328.7322735335516</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.999367308008312</v>
+        <v>0.999367308007564</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.69944725580694e-05</v>
+        <v>1.699447254979747e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02401806446110149</v>
+        <v>0.02401806444845496</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8356975181339861</v>
+        <v>0.8356975218866662</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4258990626463627</v>
+        <v>0.4258990656578547</v>
       </c>
       <c r="MR2" t="n">
-        <v>249668.3206025649</v>
+        <v>249668.3217287256</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.755593454751337</v>
+        <v>2.755593456456417</v>
       </c>
       <c r="MT2" t="n">
-        <v>381169.5433405299</v>
+        <v>381169.5431770641</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.4521705244658</v>
+        <v>135.4521702591549</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.904227696669</v>
+        <v>123.9042277776189</v>
       </c>
       <c r="MX2" t="n">
-        <v>-54.72689337684886</v>
+        <v>-54.72689253691493</v>
       </c>
       <c r="MY2" t="n">
-        <v>-23.83042693622777</v>
+        <v>-23.83042659739418</v>
       </c>
       <c r="MZ2" t="n">
-        <v>252.5183154397574</v>
+        <v>252.5183147476068</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.904227696669</v>
+        <v>123.9042277776189</v>
       </c>
       <c r="NB2" t="n">
-        <v>-220.0300933768489</v>
+        <v>-220.0300925369149</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.61509420373111</v>
+        <v>-60.61509409421468</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8660757986273</v>
+        <v>236.8660758096945</v>
       </c>
       <c r="NE2" t="n">
-        <v>60000.00000115111</v>
+        <v>59999.99999986035</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8830970533160598</v>
+        <v>0.883097053255656</v>
       </c>
       <c r="NG2" t="n">
-        <v>295006.6654095081</v>
+        <v>295006.6654174437</v>
       </c>
       <c r="NH2" t="n">
-        <v>362949.3674894766</v>
+        <v>362949.3675005978</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.964942482522</v>
+        <v>3799.964942535645</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537133.4166087152</v>
+        <v>-537133.4166522316</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0326650657843</v>
+        <v>716.0326650659214</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487919714892</v>
+        <v>1004.48791971484</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852088630071</v>
+        <v>1.402852088629731</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992720026199957</v>
+        <v>0.9992720026201597</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.616757481507</v>
+        <v>308.6167574887299</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96332302837</v>
+        <v>84109.9633212123</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919790821275e-05</v>
+        <v>1.188919790846946e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.40167964136</v>
+        <v>59956.40167836135</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878611767253e-05</v>
+        <v>1.66787861180286e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235203007633594</v>
+        <v>0.004235203007433637</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.53426000896961e-05</v>
+        <v>1.534260009028265e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150588320431838</v>
+        <v>0.02150588320520373</v>
       </c>
       <c r="NW2" t="n">
-        <v>60000.00000115111</v>
+        <v>59999.99999986035</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8830970533160598</v>
+        <v>0.883097053255656</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8830970533160598</v>
+        <v>0.883097053255656</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295006.6654095081</v>
+        <v>295006.6654174437</v>
       </c>
       <c r="OA2" t="n">
-        <v>362949.3674894766</v>
+        <v>362949.3675005978</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.964942482522</v>
+        <v>3799.964942535645</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0326650657843</v>
+        <v>716.0326650659214</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487919714892</v>
+        <v>1004.48791971484</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.616757481507</v>
+        <v>308.6167574887299</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992720026199957</v>
+        <v>0.9992720026201597</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.53426000896961e-05</v>
+        <v>1.534260009028265e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150588320431838</v>
+        <v>0.02150588320520373</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>246.0270584215673</v>
+        <v>246.0270583967392</v>
       </c>
       <c r="OL2" t="n">
-        <v>68498.88662343557</v>
+        <v>68498.8865866573</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9706189946903521</v>
+        <v>0.9706189942671147</v>
       </c>
       <c r="ON2" t="n">
-        <v>301550.6388231968</v>
+        <v>301550.6388054931</v>
       </c>
       <c r="OO2" t="n">
-        <v>372123.0127393782</v>
+        <v>372123.012714556</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.964942491091</v>
+        <v>3799.964942544214</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562771.184166785</v>
+        <v>-562771.184110331</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2049467665333</v>
+        <v>716.2049467659676</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.7200219121</v>
+        <v>1004.720021911101</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402838707618724</v>
+        <v>1.402838707618437</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992993900862132</v>
+        <v>0.9992993900862605</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5353217908945</v>
+        <v>314.535321775006</v>
       </c>
       <c r="OW2" t="n">
-        <v>96025.73326727882</v>
+        <v>96025.73321570555</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041387517673613e-05</v>
+        <v>1.041387518232919e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68451.01489270963</v>
+        <v>68451.01485596019</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.460898719423523e-05</v>
+        <v>1.460898720207839e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004077812617716204</v>
+        <v>0.004077812618124462</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582607284026466e-05</v>
+        <v>1.58260728389618e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.0222382593203711</v>
+        <v>0.02223825931839255</v>
       </c>
       <c r="PD2" t="n">
-        <v>68498.88662343557</v>
+        <v>68498.8865866573</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9706189946903521</v>
+        <v>0.9706189942671147</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9706189946903521</v>
+        <v>0.9706189942671147</v>
       </c>
       <c r="PG2" t="n">
-        <v>301550.6388231968</v>
+        <v>301550.6388054931</v>
       </c>
       <c r="PH2" t="n">
-        <v>372123.0127393782</v>
+        <v>372123.012714556</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.964942491091</v>
+        <v>3799.964942544214</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2049467665333</v>
+        <v>716.2049467659676</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.7200219121</v>
+        <v>1004.720021911101</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5353217908945</v>
+        <v>314.535321775006</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992993900862132</v>
+        <v>0.9992993900862605</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582607284026466e-05</v>
+        <v>1.58260728389618e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.0222382593203711</v>
+        <v>0.02223825931839255</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.6971046968299</v>
+        <v>268.6971045334462</v>
       </c>
       <c r="PS2" t="n">
-        <v>93187.58499640151</v>
+        <v>93187.58478128241</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.20893561521553</v>
+        <v>1.208935613160687</v>
       </c>
       <c r="PU2" t="n">
-        <v>317749.7782435596</v>
+        <v>317749.7781268162</v>
       </c>
       <c r="PV2" t="n">
-        <v>394832.1173057502</v>
+        <v>394832.1171420837</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.964942482521</v>
+        <v>3799.964942535646</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626207.4606887589</v>
+        <v>-626207.4602458475</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7911972483623</v>
+        <v>716.7911972431665</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.456956032327</v>
+        <v>1005.456956025735</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402719452878471</v>
+        <v>1.402719452879442</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.999391538234162</v>
+        <v>0.9993915382334809</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.7239319260912</v>
+        <v>328.7239318260373</v>
       </c>
       <c r="QD2" t="n">
-        <v>130636.885533241</v>
+        <v>130636.8852316718</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.654805883638024e-06</v>
+        <v>7.654805901308788e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93131.15695741271</v>
+        <v>93131.15674235934</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.073754512098763e-05</v>
+        <v>1.073754514578218e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.00373439479680291</v>
+        <v>0.003734394799067173</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.699336986571871e-05</v>
+        <v>1.699336985744659e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02401592213026424</v>
+        <v>0.02401592211761721</v>
       </c>
       <c r="QK2" t="n">
-        <v>93187.58499640151</v>
+        <v>93187.58478128241</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.20893561521553</v>
+        <v>1.208935613160687</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.20893561521553</v>
+        <v>1.208935613160687</v>
       </c>
       <c r="QN2" t="n">
-        <v>317749.7782435596</v>
+        <v>317749.7781268162</v>
       </c>
       <c r="QO2" t="n">
-        <v>394832.1173057502</v>
+        <v>394832.1171420837</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.964942482521</v>
+        <v>3799.964942535646</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7911972483623</v>
+        <v>716.7911972431665</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.456956032327</v>
+        <v>1005.456956025735</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.7239319260912</v>
+        <v>328.7239318260373</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.999391538234162</v>
+        <v>0.9993915382334809</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.699336986571871e-05</v>
+        <v>1.699336985744659e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02401592213026424</v>
+        <v>0.02401592211761721</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4389008932302791</v>
+        <v>0.4389008923603295</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8182261958179277</v>
+        <v>0.8182261935560265</v>
       </c>
       <c r="RA2" t="n">
-        <v>378771.0390641037</v>
+        <v>378771.037985507</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.755593454851597</v>
+        <v>2.755593456463418</v>
       </c>
       <c r="RC2" t="n">
-        <v>381169.5433405299</v>
+        <v>381169.5431770641</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02482484595858905</v>
+        <v>0.02482484620748143</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.00194065885979669</v>
+        <v>0.001940658994004022</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01186834002466991</v>
+        <v>0.01186834000532393</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03210800733070091</v>
+        <v>0.03210800747349248</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04228603602914035</v>
+        <v>0.0422860361371575</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1130278882028969</v>
+        <v>0.1130278888174594</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-2.137359733644928e-11</v>
+        <v>-6.121059215047353e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360282.8164955289</v>
+        <v>360282.8165040577</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81.2080146792356</v>
+        <v>81.20801456718699</v>
       </c>
       <c r="D3" t="n">
-        <v>81.2080146792356</v>
+        <v>81.20801456718699</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81.2080146792356</v>
+        <v>81.20801456718699</v>
       </c>
       <c r="H3" t="n">
-        <v>81.2080146792356</v>
+        <v>81.20801456718699</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3122709173439</v>
+        <v>292.3122709264173</v>
       </c>
       <c r="L3" t="n">
-        <v>132708.6859053809</v>
+        <v>132708.6859197794</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582392732532619</v>
+        <v>1.582392732655087</v>
       </c>
       <c r="N3" t="n">
-        <v>334621.2264692753</v>
+        <v>334621.2264757661</v>
       </c>
       <c r="O3" t="n">
-        <v>418487.0602645181</v>
+        <v>418487.0602736175</v>
       </c>
       <c r="P3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687306.1003396164</v>
+        <v>-687306.1003648407</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7110906400727</v>
+        <v>717.711090640483</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.645552417589</v>
+        <v>1006.645552418065</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577674423057</v>
+        <v>1.402577674422919</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994976840128147</v>
+        <v>0.999497684012878</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8846265346947</v>
+        <v>342.8846265400212</v>
       </c>
       <c r="W3" t="n">
-        <v>186041.7032857616</v>
+        <v>186041.7033059401</v>
       </c>
       <c r="X3" t="n">
-        <v>5.375138919600149e-06</v>
+        <v>5.375138919017149e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132642.7096897068</v>
+        <v>132642.7097041066</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.53904984555364e-06</v>
+        <v>7.539049844735193e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433931248373257</v>
+        <v>0.00343393124826684</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816944359619682e-05</v>
+        <v>1.81694435966408e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0258212774663424</v>
+        <v>0.02582127746702626</v>
       </c>
       <c r="AD3" t="n">
-        <v>132708.6859053809</v>
+        <v>132708.6859197794</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582392732532619</v>
+        <v>1.582392732655087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582392732532619</v>
+        <v>1.582392732655087</v>
       </c>
       <c r="AG3" t="n">
-        <v>334621.2264692753</v>
+        <v>334621.2264757661</v>
       </c>
       <c r="AH3" t="n">
-        <v>418487.0602645181</v>
+        <v>418487.0602736175</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7110906400727</v>
+        <v>717.711090640483</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.645552417589</v>
+        <v>1006.645552418065</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8846265346947</v>
+        <v>342.8846265400212</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994976840128147</v>
+        <v>0.999497684012878</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816944359619682e-05</v>
+        <v>1.81694435966408e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0258212774663424</v>
+        <v>0.02582127746702626</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2368377243971263</v>
+        <v>0.2368377240666649</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2368377243971263</v>
+        <v>0.2368377240666649</v>
       </c>
       <c r="DH3" t="n">
-        <v>185015.9987734233</v>
+        <v>185015.9985279413</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.75875806986589</v>
+        <v>2.758758066272941</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>271.5285911886436</v>
+        <v>271.5285892990715</v>
       </c>
       <c r="DV3" t="n">
-        <v>112.215917171219</v>
+        <v>112.2159164391279</v>
       </c>
       <c r="DW3" t="n">
-        <v>247.2556647810352</v>
+        <v>247.2556630382214</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.58928231648032</v>
+        <v>65.5892823051671</v>
       </c>
       <c r="DY3" t="n">
-        <v>271.5285911886436</v>
+        <v>271.5285892990715</v>
       </c>
       <c r="DZ3" t="n">
-        <v>112.215917171219</v>
+        <v>112.2159164391279</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.2556647810352</v>
+        <v>247.2556630382214</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.58928231648034</v>
+        <v>65.5892823051671</v>
       </c>
       <c r="EC3" t="n">
-        <v>258.8140749173959</v>
+        <v>258.8140754294652</v>
       </c>
       <c r="ED3" t="n">
-        <v>85017.40969591553</v>
+        <v>85017.41030332088</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.14514032844548</v>
+        <v>1.145140334358872</v>
       </c>
       <c r="EF3" t="n">
-        <v>310678.6292476513</v>
+        <v>310678.6296134818</v>
       </c>
       <c r="EG3" t="n">
-        <v>384920.5431721448</v>
+        <v>384920.5436850174</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.704170025344</v>
+        <v>3788.704169957543</v>
       </c>
       <c r="EI3" t="n">
-        <v>-595649.4217286449</v>
+        <v>-595649.4231383034</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5170134474428</v>
+        <v>716.5170134610764</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.178624614638</v>
+        <v>1005.178624632197</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402867769710494</v>
+        <v>1.402867769708307</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993210569053207</v>
+        <v>0.9993210569073784</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.6160903053703</v>
+        <v>322.6160906249395</v>
       </c>
       <c r="EO3" t="n">
-        <v>119187.5128187136</v>
+        <v>119187.5136703099</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.390140681272696e-06</v>
+        <v>8.390140621325036e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>84959.90526841317</v>
+        <v>84959.90587558523</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.177025794509431e-05</v>
+        <v>1.177025786097732e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003877242060733588</v>
+        <v>0.003877242053080701</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.648994212239172e-05</v>
+        <v>1.6489942148703e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02324805648227327</v>
+        <v>0.02324805652236674</v>
       </c>
       <c r="EV3" t="n">
-        <v>85017.40969591553</v>
+        <v>85017.41030332088</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.14514032844548</v>
+        <v>1.145140334358872</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.14514032844548</v>
+        <v>1.145140334358872</v>
       </c>
       <c r="EY3" t="n">
-        <v>310678.6292476513</v>
+        <v>310678.6296134818</v>
       </c>
       <c r="EZ3" t="n">
-        <v>384920.5431721448</v>
+        <v>384920.5436850174</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.704170025344</v>
+        <v>3788.704169957543</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5170134474428</v>
+        <v>716.5170134610764</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.178624614638</v>
+        <v>1005.178624632197</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.6160903053703</v>
+        <v>322.6160906249395</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993210569053207</v>
+        <v>0.9993210569073784</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.648994212239172e-05</v>
+        <v>1.6489942148703e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02324805648227327</v>
+        <v>0.02324805652236674</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936112671724</v>
+        <v>295.5936112672468</v>
       </c>
       <c r="FK3" t="n">
-        <v>135244.5237549836</v>
+        <v>135244.5237869432</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594675750247267</v>
+        <v>1.594675750623876</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3850751522</v>
+        <v>336974.3850751402</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.704170030545</v>
+        <v>3788.704169962745</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698132.3165537342</v>
+        <v>-698132.316533975</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8560592368555</v>
+        <v>717.8560592369386</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776342140376</v>
+        <v>1006.7763421409</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402476623531837</v>
+        <v>1.402476623532406</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995304415158839</v>
+        <v>0.9995304415157751</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8026690860051</v>
+        <v>344.8026690860813</v>
       </c>
       <c r="FV3" t="n">
-        <v>189589.2148809488</v>
+        <v>189589.2149258072</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.274561639109815e-06</v>
+        <v>5.274561637861809e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135181.7290212716</v>
+        <v>135181.729053202</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.397449398229284e-06</v>
+        <v>7.397449396481984e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395616933199312</v>
+        <v>0.003395616933201418</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832924431621729e-05</v>
+        <v>1.832924431622551e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606727416594402</v>
+        <v>0.02606727416595982</v>
       </c>
       <c r="GC3" t="n">
-        <v>135244.5237549836</v>
+        <v>135244.5237869432</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594675750247267</v>
+        <v>1.594675750623876</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594675750247267</v>
+        <v>1.594675750623876</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3850751522</v>
+        <v>336974.3850751402</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.704170030545</v>
+        <v>3788.704169962745</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8560592368555</v>
+        <v>717.8560592369386</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776342140376</v>
+        <v>1006.7763421409</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8026690860051</v>
+        <v>344.8026690860813</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995304415158839</v>
+        <v>0.9995304415157751</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832924431621729e-05</v>
+        <v>1.832924431622551e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606727416594402</v>
+        <v>0.02606727416595982</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936112671724</v>
+        <v>295.5936112672468</v>
       </c>
       <c r="GR3" t="n">
-        <v>135244.5237549836</v>
+        <v>135244.5237869432</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594675750247267</v>
+        <v>1.594675750623876</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3850751522</v>
+        <v>336974.3850751402</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.704170030545</v>
+        <v>3788.704169962745</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698132.3165537342</v>
+        <v>-698132.316533975</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8560592368555</v>
+        <v>717.8560592369386</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776342140376</v>
+        <v>1006.7763421409</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402476623531837</v>
+        <v>1.402476623532406</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995304415158839</v>
+        <v>0.9995304415157751</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8026690860051</v>
+        <v>344.8026690860813</v>
       </c>
       <c r="HC3" t="n">
-        <v>189589.2148809488</v>
+        <v>189589.2149258072</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.274561639109815e-06</v>
+        <v>5.274561637861809e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135181.7290212716</v>
+        <v>135181.729053202</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.397449398229284e-06</v>
+        <v>7.397449396481984e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395616933199312</v>
+        <v>0.003395616933201418</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832924431621729e-05</v>
+        <v>1.832924431622551e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606727416594402</v>
+        <v>0.02606727416595982</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135244.5237549836</v>
+        <v>135244.5237869432</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594675750247267</v>
+        <v>1.594675750623876</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594675750247267</v>
+        <v>1.594675750623876</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3850751522</v>
+        <v>336974.3850751402</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.704170030545</v>
+        <v>3788.704169962745</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8560592368555</v>
+        <v>717.8560592369386</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776342140376</v>
+        <v>1006.7763421409</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8026690860051</v>
+        <v>344.8026690860813</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995304415158839</v>
+        <v>0.9995304415157751</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832924431621729e-05</v>
+        <v>1.832924431622551e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606727416594402</v>
+        <v>0.02606727416595982</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8416461526504454</v>
+        <v>0.8416461459597182</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8416461526504454</v>
+        <v>0.8416461459597182</v>
       </c>
       <c r="HZ3" t="n">
-        <v>493279.2921006471</v>
+        <v>493279.2904280791</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.758758069746436</v>
+        <v>2.75875806599439</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01584031319452918</v>
+        <v>0.01584031318189684</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.798815511136149e-07</v>
+        <v>-1.7988155159446e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01378750972711655</v>
+        <v>0.01378750972672371</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.02523269070375284</v>
+        <v>0.02523269070932601</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05486033374384747</v>
+        <v>0.05486033373639496</v>
       </c>
       <c r="II3" t="n">
-        <v>-1.304858998629754e-12</v>
+        <v>-1.61828189737534e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383427.1350320944</v>
+        <v>383427.135559459</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>271.5285911886436</v>
+        <v>271.5285892990715</v>
       </c>
       <c r="IN3" t="n">
-        <v>112.215917171219</v>
+        <v>112.2159164391279</v>
       </c>
       <c r="IO3" t="n">
-        <v>247.2556647810352</v>
+        <v>247.2556630382214</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.58928231648032</v>
+        <v>65.5892823051671</v>
       </c>
       <c r="IQ3" t="n">
-        <v>138.9554552734966</v>
+        <v>138.9554536544154</v>
       </c>
       <c r="IR3" t="n">
-        <v>112.215917171219</v>
+        <v>112.2159164391279</v>
       </c>
       <c r="IS3" t="n">
-        <v>81.95246478103519</v>
+        <v>81.95246303822142</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.14104883628044</v>
+        <v>36.14104843398018</v>
       </c>
       <c r="IU3" t="n">
-        <v>258.814074917396</v>
+        <v>258.8140754296648</v>
       </c>
       <c r="IV3" t="n">
-        <v>85017.40969591528</v>
+        <v>85017.41030338628</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.145140328445477</v>
+        <v>1.145140334358867</v>
       </c>
       <c r="IX3" t="n">
-        <v>310678.6292476513</v>
+        <v>310678.6296136249</v>
       </c>
       <c r="IY3" t="n">
-        <v>384920.5431721448</v>
+        <v>384920.5436852179</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.704170025344</v>
+        <v>3788.704169958097</v>
       </c>
       <c r="JA3" t="n">
-        <v>-595649.4217286452</v>
+        <v>-595649.4231390026</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5170134474428</v>
+        <v>716.517013461081</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.178624614638</v>
+        <v>1005.1786246322</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402867769710494</v>
+        <v>1.402867769708302</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993210569053207</v>
+        <v>0.9993210569073806</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.6160903053704</v>
+        <v>322.6160906250641</v>
       </c>
       <c r="JG3" t="n">
-        <v>119187.5128187133</v>
+        <v>119187.5136704015</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.390140681272718e-06</v>
+        <v>8.39014062131859e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>84959.90526841293</v>
+        <v>84959.90587565079</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.177025794509434e-05</v>
+        <v>1.177025786096824e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003877242060733587</v>
+        <v>0.003877242053077689</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.648994212239172e-05</v>
+        <v>1.648994214871323e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02324805648227329</v>
+        <v>0.02324805652238231</v>
       </c>
       <c r="JN3" t="n">
-        <v>85017.40969591528</v>
+        <v>85017.41030338628</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.145140328445477</v>
+        <v>1.145140334358867</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.145140328445477</v>
+        <v>1.145140334358867</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310678.6292476513</v>
+        <v>310678.6296136249</v>
       </c>
       <c r="JR3" t="n">
-        <v>384920.5431721448</v>
+        <v>384920.5436852179</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.704170025344</v>
+        <v>3788.704169958097</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5170134474428</v>
+        <v>716.517013461081</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.178624614638</v>
+        <v>1005.1786246322</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.6160903053704</v>
+        <v>322.6160906250641</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993210569053207</v>
+        <v>0.9993210569073806</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.648994212239172e-05</v>
+        <v>1.648994214871323e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02324805648227329</v>
+        <v>0.02324805652238231</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936112672724</v>
+        <v>295.5936112673463</v>
       </c>
       <c r="KC3" t="n">
-        <v>135244.5237551431</v>
+        <v>135244.5237868419</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594675750248607</v>
+        <v>1.594675750622143</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3850752236</v>
+        <v>336974.3850752118</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.704170030545</v>
+        <v>3788.704169963299</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698132.3165540131</v>
+        <v>-698132.316534415</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8560592368602</v>
+        <v>717.8560592369427</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776342140381</v>
+        <v>1006.776342140901</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402476623531836</v>
+        <v>1.402476623532399</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995304415158845</v>
+        <v>0.9995304415157766</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8026690860635</v>
+        <v>344.8026690861391</v>
       </c>
       <c r="KN3" t="n">
-        <v>189589.2148811722</v>
+        <v>189589.2149256646</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.274561639103598e-06</v>
+        <v>5.274561637865776e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135181.7290214311</v>
+        <v>135181.7290531009</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.397449398220556e-06</v>
+        <v>7.397449396487515e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395616933198165</v>
+        <v>0.003395616933200252</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924431622216e-05</v>
+        <v>1.832924431623032e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606727416595154</v>
+        <v>0.02606727416596721</v>
       </c>
       <c r="KU3" t="n">
-        <v>135244.5237551431</v>
+        <v>135244.5237868419</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594675750248607</v>
+        <v>1.594675750622143</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594675750248607</v>
+        <v>1.594675750622143</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3850752236</v>
+        <v>336974.3850752118</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.704170030545</v>
+        <v>3788.704169963299</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8560592368602</v>
+        <v>717.8560592369427</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776342140381</v>
+        <v>1006.776342140901</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8026690860635</v>
+        <v>344.8026690861391</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995304415158845</v>
+        <v>0.9995304415157766</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924431622216e-05</v>
+        <v>1.832924431623032e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606727416595154</v>
+        <v>0.02606727416596721</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.4508433408197</v>
+        <v>268.4508436285126</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96595.21482327505</v>
+        <v>96595.21520740613</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.254324706574453</v>
+        <v>1.254324710216674</v>
       </c>
       <c r="LL3" t="n">
-        <v>317565.1161987777</v>
+        <v>317565.1164043411</v>
       </c>
       <c r="LM3" t="n">
-        <v>394574.8524472772</v>
+        <v>394574.8527354703</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.704170031985</v>
+        <v>3788.704169964739</v>
       </c>
       <c r="LO3" t="n">
-        <v>-622505.9771666896</v>
+        <v>-622505.9779504276</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7954132154034</v>
+        <v>716.7954132245</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.524044008912</v>
+        <v>1005.524044020411</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402804796836421</v>
+        <v>1.40280479683466</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993661456289284</v>
+        <v>0.9993661456302285</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.5749424855561</v>
+        <v>328.5749426618439</v>
       </c>
       <c r="LU3" t="n">
-        <v>135418.7678145601</v>
+        <v>135418.7683530901</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.384500805452469e-06</v>
+        <v>7.384500776085968e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96534.29195562632</v>
+        <v>96534.29233964268</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.035901315213114e-05</v>
+        <v>1.035901311092267e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003738322115097201</v>
+        <v>0.003738322111101575</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.698146700249161e-05</v>
+        <v>1.698146701706346e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02399818158264939</v>
+        <v>0.02399818160492586</v>
       </c>
       <c r="MB3" t="n">
-        <v>96595.21482327505</v>
+        <v>96595.21520740613</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.254324706574453</v>
+        <v>1.254324710216674</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.254324706574453</v>
+        <v>1.254324710216674</v>
       </c>
       <c r="ME3" t="n">
-        <v>317565.1161987777</v>
+        <v>317565.1164043411</v>
       </c>
       <c r="MF3" t="n">
-        <v>394574.8524472772</v>
+        <v>394574.8527354703</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.704170031985</v>
+        <v>3788.704169964739</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.7954132154034</v>
+        <v>716.7954132245</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.524044008912</v>
+        <v>1005.524044020411</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.5749424855561</v>
+        <v>328.5749426618439</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993661456289284</v>
+        <v>0.9993661456302285</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.698146700249161e-05</v>
+        <v>1.698146701706346e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02399818158264939</v>
+        <v>0.02399818160492586</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8416461526504452</v>
+        <v>0.8416461459593931</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4307145844522791</v>
+        <v>0.4307145790068659</v>
       </c>
       <c r="MR3" t="n">
-        <v>251471.9740635918</v>
+        <v>251471.9720306631</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.758758069746428</v>
+        <v>2.758758065994378</v>
       </c>
       <c r="MT3" t="n">
-        <v>380912.2784821572</v>
+        <v>380912.2787702501</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.7385992633928</v>
+        <v>142.7385996829284</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.9801080574921</v>
+        <v>127.9801078301983</v>
       </c>
       <c r="MX3" t="n">
-        <v>-63.20917386952675</v>
+        <v>-63.20917527712319</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.28469358795772</v>
+        <v>-26.28469413495456</v>
       </c>
       <c r="MZ3" t="n">
-        <v>261.9099331256716</v>
+        <v>261.9099342427125</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.9801080574921</v>
+        <v>127.9801078301983</v>
       </c>
       <c r="NB3" t="n">
-        <v>-228.5123738695268</v>
+        <v>-228.5123752771232</v>
       </c>
       <c r="NC3" t="n">
-        <v>-60.74865823856478</v>
+        <v>-60.74865843241374</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1959631930614</v>
+        <v>234.1959631883512</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000282596</v>
+        <v>57499.99998661038</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559542647803204</v>
+        <v>0.8559542645560255</v>
       </c>
       <c r="NG3" t="n">
-        <v>293099.9595407233</v>
+        <v>293099.9595373934</v>
       </c>
       <c r="NH3" t="n">
-        <v>360276.4459124376</v>
+        <v>360276.4459077663</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.824107348762</v>
+        <v>3800.824107409707</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529861.2168355136</v>
+        <v>-529861.2168365553</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9877378557561</v>
+        <v>715.9877378556221</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421540455951</v>
+        <v>1004.421540455493</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847405549148</v>
+        <v>1.402847405548771</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992672396749703</v>
+        <v>0.9992672396751134</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8703687724928</v>
+        <v>306.8703687694094</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.7194261057</v>
+        <v>80604.71940336419</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622146097474e-05</v>
+        <v>1.240622146447498e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.9381244625</v>
+        <v>57457.93810826696</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403558919658e-05</v>
+        <v>1.740403559410221e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283350729253321</v>
+        <v>0.004283350729336449</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.52003214953345e-05</v>
+        <v>1.520032149508105e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02129076118907765</v>
+        <v>0.02129076118869264</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000282596</v>
+        <v>57499.99998661038</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559542647803204</v>
+        <v>0.8559542645560255</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559542647803204</v>
+        <v>0.8559542645560255</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293099.9595407233</v>
+        <v>293099.9595373934</v>
       </c>
       <c r="OA3" t="n">
-        <v>360276.4459124376</v>
+        <v>360276.4459077663</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.824107348762</v>
+        <v>3800.824107409707</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9877378557561</v>
+        <v>715.9877378556221</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421540455951</v>
+        <v>1004.421540455493</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8703687724928</v>
+        <v>306.8703687694094</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992672396749703</v>
+        <v>0.9992672396751134</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.52003214953345e-05</v>
+        <v>1.520032149508105e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02129076118907765</v>
+        <v>0.02129076118869264</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3693680646573</v>
+        <v>244.3693681199349</v>
       </c>
       <c r="OL3" t="n">
-        <v>66701.60721242527</v>
+        <v>66701.60724871942</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9515664033995455</v>
+        <v>0.9515664037017381</v>
       </c>
       <c r="ON3" t="n">
-        <v>300366.9601953357</v>
+        <v>300366.9602348679</v>
       </c>
       <c r="OO3" t="n">
-        <v>370463.599772068</v>
+        <v>370463.5998274806</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.824107347706</v>
+        <v>3800.824107418382</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558341.3854654061</v>
+        <v>-558341.3856373649</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1704227802446</v>
+        <v>716.1704227812796</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.670277454032</v>
+        <v>1004.670277455071</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402836874432488</v>
+        <v>1.402836874431912</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992961233683918</v>
+        <v>0.9992961233687396</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4726442818067</v>
+        <v>313.4726443173062</v>
       </c>
       <c r="OW3" t="n">
-        <v>93505.76656205748</v>
+        <v>93505.76661293076</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069452758655611e-05</v>
+        <v>1.069452758073759e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66654.76811042968</v>
+        <v>66654.76814672166</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.50026776530564e-05</v>
+        <v>1.500267764488779e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105379937455747</v>
+        <v>0.004105379936525688</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573907456421417e-05</v>
+        <v>1.573907456711532e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210627394212787</v>
+        <v>0.0221062739465245</v>
       </c>
       <c r="PD3" t="n">
-        <v>66701.60721242527</v>
+        <v>66701.60724871942</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9515664033995455</v>
+        <v>0.9515664037017381</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9515664033995455</v>
+        <v>0.9515664037017381</v>
       </c>
       <c r="PG3" t="n">
-        <v>300366.9601953357</v>
+        <v>300366.9602348679</v>
       </c>
       <c r="PH3" t="n">
-        <v>370463.599772068</v>
+        <v>370463.5998274806</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.824107347706</v>
+        <v>3800.824107418382</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1704227802446</v>
+        <v>716.1704227812796</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.670277454032</v>
+        <v>1004.670277455071</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4726442818067</v>
+        <v>313.4726443173062</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992961233683918</v>
+        <v>0.9992961233687396</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573907456421417e-05</v>
+        <v>1.573907456711532e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210627394212787</v>
+        <v>0.0221062739465245</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.4395765560434</v>
+        <v>268.439576843396</v>
       </c>
       <c r="PS3" t="n">
-        <v>92599.19581794325</v>
+        <v>92599.19614143563</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.202454157033519</v>
+        <v>1.202454159945237</v>
       </c>
       <c r="PU3" t="n">
-        <v>317566.3484005304</v>
+        <v>317566.348605977</v>
       </c>
       <c r="PV3" t="n">
-        <v>394574.8524472772</v>
+        <v>394574.8527352761</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.824107339032</v>
+        <v>3800.824107409707</v>
       </c>
       <c r="PX3" t="n">
-        <v>-625716.7614908144</v>
+        <v>-625716.7623139642</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7822198895112</v>
+        <v>716.7822198984387</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.441428095386</v>
+        <v>1005.441428105842</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402715357881464</v>
+        <v>1.402715357878581</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993920992988578</v>
+        <v>0.9993920993003913</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.5660637028496</v>
+        <v>328.5660638788764</v>
       </c>
       <c r="QD3" t="n">
-        <v>129811.7299985439</v>
+        <v>129811.7304519717</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.703464086113147e-06</v>
+        <v>7.703464059205224e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92543.17297459408</v>
+        <v>92543.17329803423</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.080576738247921e-05</v>
+        <v>1.080576734471285e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.00373793294783054</v>
+        <v>0.003737932943833384</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698029073627105e-05</v>
+        <v>1.69802907508171e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02399589606981601</v>
+        <v>0.02399589609204669</v>
       </c>
       <c r="QK3" t="n">
-        <v>92599.19581794325</v>
+        <v>92599.19614143563</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.202454157033519</v>
+        <v>1.202454159945237</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.202454157033519</v>
+        <v>1.202454159945237</v>
       </c>
       <c r="QN3" t="n">
-        <v>317566.3484005304</v>
+        <v>317566.348605977</v>
       </c>
       <c r="QO3" t="n">
-        <v>394574.8524472772</v>
+        <v>394574.8527352761</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.824107339032</v>
+        <v>3800.824107409707</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7822198895112</v>
+        <v>716.7822198984387</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.441428095386</v>
+        <v>1005.441428105842</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.5660637028496</v>
+        <v>328.5660638788764</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993920992988578</v>
+        <v>0.9993920993003913</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698029073627105e-05</v>
+        <v>1.69802907508171e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02399589606981601</v>
+        <v>0.02399589609204669</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.465142984753983</v>
+        <v>0.4651429861257995</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8534872042984576</v>
+        <v>0.8534872079471401</v>
       </c>
       <c r="RA3" t="n">
-        <v>384347.5947318899</v>
+        <v>384347.5962768191</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.758758069553745</v>
+        <v>2.75875806393126</v>
       </c>
       <c r="RC3" t="n">
-        <v>380912.2784821572</v>
+        <v>380912.2787702501</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.0249926967120648</v>
+        <v>0.02499269626820827</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002208533119988248</v>
+        <v>0.002208532870958716</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01186225827042652</v>
+        <v>0.01186225830409374</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.0321927669764633</v>
+        <v>0.03219276672860667</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04259304861784424</v>
+        <v>0.04259304843764644</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1138493036967871</v>
+        <v>0.1138493026095138</v>
       </c>
       <c r="RJ3" t="n">
-        <v>4.169624368000058e-11</v>
+        <v>1.754715747703806e-09</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357455.0619404545</v>
+        <v>357455.0619061776</v>
       </c>
     </row>
   </sheetData>
@@ -8686,34 +8686,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01582685398962145</v>
+        <v>0.01582685400093349</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.792061487618677e-07</v>
+        <v>-1.792061494850729e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378707801881046</v>
+        <v>0.01378707801917794</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02523875695143983</v>
+        <v>0.02523875694634993</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05485250975372298</v>
+        <v>0.05485250976031188</v>
       </c>
       <c r="H2" t="n">
-        <v>7.981601490847368e-13</v>
+        <v>-2.224256889782339e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172599785</v>
+        <v>81.7575817239377</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172599785</v>
+        <v>81.7575817239377</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172599785</v>
+        <v>81.7575817239377</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172599785</v>
+        <v>81.7575817239377</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180723215</v>
+        <v>292.2676180724893</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394372239</v>
+        <v>132637.8394374892</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096098142</v>
+        <v>1.581790096100395</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834749641</v>
+        <v>334589.2834750842</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800036478</v>
+        <v>418442.2800038162</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625799531</v>
+        <v>-687181.9625804201</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713703936</v>
+        <v>717.7090713704011</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103384</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574215</v>
+        <v>1.402578355574212</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756381</v>
+        <v>0.9994973723756393</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.858412122086</v>
+        <v>342.8584121221845</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165863313</v>
+        <v>185942.4165867031</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054409108e-06</v>
+        <v>5.378009054398355e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565721105</v>
+        <v>132571.8565723757</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095796363e-06</v>
+        <v>7.543079095781268e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038602052</v>
+        <v>0.003434455038600083</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856045812e-05</v>
+        <v>1.816725856046633e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190126032</v>
+        <v>0.02581791190127296</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394372239</v>
+        <v>132637.8394374892</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096098142</v>
+        <v>1.581790096100395</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096098142</v>
+        <v>1.581790096100395</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834749641</v>
+        <v>334589.2834750842</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800036478</v>
+        <v>418442.2800038162</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713703936</v>
+        <v>717.7090713704011</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103384</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.858412122086</v>
+        <v>342.8584121221845</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756381</v>
+        <v>0.9994973723756393</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856045812e-05</v>
+        <v>1.816725856046633e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190126032</v>
+        <v>0.02581791190127296</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8835,22 +8835,22 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.6000000001887</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="BE2" t="n">
         <v>-696445.9368990486</v>
@@ -8871,43 +8871,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974372401</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087296903e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.661746189</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.24980934697967e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695744088</v>
       </c>
       <c r="BP2" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362602</v>
@@ -8925,7 +8925,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8936,22 +8936,22 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.6000000001887</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="CL2" t="n">
         <v>-696445.9368990486</v>
@@ -8972,43 +8972,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.897437241</v>
+        <v>193456.8974372401</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087296878e-06</v>
+        <v>5.169110087296903e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617461897</v>
+        <v>137934.661746189</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346979635e-06</v>
+        <v>7.24980934697967e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695744088</v>
       </c>
       <c r="CW2" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999953525</v>
+        <v>137999.9999953519</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819756435</v>
+        <v>1.627145819756428</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723359</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362602</v>
@@ -9026,7 +9026,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419707386</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.238458730587848</v>
+        <v>0.2384587305817707</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.238458730587848</v>
+        <v>0.2384587305817707</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323231295</v>
+        <v>186219.5323186182</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.77636993476386</v>
+        <v>2.776369934697855</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780784391976</v>
+        <v>309.3780779069588</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136419793541</v>
+        <v>126.4136417618783</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727793896678</v>
+        <v>282.3727789038875</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780784391976</v>
+        <v>309.3780779069588</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136419793541</v>
+        <v>126.4136417618783</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727793896678</v>
+        <v>282.3727789038875</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365044415371</v>
+        <v>247.8365046061801</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23733299234</v>
+        <v>72726.23750704438</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014665369347</v>
+        <v>1.023014667137524</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9114142205</v>
+        <v>302836.9115318195</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0333791245</v>
+        <v>373927.0335439878</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061394723</v>
+        <v>3790.093061373447</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3824650674</v>
+        <v>-565396.3829189439</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430451877</v>
+        <v>716.252943048743</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.8315811887</v>
+        <v>1004.83158119349</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457087973</v>
+        <v>1.402900457087697</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812858988375</v>
+        <v>0.9992812858993665</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911152325897</v>
+        <v>315.6911153375872</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5420458607</v>
+        <v>101954.542289898</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292793372416e-06</v>
+        <v>9.808292769895385e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.10993470598</v>
+        <v>72674.11010867231</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005844307484e-05</v>
+        <v>1.376005841013619e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559453182012</v>
+        <v>0.004048559450498967</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.59211311409694e-05</v>
+        <v>1.592113114957298e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0223828836959106</v>
+        <v>0.02238288370897289</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23733299234</v>
+        <v>72726.23750704438</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014665369347</v>
+        <v>1.023014667137524</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014665369347</v>
+        <v>1.023014667137524</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9114142205</v>
+        <v>302836.9115318195</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0333791245</v>
+        <v>373927.0335439878</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061394723</v>
+        <v>3790.093061373447</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430451877</v>
+        <v>716.252943048743</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.8315811887</v>
+        <v>1004.83158119349</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911152325897</v>
+        <v>315.6911153375872</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812858988375</v>
+        <v>0.9992812858993665</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.59211311409694e-05</v>
+        <v>1.592113114957298e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0223828836959106</v>
+        <v>0.02238288370897289</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968649651</v>
+        <v>295.5920968649884</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4165241529</v>
+        <v>134591.4165341335</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979526850939</v>
+        <v>1.58697952696855</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309325254</v>
+        <v>336974.6309325217</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.09306140437</v>
+        <v>3790.093061383095</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1242451828</v>
+        <v>-698537.1242389821</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580607349</v>
+        <v>717.854358060761</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618720165</v>
+        <v>1006.765618720329</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008974685</v>
+        <v>1.402465008974863</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.999532664823523</v>
+        <v>0.999532664823489</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163635352</v>
+        <v>344.8011163635589</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5202170197</v>
+        <v>188672.5202310282</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188913837345e-06</v>
+        <v>5.300188913443818e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2174918178</v>
+        <v>134529.2175017893</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.43332949261242e-06</v>
+        <v>7.433329492061453e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843597453</v>
+        <v>0.003395573843598111</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.83290766524671e-05</v>
+        <v>1.832907665246966e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184418212</v>
+        <v>0.02606695184418705</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4165241529</v>
+        <v>134591.4165341335</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979526850939</v>
+        <v>1.58697952696855</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979526850939</v>
+        <v>1.58697952696855</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309325254</v>
+        <v>336974.6309325217</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.09306140437</v>
+        <v>3790.093061383095</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580607349</v>
+        <v>717.854358060761</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618720165</v>
+        <v>1006.765618720329</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163635352</v>
+        <v>344.8011163635589</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.999532664823523</v>
+        <v>0.999532664823489</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.83290766524671e-05</v>
+        <v>1.832907665246966e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184418212</v>
+        <v>0.02606695184418705</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968649651</v>
+        <v>295.5920968649884</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4165241529</v>
+        <v>134591.4165341335</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979526850939</v>
+        <v>1.58697952696855</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309325254</v>
+        <v>336974.6309325217</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.09306140437</v>
+        <v>3790.093061383095</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1242451828</v>
+        <v>-698537.1242389821</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580607349</v>
+        <v>717.854358060761</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618720165</v>
+        <v>1006.765618720329</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008974685</v>
+        <v>1.402465008974863</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.999532664823523</v>
+        <v>0.999532664823489</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163635352</v>
+        <v>344.8011163635589</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5202170197</v>
+        <v>188672.5202310282</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188913837345e-06</v>
+        <v>5.300188913443818e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2174918178</v>
+        <v>134529.2175017893</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.43332949261242e-06</v>
+        <v>7.433329492061453e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843597453</v>
+        <v>0.003395573843598111</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.83290766524671e-05</v>
+        <v>1.832907665246966e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184418212</v>
+        <v>0.02606695184418705</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4165241529</v>
+        <v>134591.4165341335</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979526850939</v>
+        <v>1.58697952696855</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979526850939</v>
+        <v>1.58697952696855</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309325254</v>
+        <v>336974.6309325217</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.09306140437</v>
+        <v>3790.093061383095</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580607349</v>
+        <v>717.854358060761</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618720165</v>
+        <v>1006.765618720329</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163635352</v>
+        <v>344.8011163635589</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.999532664823523</v>
+        <v>0.999532664823489</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.83290766524671e-05</v>
+        <v>1.832907665246966e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184418212</v>
+        <v>0.02606695184418705</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,37 +9382,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337326931905</v>
+        <v>0.01619337326785462</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005771771915e-07</v>
+        <v>-1.972005777141156e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827868052</v>
+        <v>0.01379727827868005</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007317734</v>
+        <v>0.02510093007318883</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138442059974</v>
+        <v>0.05509138441914579</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578252924576255e-06</v>
+        <v>5.578239168017862e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024882273267</v>
+        <v>0.980002486215434</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024882273267</v>
+        <v>0.980002486215434</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1651640664</v>
+        <v>520038.1648872292</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991710303</v>
+        <v>2.776362991732646</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372154.964483463</v>
+        <v>372154.9646523847</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1480.456314038136</v>
+        <v>1480.456321657693</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02482484595858905</v>
+        <v>0.02482484620748143</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.00194065885979669</v>
+        <v>0.001940658994004022</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01186834002466991</v>
+        <v>0.01186834000532393</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.03210800733070091</v>
+        <v>0.03210800747349248</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04228603602914035</v>
+        <v>0.0422860361371575</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1130278882028969</v>
+        <v>0.1130278888174594</v>
       </c>
       <c r="IR2" t="n">
-        <v>-2.137359733644928e-11</v>
+        <v>-6.121059215047353e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>270.720451159212</v>
+        <v>270.720451236346</v>
       </c>
       <c r="IU2" t="n">
-        <v>111.9362141960344</v>
+        <v>111.9362141807424</v>
       </c>
       <c r="IV2" t="n">
-        <v>246.4951249564721</v>
+        <v>246.495125048131</v>
       </c>
       <c r="IW2" t="n">
-        <v>65.57666579210272</v>
+        <v>65.57666580307047</v>
       </c>
       <c r="IX2" t="n">
-        <v>138.2817584740587</v>
+        <v>138.2817585154975</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9362141960344</v>
+        <v>111.9362141807424</v>
       </c>
       <c r="IZ2" t="n">
-        <v>81.19192495647212</v>
+        <v>81.191925048131</v>
       </c>
       <c r="JA2" t="n">
-        <v>35.95491606359138</v>
+        <v>35.95491609805403</v>
       </c>
       <c r="JB2" t="n">
-        <v>259.032865958716</v>
+        <v>259.032865938225</v>
       </c>
       <c r="JC2" t="n">
-        <v>85286.54314014928</v>
+        <v>85286.54310397248</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.14779418898292</v>
+        <v>1.147794188586834</v>
       </c>
       <c r="JE2" t="n">
-        <v>310834.9146692374</v>
+        <v>310834.9146546272</v>
       </c>
       <c r="JF2" t="n">
-        <v>385139.6497504658</v>
+        <v>385139.6497299784</v>
       </c>
       <c r="JG2" t="n">
-        <v>3788.643751741432</v>
+        <v>3788.643751784019</v>
       </c>
       <c r="JH2" t="n">
-        <v>-596243.5993596995</v>
+        <v>-596243.5993135849</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.5228834723963</v>
+        <v>716.5228834718062</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.186348795662</v>
+        <v>1005.186348794691</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402867056979886</v>
+        <v>1.402867056979686</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993218641064305</v>
+        <v>0.9993218641064415</v>
       </c>
       <c r="JM2" t="n">
-        <v>322.7526057819748</v>
+        <v>322.7526057691891</v>
       </c>
       <c r="JN2" t="n">
-        <v>119564.8535526679</v>
+        <v>119564.8535019349</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.363661814376779e-06</v>
+        <v>8.363661817925593e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>85228.92668822728</v>
+        <v>85228.92665207564</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.173310563510981e-05</v>
+        <v>1.173310564008665e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003873976450221926</v>
+        <v>0.003873976450525786</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.650118368638526e-05</v>
+        <v>1.65011836853309e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02326518837338932</v>
+        <v>0.02326518837178098</v>
       </c>
       <c r="JU2" t="n">
-        <v>85286.54314014928</v>
+        <v>85286.54310397248</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.14779418898292</v>
+        <v>1.147794188586834</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.14779418898292</v>
+        <v>1.147794188586834</v>
       </c>
       <c r="JX2" t="n">
-        <v>310834.9146692374</v>
+        <v>310834.9146546272</v>
       </c>
       <c r="JY2" t="n">
-        <v>385139.6497504658</v>
+        <v>385139.6497299784</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3788.643751741432</v>
+        <v>3788.643751784019</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.5228834723963</v>
+        <v>716.5228834718062</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.186348795662</v>
+        <v>1005.186348794691</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.7526057819748</v>
+        <v>322.7526057691891</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993218641064305</v>
+        <v>0.9993218641064415</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.650118368638526e-05</v>
+        <v>1.65011836853309e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02326518837338932</v>
+        <v>0.02326518837178098</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5936773106511</v>
+        <v>295.5936773109045</v>
       </c>
       <c r="KJ2" t="n">
-        <v>135273.0064818505</v>
+        <v>135273.0064622525</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.595011390017089</v>
+        <v>1.595011389784527</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.3743525302</v>
+        <v>336974.3743527523</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310887903</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.643751746633</v>
+        <v>3788.643751789218</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698114.7075103195</v>
+        <v>-698114.7075235664</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8561334259718</v>
+        <v>717.8561334259335</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.776809796474</v>
+        <v>1006.77680979616</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402477130050594</v>
+        <v>1.402477130050233</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995303445646954</v>
+        <v>0.9995303445647659</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8027368046426</v>
+        <v>344.8027368047699</v>
       </c>
       <c r="KU2" t="n">
-        <v>189629.1932031285</v>
+        <v>189629.1931756195</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.27344963667494e-06</v>
+        <v>5.273449637439945e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>135210.1857064062</v>
+        <v>135210.1856868265</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.39589251191022e-06</v>
+        <v>7.395892512981215e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395618812316059</v>
+        <v>0.003395618812311295</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.83292516283093e-05</v>
+        <v>1.832925162831875e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606728822304901</v>
+        <v>0.02606728822306162</v>
       </c>
       <c r="LB2" t="n">
-        <v>135273.0064818505</v>
+        <v>135273.0064622525</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.595011390017089</v>
+        <v>1.595011389784527</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.595011390017089</v>
+        <v>1.595011389784527</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.3743525302</v>
+        <v>336974.3743527523</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310884895</v>
+        <v>421784.4310887903</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.643751746633</v>
+        <v>3788.643751789218</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8561334259718</v>
+        <v>717.8561334259335</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.776809796474</v>
+        <v>1006.77680979616</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8027368046426</v>
+        <v>344.8027368047699</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995303445646954</v>
+        <v>0.9995303445647659</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.83292516283093e-05</v>
+        <v>1.832925162831875e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606728822304901</v>
+        <v>0.02606728822306162</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>268.5763740669311</v>
+        <v>268.5763740519689</v>
       </c>
       <c r="LQ2" t="n">
-        <v>96773.37962875773</v>
+        <v>96773.37959561231</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.256050270445885</v>
+        <v>1.256050270085632</v>
       </c>
       <c r="LS2" t="n">
-        <v>317654.7866818628</v>
+        <v>317654.7866712027</v>
       </c>
       <c r="LT2" t="n">
-        <v>394700.5721140049</v>
+        <v>394700.5720990539</v>
       </c>
       <c r="LU2" t="n">
-        <v>3788.643751748064</v>
+        <v>3788.643751790651</v>
       </c>
       <c r="LV2" t="n">
-        <v>-622839.6293618246</v>
+        <v>-622839.6293315265</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.79942011742</v>
+        <v>716.7994201169039</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.529281086007</v>
+        <v>1005.529281085137</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402804261366854</v>
+        <v>1.40280426136665</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993666455122253</v>
+        <v>0.9993666455122432</v>
       </c>
       <c r="MA2" t="n">
-        <v>328.6518594674488</v>
+        <v>328.6518594582761</v>
       </c>
       <c r="MB2" t="n">
-        <v>135668.5579963027</v>
+        <v>135668.557949818</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.370904613191601e-06</v>
+        <v>7.370904615717126e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>96712.39369069997</v>
+        <v>96712.39365757699</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.033993640151378e-05</v>
+        <v>1.03399364050551e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003736580922646387</v>
+        <v>0.0037365809228522</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.698782622457767e-05</v>
+        <v>1.698782622381796e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02400790461523465</v>
+        <v>0.02400790461407161</v>
       </c>
       <c r="MI2" t="n">
-        <v>96773.37962875773</v>
+        <v>96773.37959561231</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.256050270445885</v>
+        <v>1.256050270085632</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.256050270445885</v>
+        <v>1.256050270085632</v>
       </c>
       <c r="ML2" t="n">
-        <v>317654.7866818628</v>
+        <v>317654.7866712027</v>
       </c>
       <c r="MM2" t="n">
-        <v>394700.5721140049</v>
+        <v>394700.5720990539</v>
       </c>
       <c r="MN2" t="n">
-        <v>3788.643751748064</v>
+        <v>3788.643751790651</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.79942011742</v>
+        <v>716.7994201169039</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.529281086007</v>
+        <v>1005.529281085137</v>
       </c>
       <c r="MQ2" t="n">
-        <v>328.6518594674488</v>
+        <v>328.6518594582761</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993666455122253</v>
+        <v>0.9993666455122432</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.698782622457767e-05</v>
+        <v>1.698782622381796e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02400790461523465</v>
+        <v>0.02400790461407161</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8387862601552118</v>
+        <v>0.8387862604274277</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.428445056668173</v>
+        <v>0.4284450568135375</v>
       </c>
       <c r="MY2" t="n">
-        <v>250661.8426793405</v>
+        <v>250661.8426839729</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.758259227937872</v>
+        <v>2.758259226609224</v>
       </c>
       <c r="NA2" t="n">
-        <v>381037.9981487847</v>
+        <v>381037.9981338338</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>165.7214310923871</v>
+        <v>165.7214396188497</v>
       </c>
       <c r="ND2" t="n">
-        <v>139.93695624683</v>
+        <v>139.9369609392816</v>
       </c>
       <c r="NE2" t="n">
-        <v>-88.77635383187118</v>
+        <v>-88.77636235182217</v>
       </c>
       <c r="NF2" t="n">
-        <v>-32.39114360505889</v>
+        <v>-32.39114522331153</v>
       </c>
       <c r="NG2" t="n">
-        <v>290.0668395370797</v>
+        <v>290.0668492637784</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.93695624683</v>
+        <v>139.9369609392816</v>
       </c>
       <c r="NI2" t="n">
-        <v>-254.0795538318712</v>
+        <v>-254.0795623518222</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK2" t="n">
-        <v>226.5586807422058</v>
+        <v>226.5586779087792</v>
       </c>
       <c r="NL2" t="n">
-        <v>50861.87627292109</v>
+        <v>50861.87390967557</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7826706704552018</v>
+        <v>0.7826706438803955</v>
       </c>
       <c r="NN2" t="n">
-        <v>287646.1573429161</v>
+        <v>287646.155319634</v>
       </c>
       <c r="NO2" t="n">
-        <v>352631.1864143898</v>
+        <v>352631.1835781463</v>
       </c>
       <c r="NP2" t="n">
-        <v>3802.821918173523</v>
+        <v>3802.821918982231</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-508931.1304645478</v>
+        <v>-508931.1227089947</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.873674960959</v>
+        <v>715.8736749222415</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.249226977342</v>
+        <v>1004.24922691694</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402830222849177</v>
+        <v>1.402830222840673</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.999255115856178</v>
+        <v>0.9992551158525714</v>
       </c>
       <c r="NV2" t="n">
-        <v>301.8197231875985</v>
+        <v>301.8197212982452</v>
       </c>
       <c r="NW2" t="n">
-        <v>71297.49845110859</v>
+        <v>71297.49513764612</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402573753251298e-05</v>
+        <v>1.40257381843417e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>50824.03935260382</v>
+        <v>50824.03699092798</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.967572850835926e-05</v>
+        <v>1.967572942264501e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004427349492937627</v>
+        <v>0.004427349548157435</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.478997253980096e-05</v>
+        <v>1.478997238660982e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.02067144540225939</v>
+        <v>0.0206714451713613</v>
       </c>
       <c r="OD2" t="n">
-        <v>50861.87627292109</v>
+        <v>50861.87390967557</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7826706704552018</v>
+        <v>0.7826706438803955</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7826706704552018</v>
+        <v>0.7826706438803955</v>
       </c>
       <c r="OG2" t="n">
-        <v>287646.1573429161</v>
+        <v>287646.155319634</v>
       </c>
       <c r="OH2" t="n">
-        <v>352631.1864143898</v>
+        <v>352631.1835781463</v>
       </c>
       <c r="OI2" t="n">
-        <v>3802.821918173523</v>
+        <v>3802.821918982231</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.873674960959</v>
+        <v>715.8736749222415</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.249226977342</v>
+        <v>1004.24922691694</v>
       </c>
       <c r="OL2" t="n">
-        <v>301.8197231875985</v>
+        <v>301.8197212982452</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.999255115856178</v>
+        <v>0.9992551158525714</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.478997253980096e-05</v>
+        <v>1.478997238660982e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.02067144540225939</v>
+        <v>0.0206714451713613</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>240.2729640453945</v>
+        <v>240.2729626236103</v>
       </c>
       <c r="OS2" t="n">
-        <v>62443.9107341807</v>
+        <v>62443.90926875024</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.9060204778899812</v>
+        <v>0.9060204619907054</v>
       </c>
       <c r="OU2" t="n">
-        <v>297441.9017871285</v>
+        <v>297441.9007719794</v>
       </c>
       <c r="OV2" t="n">
-        <v>366362.9827759441</v>
+        <v>366362.9813528183</v>
       </c>
       <c r="OW2" t="n">
-        <v>3802.821918169178</v>
+        <v>3802.821918977887</v>
       </c>
       <c r="OX2" t="n">
-        <v>-547352.3112393571</v>
+        <v>-547352.3074500016</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.0900881165775</v>
+        <v>716.0900880897559</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.553371996559</v>
+        <v>1004.553371956576</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402830996639938</v>
+        <v>1.402830996636646</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9992886265294155</v>
+        <v>0.9992886265273123</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.8311302699337</v>
+        <v>310.8311293492532</v>
       </c>
       <c r="PD2" t="n">
-        <v>87536.06683131063</v>
+        <v>87536.0647766234</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.142386259971086e-05</v>
+        <v>1.142386286785708e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>62399.58130450289</v>
+        <v>62399.57983997734</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.60257485562301e-05</v>
+        <v>1.602574893235632e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.004175139470814947</v>
+        <v>0.004175139495434472</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.552312102420272e-05</v>
+        <v>1.552312094900316e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02177897635691629</v>
+        <v>0.02177897624302028</v>
       </c>
       <c r="PK2" t="n">
-        <v>62443.9107341807</v>
+        <v>62443.90926875024</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.9060204778899812</v>
+        <v>0.9060204619907054</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9060204778899812</v>
+        <v>0.9060204619907054</v>
       </c>
       <c r="PN2" t="n">
-        <v>297441.9017871285</v>
+        <v>297441.9007719794</v>
       </c>
       <c r="PO2" t="n">
-        <v>366362.9827759441</v>
+        <v>366362.9813528183</v>
       </c>
       <c r="PP2" t="n">
-        <v>3802.821918169178</v>
+        <v>3802.821918977887</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.0900881165775</v>
+        <v>716.0900880897559</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.553371996559</v>
+        <v>1004.553371956576</v>
       </c>
       <c r="PS2" t="n">
-        <v>310.8311302699337</v>
+        <v>310.8311293492532</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9992886265294155</v>
+        <v>0.9992886265273123</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.552312102420272e-05</v>
+        <v>1.552312094900316e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02177897635691629</v>
+        <v>0.02177897624302028</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>268.5632284644102</v>
+        <v>268.563228448558</v>
       </c>
       <c r="PZ2" t="n">
-        <v>92106.78230603978</v>
+        <v>92106.78202827527</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.195503478225431</v>
+        <v>1.195503474688815</v>
       </c>
       <c r="QB2" t="n">
-        <v>317656.2272135952</v>
+        <v>317656.2272028672</v>
       </c>
       <c r="QC2" t="n">
-        <v>394700.572114005</v>
+        <v>394700.5720988536</v>
       </c>
       <c r="QD2" t="n">
-        <v>3802.821918162897</v>
+        <v>3802.821918971606</v>
       </c>
       <c r="QE2" t="n">
-        <v>-626597.5595030434</v>
+        <v>-626597.5596751018</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7840311717069</v>
+        <v>716.7840311703762</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.432909381458</v>
+        <v>1005.43290937552</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402699928649226</v>
+        <v>1.402699928643546</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993968762382716</v>
+        <v>0.9993968762398819</v>
       </c>
       <c r="QJ2" t="n">
-        <v>328.6414870868888</v>
+        <v>328.6414870770512</v>
       </c>
       <c r="QK2" t="n">
-        <v>129120.6245864894</v>
+        <v>129120.6241967861</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.744696118087365e-06</v>
+        <v>7.744696141461891e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>92051.49437116616</v>
+        <v>92051.49409371514</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.086348469225108e-05</v>
+        <v>1.086348472499455e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003736127278123417</v>
+        <v>0.003736127278308144</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.69864534950004e-05</v>
+        <v>1.698645349415858e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.02400523752894392</v>
+        <v>0.02400523752762553</v>
       </c>
       <c r="QR2" t="n">
-        <v>92106.78230603978</v>
+        <v>92106.78202827527</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.195503478225431</v>
+        <v>1.195503474688815</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.195503478225431</v>
+        <v>1.195503474688815</v>
       </c>
       <c r="QU2" t="n">
-        <v>317656.2272135952</v>
+        <v>317656.2272028672</v>
       </c>
       <c r="QV2" t="n">
-        <v>394700.572114005</v>
+        <v>394700.5720988536</v>
       </c>
       <c r="QW2" t="n">
-        <v>3802.821918162897</v>
+        <v>3802.821918971606</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.7840311717069</v>
+        <v>716.7840311703762</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.432909381458</v>
+        <v>1005.43290937552</v>
       </c>
       <c r="QZ2" t="n">
-        <v>328.6414870868888</v>
+        <v>328.6414870770512</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9993968762382716</v>
+        <v>0.9993968762398819</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.69864534950004e-05</v>
+        <v>1.698645349415858e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02400523752894392</v>
+        <v>0.02400523752762553</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.0243782945853834</v>
+        <v>0.02437829447729221</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.002249028164046406</v>
+        <v>0.002249028245301913</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.0119029910070895</v>
+        <v>0.01190299100552337</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.03193424758215694</v>
+        <v>0.03193424759607856</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04266279909381816</v>
+        <v>0.04266279911641291</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1131273604324944</v>
+        <v>0.1131273604406089</v>
       </c>
       <c r="RL2" t="n">
-        <v>1.624374603872991e-05</v>
+        <v>1.624395094823594e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.5490742266348895</v>
+        <v>0.5490742583222085</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9610599217095771</v>
+        <v>0.9610599599525401</v>
       </c>
       <c r="RO2" t="n">
-        <v>400022.2850147532</v>
+        <v>400022.2889895239</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.758240091684105</v>
+        <v>2.758240090521789</v>
       </c>
       <c r="RQ2" t="n">
-        <v>381037.9981487847</v>
+        <v>381037.9981338338</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>349441.5683765932</v>
+        <v>349441.5654091033</v>
       </c>
       <c r="RT2" t="n">
-        <v>2666.55099394772</v>
+        <v>2666.550996540172</v>
       </c>
       <c r="RU2" t="n">
-        <v>6.174937238608685</v>
+        <v>6.174937477312326</v>
       </c>
     </row>
     <row r="3">
@@ -10179,34 +10179,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01584031319452918</v>
+        <v>0.01584031318189684</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.798815511136149e-07</v>
+        <v>-1.7988155159446e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01378750972711655</v>
+        <v>0.01378750972672371</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02523269070375284</v>
+        <v>0.02523269070932601</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05486033374384747</v>
+        <v>0.05486033373639496</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.304858998629754e-12</v>
+        <v>-1.61828189737534e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172381428</v>
+        <v>81.75758172377387</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172381428</v>
+        <v>81.75758172377387</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172381428</v>
+        <v>81.75758172377387</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172381428</v>
+        <v>81.75758172377387</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180725996</v>
+        <v>292.2676180725028</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394376641</v>
+        <v>132637.8394375109</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096101883</v>
+        <v>1.581790096100582</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834751629</v>
+        <v>334589.2834750936</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800039267</v>
+        <v>418442.2800038296</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723466</v>
+        <v>3782.917347723465</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625807267</v>
+        <v>-687181.9625804574</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.709071370406</v>
+        <v>717.7090713704017</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103398</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574211</v>
+        <v>1.402578355574212</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756401</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222493</v>
+        <v>342.8584121221925</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165869482</v>
+        <v>185942.4165867336</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054391264e-06</v>
+        <v>5.378009054397472e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565725507</v>
+        <v>132571.8565723975</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095771315e-06</v>
+        <v>7.543079095780033e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00343445503859879</v>
+        <v>0.003434455038599926</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047173e-05</v>
+        <v>1.8167258560467e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128128</v>
+        <v>0.02581791190127398</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394376641</v>
+        <v>132637.8394375109</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096101883</v>
+        <v>1.581790096100582</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096101883</v>
+        <v>1.581790096100582</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834751629</v>
+        <v>334589.2834750936</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800039267</v>
+        <v>418442.2800038296</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723466</v>
+        <v>3782.917347723465</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.709071370406</v>
+        <v>717.7090713704017</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103398</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222493</v>
+        <v>342.8584121221925</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756401</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047173e-05</v>
+        <v>1.8167258560467e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128128</v>
+        <v>0.02581791190127398</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         <v>295.6000000001887</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953522</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756432</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475829663</v>
@@ -10364,16 +10364,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974372406</v>
+        <v>193456.8974372405</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087296888e-06</v>
+        <v>5.169110087296892e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617461894</v>
+        <v>137934.6617461893</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346979649e-06</v>
+        <v>7.249809346979655e-06</v>
       </c>
       <c r="BO3" t="n">
         <v>0.003395798695744088</v>
@@ -10385,13 +10385,13 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953522</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756432</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756432</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475829663</v>
@@ -10432,10 +10432,10 @@
         <v>295.6000000001887</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953522</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756432</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475829663</v>
@@ -10465,16 +10465,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974372406</v>
+        <v>193456.8974372405</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087296888e-06</v>
+        <v>5.169110087296892e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617461894</v>
+        <v>137934.6617461893</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346979649e-06</v>
+        <v>7.249809346979655e-06</v>
       </c>
       <c r="CV3" t="n">
         <v>0.003395798695744088</v>
@@ -10486,13 +10486,13 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999953523</v>
+        <v>137999.9999953522</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756432</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819756433</v>
+        <v>1.627145819756432</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475829663</v>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305813657</v>
+        <v>0.2384587305812873</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305813657</v>
+        <v>0.2384587305812873</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323184569</v>
+        <v>186219.5323182601</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934696275</v>
+        <v>2.776369934692618</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780782889825</v>
+        <v>309.3780778039599</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136419179754</v>
+        <v>126.4136417197924</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727792525648</v>
+        <v>282.3727788098793</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780782889825</v>
+        <v>309.3780778039599</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136419179754</v>
+        <v>126.4136417197924</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727792525648</v>
+        <v>282.3727788098793</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365044879489</v>
+        <v>247.8365046378023</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23738225474</v>
+        <v>72726.23754024837</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014665870575</v>
+        <v>1.023014667473958</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9114473703</v>
+        <v>302836.9115544067</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0334255976</v>
+        <v>373927.0335756531</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061387941</v>
+        <v>3790.093061370251</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3825928187</v>
+        <v>-565396.3830063376</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430461906</v>
+        <v>716.2529430494246</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581190055</v>
+        <v>1004.831581194404</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457087901</v>
+        <v>1.402900457087638</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812858989847</v>
+        <v>0.9992812858994703</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911152621878</v>
+        <v>315.6911153577535</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5421149313</v>
+        <v>101954.542336453</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292786727639e-06</v>
+        <v>9.808292765416676e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.10998394391</v>
+        <v>72674.1101418602</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005843375217e-05</v>
+        <v>1.376005840385242e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559452425718</v>
+        <v>0.004048559449983604</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113114339472e-05</v>
+        <v>1.59211311512254e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288369959285</v>
+        <v>0.02238288371148161</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23738225474</v>
+        <v>72726.23754024837</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014665870575</v>
+        <v>1.023014667473958</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014665870575</v>
+        <v>1.023014667473958</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9114473703</v>
+        <v>302836.9115544067</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0334255976</v>
+        <v>373927.0335756531</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061387941</v>
+        <v>3790.093061370251</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430461906</v>
+        <v>716.2529430494246</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581190055</v>
+        <v>1004.831581194404</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911152621878</v>
+        <v>315.6911153577535</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812858989847</v>
+        <v>0.9992812858994703</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113114339472e-05</v>
+        <v>1.59211311512254e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288369959285</v>
+        <v>0.02238288371148161</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968649726</v>
+        <v>295.5920968649918</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4165273343</v>
+        <v>134591.416535632</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979526888428</v>
+        <v>1.586979526986209</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325242</v>
+        <v>336974.630932521</v>
       </c>
       <c r="FL3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061397588</v>
+        <v>3790.093061379901</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242432065</v>
+        <v>-698537.1242380509</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.854358060743</v>
+        <v>717.8543580607646</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720218</v>
+        <v>1006.765618720354</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008974742</v>
+        <v>1.40246500897489</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648235121</v>
+        <v>0.9995326648234839</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163635428</v>
+        <v>344.8011163635625</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.520221485</v>
+        <v>188672.5202331315</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188913711905e-06</v>
+        <v>5.30018891338473e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2174949963</v>
+        <v>134529.2175032865</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329492436796e-06</v>
+        <v>7.433329491978726e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843597662</v>
+        <v>0.00339557384359821</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665246793e-05</v>
+        <v>1.832907665247006e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184418372</v>
+        <v>0.0260669518441878</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4165273343</v>
+        <v>134591.416535632</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979526888428</v>
+        <v>1.586979526986209</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979526888428</v>
+        <v>1.586979526986209</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325242</v>
+        <v>336974.630932521</v>
       </c>
       <c r="GE3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061397588</v>
+        <v>3790.093061379901</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.854358060743</v>
+        <v>717.8543580607646</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720218</v>
+        <v>1006.765618720354</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163635428</v>
+        <v>344.8011163635625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648235121</v>
+        <v>0.9995326648234839</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665246793e-05</v>
+        <v>1.832907665247006e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184418372</v>
+        <v>0.0260669518441878</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968649726</v>
+        <v>295.5920968649918</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4165273343</v>
+        <v>134591.416535632</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979526888428</v>
+        <v>1.586979526986209</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325242</v>
+        <v>336974.630932521</v>
       </c>
       <c r="GS3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061397588</v>
+        <v>3790.093061379901</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242432065</v>
+        <v>-698537.1242380509</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.854358060743</v>
+        <v>717.8543580607646</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720218</v>
+        <v>1006.765618720354</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008974742</v>
+        <v>1.40246500897489</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648235121</v>
+        <v>0.9995326648234839</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163635428</v>
+        <v>344.8011163635625</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.520221485</v>
+        <v>188672.5202331315</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188913711905e-06</v>
+        <v>5.30018891338473e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2174949963</v>
+        <v>134529.2175032865</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329492436796e-06</v>
+        <v>7.433329491978726e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843597662</v>
+        <v>0.00339557384359821</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665246793e-05</v>
+        <v>1.832907665247006e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184418372</v>
+        <v>0.0260669518441878</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4165273343</v>
+        <v>134591.416535632</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979526888428</v>
+        <v>1.586979526986209</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979526888428</v>
+        <v>1.586979526986209</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325242</v>
+        <v>336974.630932521</v>
       </c>
       <c r="HL3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061397588</v>
+        <v>3790.093061379901</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.854358060743</v>
+        <v>717.8543580607646</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720218</v>
+        <v>1006.765618720354</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163635428</v>
+        <v>344.8011163635625</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648235121</v>
+        <v>0.9995326648234839</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665246793e-05</v>
+        <v>1.832907665247006e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184418372</v>
+        <v>0.0260669518441878</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,37 +10875,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337326894506</v>
+        <v>0.01619337326756588</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005773286938e-07</v>
+        <v>-1.972005778178958e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868003</v>
+        <v>0.01379727827868001</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318924</v>
+        <v>0.02510093007318974</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138442023701</v>
+        <v>0.05509138441885782</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578242904112629e-06</v>
+        <v>5.578243474087252e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024876596157</v>
+        <v>0.9800024858265667</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024876596157</v>
+        <v>0.9800024858265667</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1650871422</v>
+        <v>520038.1648311454</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991722555</v>
+        <v>2.776362991721381</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372154.9645312732</v>
+        <v>372154.9646846099</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1493.408140050364</v>
+        <v>1493.408125558402</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.0249926967120648</v>
+        <v>0.02499269626820827</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.002208533119988248</v>
+        <v>0.002208532870958716</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01186225827042652</v>
+        <v>0.01186225830409374</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.0321927669764633</v>
+        <v>0.03219276672860667</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04259304861784424</v>
+        <v>0.04259304843764644</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1138493036967871</v>
+        <v>0.1138493026095138</v>
       </c>
       <c r="IR3" t="n">
-        <v>4.169624368000058e-11</v>
+        <v>1.754715747703806e-09</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>270.8635182402591</v>
+        <v>270.8635181138275</v>
       </c>
       <c r="IU3" t="n">
-        <v>111.9410592987496</v>
+        <v>111.9410592952004</v>
       </c>
       <c r="IV3" t="n">
-        <v>246.6500451177031</v>
+        <v>246.6500449804707</v>
       </c>
       <c r="IW3" t="n">
-        <v>65.58928231648032</v>
+        <v>65.5892823051671</v>
       </c>
       <c r="IX3" t="n">
-        <v>138.3766958975743</v>
+        <v>138.3766958140289</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.9410592987496</v>
+        <v>111.9410592952004</v>
       </c>
       <c r="IZ3" t="n">
-        <v>81.34684511770311</v>
+        <v>81.34684498047065</v>
       </c>
       <c r="JA3" t="n">
-        <v>36.005662785509</v>
+        <v>36.00566274040624</v>
       </c>
       <c r="JB3" t="n">
-        <v>258.994135731752</v>
+        <v>258.9941357660005</v>
       </c>
       <c r="JC3" t="n">
-        <v>85224.13214081002</v>
+        <v>85224.13219792288</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.147125802970768</v>
+        <v>1.147125803587812</v>
       </c>
       <c r="JE3" t="n">
-        <v>310807.2851565317</v>
+        <v>310807.2851809593</v>
       </c>
       <c r="JF3" t="n">
-        <v>385100.9083320377</v>
+        <v>385100.9083662902</v>
       </c>
       <c r="JG3" t="n">
-        <v>3788.704170018081</v>
+        <v>3788.704169958097</v>
       </c>
       <c r="JH3" t="n">
-        <v>-596151.2537250801</v>
+        <v>-596151.2538050491</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.5217902416357</v>
+        <v>716.5217902426089</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.184648010641</v>
+        <v>1005.184648012189</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.40286682373143</v>
+        <v>1.402866823731684</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993218376476476</v>
+        <v>0.9993218376476555</v>
       </c>
       <c r="JM3" t="n">
-        <v>322.7284402142151</v>
+        <v>322.7284402355857</v>
       </c>
       <c r="JN3" t="n">
-        <v>119477.3349412945</v>
+        <v>119477.3350213851</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.369788299105871e-06</v>
+        <v>8.369788293495256e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>85166.55531385474</v>
+        <v>85166.55537092996</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.174169832647114e-05</v>
+        <v>1.174169831860232e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003874551799904571</v>
+        <v>0.00387455179939603</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.649919170261766e-05</v>
+        <v>1.649919170437949e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.0232621505877578</v>
+        <v>0.02326215059044483</v>
       </c>
       <c r="JU3" t="n">
-        <v>85224.13214081002</v>
+        <v>85224.13219792288</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.147125802970768</v>
+        <v>1.147125803587812</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.147125802970768</v>
+        <v>1.147125803587812</v>
       </c>
       <c r="JX3" t="n">
-        <v>310807.2851565317</v>
+        <v>310807.2851809593</v>
       </c>
       <c r="JY3" t="n">
-        <v>385100.9083320377</v>
+        <v>385100.9083662902</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3788.704170018081</v>
+        <v>3788.704169958097</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.5217902416357</v>
+        <v>716.5217902426089</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.184648010641</v>
+        <v>1005.184648012189</v>
       </c>
       <c r="KC3" t="n">
-        <v>322.7284402142151</v>
+        <v>322.7284402355857</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993218376476476</v>
+        <v>0.9993218376476555</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.649919170261766e-05</v>
+        <v>1.649919170437949e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.0232621505877578</v>
+        <v>0.02326215059044483</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5936112673724</v>
+        <v>295.5936112673461</v>
       </c>
       <c r="KJ3" t="n">
-        <v>135244.523755303</v>
+        <v>135244.5237868421</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.594675750249952</v>
+        <v>1.594675750622146</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.3850752952</v>
+        <v>336974.3850752118</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310887901</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.704170030546</v>
+        <v>3788.704169963298</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698132.3165542915</v>
+        <v>-698132.3165344145</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.8560592368648</v>
+        <v>717.8560592369428</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.776342140386</v>
+        <v>1006.776342140901</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402476623531834</v>
+        <v>1.402476623532399</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995304415158853</v>
+        <v>0.9995304415157766</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8026690861218</v>
+        <v>344.802669086139</v>
       </c>
       <c r="KU3" t="n">
-        <v>189589.2148813963</v>
+        <v>189589.2149256649</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.274561639097364e-06</v>
+        <v>5.274561637865766e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>135181.729021591</v>
+        <v>135181.7290531011</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.397449398211806e-06</v>
+        <v>7.397449396487502e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.00339561693319702</v>
+        <v>0.003395616933200253</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832924431622703e-05</v>
+        <v>1.832924431623031e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606727416595904</v>
+        <v>0.02606727416596719</v>
       </c>
       <c r="LB3" t="n">
-        <v>135244.523755303</v>
+        <v>135244.5237868421</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.594675750249952</v>
+        <v>1.594675750622146</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.594675750249952</v>
+        <v>1.594675750622146</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.3850752952</v>
+        <v>336974.3850752118</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310887901</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.704170030546</v>
+        <v>3788.704169963298</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.8560592368648</v>
+        <v>717.8560592369428</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.776342140386</v>
+        <v>1006.776342140901</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8026690861218</v>
+        <v>344.802669086139</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995304415158853</v>
+        <v>0.9995304415157766</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832924431622703e-05</v>
+        <v>1.832924431623031e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606727416595904</v>
+        <v>0.02606727416596719</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>268.5507580863223</v>
+        <v>268.5507581090267</v>
       </c>
       <c r="LQ3" t="n">
-        <v>96720.84459002002</v>
+        <v>96720.84464117348</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.255488143261219</v>
+        <v>1.255488143819115</v>
       </c>
       <c r="LS3" t="n">
-        <v>317636.5260281575</v>
+        <v>317636.5260443318</v>
       </c>
       <c r="LT3" t="n">
-        <v>394674.9633158094</v>
+        <v>394674.9633384944</v>
       </c>
       <c r="LU3" t="n">
-        <v>3788.704170031978</v>
+        <v>3788.704169964732</v>
       </c>
       <c r="LV3" t="n">
-        <v>-622784.4137110887</v>
+        <v>-622784.4137563651</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.7985497373232</v>
+        <v>716.7985497381095</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.527878503408</v>
+        <v>1005.527878504746</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402804008004609</v>
+        <v>1.402804008004936</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993666486682775</v>
+        <v>0.9993666486682448</v>
       </c>
       <c r="MA3" t="n">
-        <v>328.6361570635815</v>
+        <v>328.6361570775018</v>
       </c>
       <c r="MB3" t="n">
-        <v>135594.883594185</v>
+        <v>135594.8836659257</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.374909535619715e-06</v>
+        <v>7.374909531717789e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>96659.89177423244</v>
+        <v>96659.89182535077</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.034555265523874e-05</v>
+        <v>1.034555264976753e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003736933889870854</v>
+        <v>0.003736933889558604</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.698652618969666e-05</v>
+        <v>1.698652619084965e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02400591489752018</v>
+        <v>0.0240059148992854</v>
       </c>
       <c r="MI3" t="n">
-        <v>96720.84459002002</v>
+        <v>96720.84464117348</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.255488143261219</v>
+        <v>1.255488143819115</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.255488143261219</v>
+        <v>1.255488143819115</v>
       </c>
       <c r="ML3" t="n">
-        <v>317636.5260281575</v>
+        <v>317636.5260443318</v>
       </c>
       <c r="MM3" t="n">
-        <v>394674.9633158094</v>
+        <v>394674.9633384944</v>
       </c>
       <c r="MN3" t="n">
-        <v>3788.704170031978</v>
+        <v>3788.704169964732</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.7985497373232</v>
+        <v>716.7985497381095</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.527878503408</v>
+        <v>1005.527878504746</v>
       </c>
       <c r="MQ3" t="n">
-        <v>328.6361570635815</v>
+        <v>328.6361570775018</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993666486682775</v>
+        <v>0.9993666486682448</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.698652618969666e-05</v>
+        <v>1.698652619084965e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02400591489752018</v>
+        <v>0.0240059148992854</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8392923724369317</v>
+        <v>0.8392923719895968</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4287713094195386</v>
+        <v>0.4287713091322741</v>
       </c>
       <c r="MY3" t="n">
-        <v>250718.1346520116</v>
+        <v>250718.1346087301</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.756772352756069</v>
+        <v>2.756772354151544</v>
       </c>
       <c r="NA3" t="n">
-        <v>381012.3893505891</v>
+        <v>381012.3893732743</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>165.7024303178858</v>
+        <v>165.7024169105344</v>
       </c>
       <c r="ND3" t="n">
-        <v>139.9264991839421</v>
+        <v>139.9264918050881</v>
       </c>
       <c r="NE3" t="n">
-        <v>-88.75736724002152</v>
+        <v>-88.75735384244607</v>
       </c>
       <c r="NF3" t="n">
-        <v>-32.38753693794211</v>
+        <v>-32.3875343926649</v>
       </c>
       <c r="NG3" t="n">
-        <v>290.0451637248848</v>
+        <v>290.0451484297054</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.9264991839421</v>
+        <v>139.9264918050881</v>
       </c>
       <c r="NI3" t="n">
-        <v>-254.0605672400215</v>
+        <v>-254.0605538424461</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK3" t="n">
-        <v>226.5393322492903</v>
+        <v>226.5393367038159</v>
       </c>
       <c r="NL3" t="n">
-        <v>50833.92210138319</v>
+        <v>50833.92580920535</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7823072014601589</v>
+        <v>0.78230724313429</v>
       </c>
       <c r="NN3" t="n">
-        <v>287632.3759314182</v>
+        <v>287632.3791123069</v>
       </c>
       <c r="NO3" t="n">
-        <v>352611.8648157119</v>
+        <v>352611.8692746896</v>
       </c>
       <c r="NP3" t="n">
-        <v>3802.894322321803</v>
+        <v>3802.894321083076</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-508893.2755776867</v>
+        <v>-508893.2877781787</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.873348034606</v>
+        <v>715.8733480954155</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.248443081724</v>
+        <v>1004.248443176463</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.402829768476277</v>
+        <v>1.402829768489455</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.9992552641579164</v>
+        <v>0.9992552641636638</v>
       </c>
       <c r="NV3" t="n">
-        <v>301.8068307026799</v>
+        <v>301.8068336731254</v>
       </c>
       <c r="NW3" t="n">
-        <v>71258.3000829122</v>
+        <v>71258.30528157698</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.403345292880205e-05</v>
+        <v>1.403345190498852e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>50796.1134588065</v>
+        <v>50796.11716417081</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.968654552303411e-05</v>
+        <v>1.968654408698295e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004427723465508964</v>
+        <v>0.004427723378679695</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.478892449267988e-05</v>
+        <v>1.478892473352343e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02066986362540508</v>
+        <v>0.02066986398841411</v>
       </c>
       <c r="OD3" t="n">
-        <v>50833.92210138319</v>
+        <v>50833.92580920535</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7823072014601589</v>
+        <v>0.78230724313429</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7823072014601589</v>
+        <v>0.78230724313429</v>
       </c>
       <c r="OG3" t="n">
-        <v>287632.3759314182</v>
+        <v>287632.3791123069</v>
       </c>
       <c r="OH3" t="n">
-        <v>352611.8648157119</v>
+        <v>352611.8692746896</v>
       </c>
       <c r="OI3" t="n">
-        <v>3802.894322321803</v>
+        <v>3802.894321083076</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.873348034606</v>
+        <v>715.8733480954155</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.248443081724</v>
+        <v>1004.248443176463</v>
       </c>
       <c r="OL3" t="n">
-        <v>301.8068307026799</v>
+        <v>301.8068336731254</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9992552641579164</v>
+        <v>0.9992552641636638</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.478892449267988e-05</v>
+        <v>1.478892473352343e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02066986362540508</v>
+        <v>0.02066986398841411</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>240.2504697245224</v>
+        <v>240.2504719597352</v>
       </c>
       <c r="OS3" t="n">
-        <v>62407.7998984551</v>
+        <v>62407.80219406018</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.9055812104512769</v>
+        <v>0.9055812353338253</v>
       </c>
       <c r="OU3" t="n">
-        <v>297425.8760676406</v>
+        <v>297425.8776635951</v>
       </c>
       <c r="OV3" t="n">
-        <v>366340.5125223385</v>
+        <v>366340.514759686</v>
       </c>
       <c r="OW3" t="n">
-        <v>3802.894322317367</v>
+        <v>3802.89432107864</v>
       </c>
       <c r="OX3" t="n">
-        <v>-547306.6347271282</v>
+        <v>-547306.6406924541</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.0896066329833</v>
+        <v>716.0896066750977</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.552388862329</v>
+        <v>1004.552388924968</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402830566953321</v>
+        <v>1.402830566958292</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.999288740324457</v>
+        <v>0.9992887403278397</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.8165674842289</v>
+        <v>310.8165689317162</v>
       </c>
       <c r="PD3" t="n">
-        <v>87485.42841591718</v>
+        <v>87485.43163459146</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.143047497288199e-05</v>
+        <v>1.143047455234368e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>62363.50310352783</v>
+        <v>62363.505397721</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.603501968675379e-05</v>
+        <v>1.603501909686661e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004175526280592198</v>
+        <v>0.004175526241878648</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.552192918306961e-05</v>
+        <v>1.552192930129522e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02177716919208917</v>
+        <v>0.02177716937114918</v>
       </c>
       <c r="PK3" t="n">
-        <v>62407.7998984551</v>
+        <v>62407.80219406018</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.9055812104512769</v>
+        <v>0.9055812353338253</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9055812104512769</v>
+        <v>0.9055812353338253</v>
       </c>
       <c r="PN3" t="n">
-        <v>297425.8760676406</v>
+        <v>297425.8776635951</v>
       </c>
       <c r="PO3" t="n">
-        <v>366340.5125223385</v>
+        <v>366340.514759686</v>
       </c>
       <c r="PP3" t="n">
-        <v>3802.894322317367</v>
+        <v>3802.89432107864</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.0896066329833</v>
+        <v>716.0896066750977</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.552388862329</v>
+        <v>1004.552388924968</v>
       </c>
       <c r="PS3" t="n">
-        <v>310.8165674842289</v>
+        <v>310.8165689317162</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.999288740324457</v>
+        <v>0.9992887403278397</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.552192918306961e-05</v>
+        <v>1.552192930129522e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02177716919208917</v>
+        <v>0.02177716937114918</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>268.5376063058159</v>
+        <v>268.5376063297691</v>
       </c>
       <c r="PZ3" t="n">
-        <v>92052.93451031492</v>
+        <v>92052.93493513872</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.194918525723463</v>
+        <v>1.194918531134372</v>
       </c>
       <c r="QB3" t="n">
-        <v>317637.9666261702</v>
+        <v>317637.9666423685</v>
       </c>
       <c r="QC3" t="n">
-        <v>394674.9633156152</v>
+        <v>394674.9633384948</v>
       </c>
       <c r="QD3" t="n">
-        <v>3802.894322311173</v>
+        <v>3802.894321072444</v>
       </c>
       <c r="QE3" t="n">
-        <v>-626545.1750318053</v>
+        <v>-626545.1747673717</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7831526518786</v>
+        <v>716.783152653906</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.431457482159</v>
+        <v>1005.431457491238</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402699622280979</v>
+        <v>1.402699622289678</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993969044079936</v>
+        <v>0.9993969044055253</v>
       </c>
       <c r="QJ3" t="n">
-        <v>328.625782651955</v>
+        <v>328.6257826668232</v>
       </c>
       <c r="QK3" t="n">
-        <v>129045.1126964575</v>
+        <v>129045.1132924849</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.749227995578725e-06</v>
+        <v>7.749227959786962e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>91997.68121888615</v>
+        <v>91997.68164323013</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.086983918236746e-05</v>
+        <v>1.086983913222978e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003736479944824771</v>
+        <v>0.003736479944546301</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.698515289024004e-05</v>
+        <v>1.698515289151289e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02400324667634157</v>
+        <v>0.02400324667833559</v>
       </c>
       <c r="QR3" t="n">
-        <v>92052.93451031492</v>
+        <v>92052.93493513872</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.194918525723463</v>
+        <v>1.194918531134372</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.194918525723463</v>
+        <v>1.194918531134372</v>
       </c>
       <c r="QU3" t="n">
-        <v>317637.9666261702</v>
+        <v>317637.9666423685</v>
       </c>
       <c r="QV3" t="n">
-        <v>394674.9633156152</v>
+        <v>394674.9633384948</v>
       </c>
       <c r="QW3" t="n">
-        <v>3802.894322311173</v>
+        <v>3802.894321072444</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.7831526518786</v>
+        <v>716.783152653906</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.431457482159</v>
+        <v>1005.431457491238</v>
       </c>
       <c r="QZ3" t="n">
-        <v>328.625782651955</v>
+        <v>328.6257826668232</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.9993969044079936</v>
+        <v>0.9993969044055253</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.698515289024004e-05</v>
+        <v>1.698515289151289e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02400324667634157</v>
+        <v>0.02400324667833559</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.0243963252051933</v>
+        <v>0.02439632537272004</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.002282459031840388</v>
+        <v>0.002282458908349485</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.01190068559322569</v>
+        <v>0.01190068559527739</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.03195465824836303</v>
+        <v>0.03195465823018391</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04269609654324331</v>
+        <v>0.04269609651362566</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1132302246218657</v>
+        <v>0.1132302246201565</v>
       </c>
       <c r="RL3" t="n">
-        <v>1.630432738629339e-05</v>
+        <v>1.630422708576162e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.5490347250659972</v>
+        <v>0.5490346752386659</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9610291558000493</v>
+        <v>0.9610290956626959</v>
       </c>
       <c r="RO3" t="n">
-        <v>399834.9708759452</v>
+        <v>399834.9645791894</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.756753157320078</v>
+        <v>2.756753158800489</v>
       </c>
       <c r="RQ3" t="n">
-        <v>381012.3893505891</v>
+        <v>381012.3893732743</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>349419.8420038209</v>
+        <v>349419.8466633158</v>
       </c>
       <c r="RT3" t="n">
-        <v>2821.383971983159</v>
+        <v>2821.384001588682</v>
       </c>
       <c r="RU3" t="n">
-        <v>6.541048836280439</v>
+        <v>6.54104843398018</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4037487451326635</v>
+        <v>0.4037487398861083</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4233608858798509</v>
+        <v>0.4233608946705846</v>
       </c>
     </row>
   </sheetData>
@@ -12808,16 +12808,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>9.151536422690296e-09</v>
+        <v>4.507076264392446e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12839,16 +12839,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>4.912163409187926e-09</v>
+        <v>1.514538692614248e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
